--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\landfiredisturbance\specifications\2_MechAdd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance-clone\specifications\2_MechAdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1065,15 +1065,6 @@
     <t>Time Step 3 (233) Rules</t>
   </si>
   <si>
-    <t>Low Severity Mech Add</t>
-  </si>
-  <si>
-    <t>Moderate Severity MechAdd</t>
-  </si>
-  <si>
-    <t>High Severity MechAdd</t>
-  </si>
-  <si>
     <t>* = 0.85</t>
   </si>
   <si>
@@ -1444,6 +1435,15 @@
   </si>
   <si>
     <t>* = 1/0.25</t>
+  </si>
+  <si>
+    <t>Low Severity Mech Add (21)</t>
+  </si>
+  <si>
+    <t>Moderate Severity MechAdd (22)</t>
+  </si>
+  <si>
+    <t>High Severity MechAdd (23)</t>
   </si>
 </sst>
 </file>
@@ -2540,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,24 +2563,24 @@
     <row r="1" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="24" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
       <c r="F1" s="27" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="34"/>
       <c r="I1" s="27" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>13</v>
@@ -2615,17 +2615,17 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3" s="30"/>
       <c r="F3" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>10</v>
@@ -2667,7 +2667,7 @@
         <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2675,14 +2675,14 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="30"/>
       <c r="F7" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>1</v>
@@ -2693,14 +2693,14 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" s="30"/>
       <c r="F8" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>10</v>
@@ -2745,7 +2745,7 @@
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2753,14 +2753,14 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D12" s="30"/>
       <c r="F12" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>1</v>
@@ -2771,14 +2771,14 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D13" s="30"/>
       <c r="F13" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>251</v>
@@ -2803,7 +2803,7 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>251</v>
@@ -2817,7 +2817,7 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>251</v>
@@ -2831,7 +2831,7 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E22" s="31"/>
     </row>
@@ -2898,7 +2898,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
@@ -2910,7 +2910,7 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E24" s="31"/>
       <c r="G24" s="30"/>
@@ -2921,7 +2921,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="31"/>
@@ -2931,7 +2931,7 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E26" s="31"/>
     </row>
@@ -2940,7 +2940,7 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E35" s="31"/>
       <c r="J35" s="30"/>
@@ -3015,10 +3015,10 @@
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>10</v>
@@ -3050,27 +3050,27 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H37" s="31"/>
       <c r="I37" s="29" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K37" s="31"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E38" s="31"/>
       <c r="H38" s="31"/>
@@ -3090,10 +3090,10 @@
         <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>10</v>
@@ -3125,20 +3125,20 @@
         <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H40" s="31"/>
       <c r="I40" s="29" t="s">
@@ -3154,7 +3154,7 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D41" s="30"/>
       <c r="G41" s="30"/>
@@ -3166,19 +3166,19 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>12</v>
@@ -3201,19 +3201,19 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>12</v>
@@ -3236,26 +3236,26 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I44" s="29" t="s">
         <v>1</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K44" s="31"/>
     </row>
@@ -3264,7 +3264,7 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D45" s="30"/>
       <c r="J45" s="30"/>
@@ -3275,16 +3275,16 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>12</v>
@@ -3307,16 +3307,16 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>12</v>
@@ -3339,25 +3339,25 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>1</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K48" s="31"/>
     </row>
@@ -3366,34 +3366,34 @@
         <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>263</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3401,34 +3401,34 @@
         <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>263</v>
       </c>
       <c r="J50" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3436,34 +3436,34 @@
         <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,34 +3471,34 @@
         <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3506,34 +3506,34 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J53" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3541,7 +3541,7 @@
         <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D54" s="33">
         <v>0.75</v>
@@ -3559,7 +3559,7 @@
         <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D55" s="33">
         <v>0.75</v>
@@ -3577,7 +3577,7 @@
         <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D56" s="33">
         <v>0.75</v>
@@ -3595,25 +3595,25 @@
         <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D57" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>386</v>
-      </c>
       <c r="G57" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="H57" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="H57" s="31" t="s">
-        <v>386</v>
-      </c>
       <c r="J57" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="K57" s="31" t="s">
         <v>383</v>
-      </c>
-      <c r="K57" s="31" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3621,25 +3621,25 @@
         <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D58" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="E58" s="31" t="s">
-        <v>387</v>
-      </c>
       <c r="G58" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="H58" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="H58" s="31" t="s">
-        <v>387</v>
-      </c>
       <c r="J58" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K58" s="31" t="s">
         <v>384</v>
-      </c>
-      <c r="K58" s="31" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3647,25 +3647,25 @@
         <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D59" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="G59" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="H59" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="J59" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" s="31" t="s">
         <v>385</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
         <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3681,7 +3681,7 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3689,25 +3689,25 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3731,16 +3731,16 @@
         <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D79" s="30"/>
       <c r="J79" s="30"/>
@@ -3862,7 +3862,7 @@
         <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D80" s="30"/>
       <c r="J80" s="30"/>
@@ -3872,7 +3872,7 @@
         <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>10</v>
@@ -3893,7 +3893,7 @@
         <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>10</v>
@@ -3914,7 +3914,7 @@
         <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D83" s="30"/>
       <c r="J83" s="30"/>
@@ -3924,7 +3924,7 @@
         <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D84" s="30"/>
       <c r="J84" s="30"/>
@@ -3934,7 +3934,7 @@
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D85" s="30"/>
     </row>
@@ -3943,7 +3943,7 @@
         <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D86" s="30"/>
     </row>
@@ -3952,7 +3952,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="31"/>
@@ -3968,7 +3968,7 @@
         <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D88" s="30"/>
       <c r="H88" s="31" t="s">
@@ -3983,7 +3983,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D89" s="30"/>
     </row>
@@ -3992,7 +3992,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D90" s="30"/>
     </row>
@@ -4001,7 +4001,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D91" s="30"/>
     </row>
@@ -4010,7 +4010,7 @@
         <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D92" s="30"/>
     </row>
@@ -4019,7 +4019,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D93" s="30"/>
     </row>
@@ -4028,7 +4028,7 @@
         <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D94" s="30"/>
     </row>
@@ -7406,7 +7406,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>264</v>
@@ -7494,7 +7494,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" s="5">
         <v>0.85</v>
@@ -7592,7 +7592,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="5">
         <v>1.1000000000000001</v>
@@ -7690,7 +7690,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C5" s="5">
         <v>1.25</v>
@@ -7788,7 +7788,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -7884,7 +7884,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="5">
         <v>0.75</v>
@@ -7982,7 +7982,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" s="5">
         <v>0.75</v>
@@ -8080,7 +8080,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="5">
         <v>1.25</v>
@@ -8169,7 +8169,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="5">
         <v>1.25</v>
@@ -8258,7 +8258,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -8345,7 +8345,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="5">
         <v>0.75</v>
@@ -8434,7 +8434,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="5">
         <v>0.75</v>
@@ -8523,7 +8523,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -8616,7 +8616,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -8709,7 +8709,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -8802,7 +8802,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="5">
         <v>0.25</v>
@@ -8897,7 +8897,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="5">
         <v>0.25</v>
@@ -8992,7 +8992,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -9082,7 +9082,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -9172,7 +9172,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -9262,7 +9262,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -9349,7 +9349,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -9436,7 +9436,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -9523,7 +9523,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -9610,7 +9610,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -9697,7 +9697,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
@@ -9790,7 +9790,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -9883,7 +9883,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -9976,7 +9976,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -10072,7 +10072,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -10168,7 +10168,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -10264,7 +10264,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -10354,7 +10354,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -10444,7 +10444,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -10546,7 +10546,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="5">
         <v>0.75</v>
@@ -10654,7 +10654,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="5">
         <v>0.5</v>
@@ -10762,7 +10762,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -10855,7 +10855,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C39" s="5">
         <v>0.75</v>
@@ -10954,7 +10954,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" s="5">
         <v>0.5</v>
@@ -11053,7 +11053,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -11152,7 +11152,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C42" s="5">
         <v>0.75</v>
@@ -11257,7 +11257,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" s="5">
         <v>0.75</v>
@@ -11362,7 +11362,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="5">
         <v>0.75</v>
@@ -11465,7 +11465,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -11561,7 +11561,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C46" s="5">
         <v>0.75</v>
@@ -11661,7 +11661,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C47" s="5">
         <v>0.75</v>
@@ -11761,7 +11761,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C48" s="5">
         <v>0.75</v>
@@ -11861,7 +11861,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="5">
         <v>1.25</v>
@@ -11966,7 +11966,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="5">
         <v>1.25</v>
@@ -12071,7 +12071,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C51" s="5">
         <v>1.25</v>
@@ -12176,7 +12176,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="5">
         <v>1.25</v>
@@ -12281,7 +12281,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C53" s="5">
         <v>1.25</v>
@@ -12386,7 +12386,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6">
@@ -12489,7 +12489,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6">
@@ -12592,7 +12592,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -12695,7 +12695,7 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6">
@@ -12792,7 +12792,7 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6">
@@ -12889,7 +12889,7 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -12986,7 +12986,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
@@ -13078,7 +13078,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
@@ -13170,7 +13170,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C62" s="5">
         <v>0.25</v>
@@ -13264,7 +13264,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -13360,7 +13360,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -13456,12 +13456,12 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F65" s="13">
         <v>115</v>
@@ -13554,7 +13554,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
@@ -13638,7 +13638,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
@@ -13722,7 +13722,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
@@ -13806,7 +13806,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
@@ -13908,7 +13908,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
@@ -14010,7 +14010,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
@@ -14112,7 +14112,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
@@ -14199,7 +14199,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
@@ -14286,7 +14286,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
@@ -14373,7 +14373,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
@@ -14466,7 +14466,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
@@ -14556,7 +14556,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
@@ -14643,7 +14643,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
@@ -14727,7 +14727,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
@@ -14814,7 +14814,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
@@ -14901,7 +14901,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C81" s="5">
         <v>1.25</v>
@@ -15005,7 +15005,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C82" s="5">
         <v>1.25</v>
@@ -15109,7 +15109,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
@@ -15199,7 +15199,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B84" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
@@ -15289,7 +15289,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
@@ -15379,7 +15379,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
@@ -15469,7 +15469,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
@@ -15571,7 +15571,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
@@ -15673,7 +15673,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
@@ -15757,7 +15757,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
@@ -15841,7 +15841,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
@@ -15925,7 +15925,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
@@ -16012,7 +16012,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
@@ -16099,7 +16099,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
@@ -16247,7 +16247,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>266</v>
@@ -16337,7 +16337,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" s="5">
         <v>0.67</v>
@@ -16435,7 +16435,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="5">
         <v>1.25</v>
@@ -16533,7 +16533,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C5" s="5">
         <v>1.5</v>
@@ -16631,7 +16631,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -16652,7 +16652,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="14">
-        <f t="shared" ref="K6:K21" si="7">J6</f>
+        <f t="shared" ref="K6" si="7">J6</f>
         <v>0</v>
       </c>
       <c r="L6" s="18">
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" ref="O6:O21" si="9">N6</f>
+        <f t="shared" ref="O6" si="9">N6</f>
         <v>0</v>
       </c>
       <c r="P6" s="18">
@@ -16679,7 +16679,7 @@
         <v>25</v>
       </c>
       <c r="S6" s="14">
-        <f t="shared" ref="S6:S21" si="11">R6</f>
+        <f t="shared" ref="S6" si="11">R6</f>
         <v>25</v>
       </c>
       <c r="T6" s="18">
@@ -16694,7 +16694,7 @@
         <v>60</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" ref="W6:W21" si="13">V6</f>
+        <f t="shared" ref="W6" si="13">V6</f>
         <v>60</v>
       </c>
       <c r="X6" s="18">
@@ -16709,7 +16709,7 @@
         <v>78</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" ref="AA6:AA21" si="15">Z6</f>
+        <f t="shared" ref="AA6" si="15">Z6</f>
         <v>78</v>
       </c>
       <c r="AB6" s="18">
@@ -16727,7 +16727,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="5">
         <v>0.5</v>
@@ -16825,7 +16825,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" s="5">
         <v>0.5</v>
@@ -16923,7 +16923,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="5">
         <v>1.25</v>
@@ -17012,7 +17012,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="5">
         <v>1.5</v>
@@ -17101,7 +17101,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -17119,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" ref="K11:K26" si="17">J11</f>
+        <f t="shared" ref="K11" si="17">J11</f>
         <v>0</v>
       </c>
       <c r="L11" s="18">
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <f t="shared" ref="O11:O26" si="18">N11</f>
+        <f t="shared" ref="O11" si="18">N11</f>
         <v>0</v>
       </c>
       <c r="P11" s="18">
@@ -17143,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="14">
-        <f t="shared" ref="S11:S26" si="19">R11</f>
+        <f t="shared" ref="S11" si="19">R11</f>
         <v>0</v>
       </c>
       <c r="T11" s="18">
@@ -17158,7 +17158,7 @@
         <v>44</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" ref="W11:W26" si="20">V11</f>
+        <f t="shared" ref="W11" si="20">V11</f>
         <v>44</v>
       </c>
       <c r="X11" s="18">
@@ -17170,7 +17170,7 @@
         <v>44</v>
       </c>
       <c r="AA11" s="14">
-        <f t="shared" ref="AA11:AA26" si="21">Z11</f>
+        <f t="shared" ref="AA11" si="21">Z11</f>
         <v>0</v>
       </c>
       <c r="AB11" s="18">
@@ -17188,7 +17188,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="5">
         <v>0.5</v>
@@ -17277,7 +17277,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="5">
         <v>0.5</v>
@@ -17366,7 +17366,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -17461,7 +17461,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -17651,7 +17651,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -17746,7 +17746,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -17931,7 +17931,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -18021,7 +18021,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -18111,7 +18111,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -18198,7 +18198,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -18285,7 +18285,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -18372,7 +18372,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
@@ -18459,7 +18459,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
@@ -18546,7 +18546,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
@@ -18639,7 +18639,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
@@ -18732,7 +18732,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
@@ -18825,7 +18825,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
@@ -18921,7 +18921,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
@@ -19017,7 +19017,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
@@ -19113,7 +19113,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
@@ -19203,7 +19203,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
@@ -19293,7 +19293,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -19325,7 +19325,7 @@
         <v>5</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" ref="M35:M48" si="41">L35</f>
+        <f t="shared" ref="M35" si="41">L35</f>
         <v>5</v>
       </c>
       <c r="N35" s="13">
@@ -19340,7 +19340,7 @@
         <v>3</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" ref="Q35:Q48" si="42">P35</f>
+        <f t="shared" ref="Q35" si="42">P35</f>
         <v>3</v>
       </c>
       <c r="R35" s="13">
@@ -19355,7 +19355,7 @@
         <v>5</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" ref="U35:U48" si="43">T35</f>
+        <f t="shared" ref="U35" si="43">T35</f>
         <v>5</v>
       </c>
       <c r="V35" s="13">
@@ -19370,7 +19370,7 @@
         <v>6</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" ref="Y35:Y48" si="44">X35</f>
+        <f t="shared" ref="Y35" si="44">X35</f>
         <v>6</v>
       </c>
       <c r="Z35" s="13">
@@ -19385,7 +19385,7 @@
         <v>5</v>
       </c>
       <c r="AC35" s="19">
-        <f t="shared" ref="AC35:AC48" si="45">AB35</f>
+        <f t="shared" ref="AC35" si="45">AB35</f>
         <v>5</v>
       </c>
     </row>
@@ -19395,7 +19395,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="5">
         <v>0.5</v>
@@ -19503,7 +19503,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="5">
         <v>0.25</v>
@@ -19609,7 +19609,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
@@ -19633,66 +19633,66 @@
         <v>2</v>
       </c>
       <c r="K38" s="14">
-        <f t="shared" ref="K38:K45" si="47">J38</f>
+        <f t="shared" ref="K38" si="47">J38</f>
         <v>2</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" ref="L38:L45" si="48">K38</f>
+        <f t="shared" ref="L38" si="48">K38</f>
         <v>2</v>
       </c>
       <c r="M38" s="19">
-        <f t="shared" ref="M38:M51" si="49">L38</f>
+        <f t="shared" ref="M38" si="49">L38</f>
         <v>2</v>
       </c>
       <c r="O38" s="14">
-        <f t="shared" ref="O38:O45" si="50">N38</f>
+        <f t="shared" ref="O38" si="50">N38</f>
         <v>0</v>
       </c>
       <c r="P38" s="18">
-        <f t="shared" ref="P38:P45" si="51">O38</f>
+        <f t="shared" ref="P38" si="51">O38</f>
         <v>0</v>
       </c>
       <c r="Q38" s="19">
-        <f t="shared" ref="Q38:Q51" si="52">P38</f>
+        <f t="shared" ref="Q38" si="52">P38</f>
         <v>0</v>
       </c>
       <c r="R38" s="13">
         <v>1</v>
       </c>
       <c r="S38" s="14">
-        <f t="shared" ref="S38:S45" si="53">R38</f>
+        <f t="shared" ref="S38" si="53">R38</f>
         <v>1</v>
       </c>
       <c r="T38" s="18">
-        <f t="shared" ref="T38:T45" si="54">S38</f>
+        <f t="shared" ref="T38" si="54">S38</f>
         <v>1</v>
       </c>
       <c r="U38" s="19">
-        <f t="shared" ref="U38:U51" si="55">T38</f>
+        <f t="shared" ref="U38" si="55">T38</f>
         <v>1</v>
       </c>
       <c r="W38" s="14">
-        <f t="shared" ref="W38:W45" si="56">V38</f>
+        <f t="shared" ref="W38" si="56">V38</f>
         <v>0</v>
       </c>
       <c r="X38" s="18">
-        <f t="shared" ref="X38:X45" si="57">W38</f>
+        <f t="shared" ref="X38" si="57">W38</f>
         <v>0</v>
       </c>
       <c r="Y38" s="19">
-        <f t="shared" ref="Y38:Y51" si="58">X38</f>
+        <f t="shared" ref="Y38" si="58">X38</f>
         <v>0</v>
       </c>
       <c r="AA38" s="14">
-        <f t="shared" ref="AA38:AA45" si="59">Z38</f>
+        <f t="shared" ref="AA38" si="59">Z38</f>
         <v>0</v>
       </c>
       <c r="AB38" s="18">
-        <f t="shared" ref="AB38:AB45" si="60">AA38</f>
+        <f t="shared" ref="AB38" si="60">AA38</f>
         <v>0</v>
       </c>
       <c r="AC38" s="19">
-        <f t="shared" ref="AC38:AC51" si="61">AB38</f>
+        <f t="shared" ref="AC38" si="61">AB38</f>
         <v>0</v>
       </c>
     </row>
@@ -19702,7 +19702,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C39" s="5">
         <v>0.5</v>
@@ -19801,7 +19801,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" s="5">
         <v>0.25</v>
@@ -19898,7 +19898,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
@@ -19919,75 +19919,75 @@
         <v>0.9</v>
       </c>
       <c r="K41" s="14">
-        <f t="shared" ref="K41:K48" si="62">J41</f>
+        <f t="shared" ref="K41" si="62">J41</f>
         <v>0</v>
       </c>
       <c r="L41" s="18">
-        <f t="shared" ref="L41:L48" si="63">K41</f>
+        <f t="shared" ref="L41" si="63">K41</f>
         <v>0</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" ref="M41:M54" si="64">L41</f>
+        <f t="shared" ref="M41" si="64">L41</f>
         <v>0</v>
       </c>
       <c r="N41" s="13">
         <v>2</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" ref="O41:O48" si="65">N41</f>
+        <f t="shared" ref="O41" si="65">N41</f>
         <v>2</v>
       </c>
       <c r="P41" s="18">
-        <f t="shared" ref="P41:P48" si="66">O41</f>
+        <f t="shared" ref="P41" si="66">O41</f>
         <v>2</v>
       </c>
       <c r="Q41" s="19">
-        <f t="shared" ref="Q41:Q54" si="67">P41</f>
+        <f t="shared" ref="Q41" si="67">P41</f>
         <v>2</v>
       </c>
       <c r="R41" s="13">
         <v>1</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" ref="S41:S48" si="68">R41</f>
+        <f t="shared" ref="S41" si="68">R41</f>
         <v>1</v>
       </c>
       <c r="T41" s="18">
-        <f t="shared" ref="T41:T48" si="69">S41</f>
+        <f t="shared" ref="T41" si="69">S41</f>
         <v>1</v>
       </c>
       <c r="U41" s="19">
-        <f t="shared" ref="U41:U54" si="70">T41</f>
+        <f t="shared" ref="U41" si="70">T41</f>
         <v>1</v>
       </c>
       <c r="V41" s="13">
         <v>2.5</v>
       </c>
       <c r="W41" s="14">
-        <f t="shared" ref="W41:W48" si="71">V41</f>
+        <f t="shared" ref="W41" si="71">V41</f>
         <v>2.5</v>
       </c>
       <c r="X41" s="18">
-        <f t="shared" ref="X41:X48" si="72">W41</f>
+        <f t="shared" ref="X41" si="72">W41</f>
         <v>2.5</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" ref="Y41:Y54" si="73">X41</f>
+        <f t="shared" ref="Y41" si="73">X41</f>
         <v>2.5</v>
       </c>
       <c r="Z41" s="13">
         <v>2</v>
       </c>
       <c r="AA41" s="14">
-        <f t="shared" ref="AA41:AA48" si="74">Z41</f>
+        <f t="shared" ref="AA41" si="74">Z41</f>
         <v>2</v>
       </c>
       <c r="AB41" s="18">
-        <f t="shared" ref="AB41:AB48" si="75">AA41</f>
+        <f t="shared" ref="AB41" si="75">AA41</f>
         <v>2</v>
       </c>
       <c r="AC41" s="19">
-        <f t="shared" ref="AC41:AC54" si="76">AB41</f>
+        <f t="shared" ref="AC41" si="76">AB41</f>
         <v>2</v>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C42" s="5">
         <v>0.5</v>
@@ -20102,7 +20102,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" s="5">
         <v>0.5</v>
@@ -20207,7 +20207,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="5">
         <v>0.5</v>
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="19">
-        <f t="shared" ref="M44:M57" si="77">L44</f>
+        <f t="shared" ref="M44:M45" si="77">L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="13">
@@ -20255,7 +20255,7 @@
         <v>63.75</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" ref="Q44:Q57" si="78">P44</f>
+        <f t="shared" ref="Q44:Q45" si="78">P44</f>
         <v>63.75</v>
       </c>
       <c r="R44" s="13">
@@ -20270,7 +20270,7 @@
         <v>67.5</v>
       </c>
       <c r="U44" s="19">
-        <f t="shared" ref="U44:U57" si="79">T44</f>
+        <f t="shared" ref="U44:U45" si="79">T44</f>
         <v>67.5</v>
       </c>
       <c r="V44" s="13">
@@ -20285,7 +20285,7 @@
         <v>60</v>
       </c>
       <c r="Y44" s="19">
-        <f t="shared" ref="Y44:Y57" si="80">X44</f>
+        <f t="shared" ref="Y44:Y45" si="80">X44</f>
         <v>60</v>
       </c>
       <c r="Z44" s="13">
@@ -20300,7 +20300,7 @@
         <v>45</v>
       </c>
       <c r="AC44" s="19">
-        <f t="shared" ref="AC44:AC57" si="81">AB44</f>
+        <f t="shared" ref="AC44:AC45" si="81">AB44</f>
         <v>45</v>
       </c>
     </row>
@@ -20310,7 +20310,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
@@ -20331,11 +20331,11 @@
         <v>0.9</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" ref="K45:K52" si="82">J45</f>
+        <f t="shared" ref="K45" si="82">J45</f>
         <v>0</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" ref="L45:L52" si="83">K45</f>
+        <f t="shared" ref="L45" si="83">K45</f>
         <v>0</v>
       </c>
       <c r="M45" s="19">
@@ -20346,11 +20346,11 @@
         <v>1</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" ref="O45:O52" si="84">N45</f>
+        <f t="shared" ref="O45" si="84">N45</f>
         <v>1</v>
       </c>
       <c r="P45" s="18">
-        <f t="shared" ref="P45:P52" si="85">O45</f>
+        <f t="shared" ref="P45" si="85">O45</f>
         <v>1</v>
       </c>
       <c r="Q45" s="19">
@@ -20361,11 +20361,11 @@
         <v>0.5</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" ref="S45:S52" si="86">R45</f>
+        <f t="shared" ref="S45" si="86">R45</f>
         <v>0.5</v>
       </c>
       <c r="T45" s="18">
-        <f t="shared" ref="T45:T52" si="87">S45</f>
+        <f t="shared" ref="T45" si="87">S45</f>
         <v>0.5</v>
       </c>
       <c r="U45" s="19">
@@ -20373,11 +20373,11 @@
         <v>0.5</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" ref="W45:W52" si="88">V45</f>
+        <f t="shared" ref="W45" si="88">V45</f>
         <v>0</v>
       </c>
       <c r="X45" s="18">
-        <f t="shared" ref="X45:X52" si="89">W45</f>
+        <f t="shared" ref="X45" si="89">W45</f>
         <v>0</v>
       </c>
       <c r="Y45" s="19">
@@ -20388,11 +20388,11 @@
         <v>1</v>
       </c>
       <c r="AA45" s="14">
-        <f t="shared" ref="AA45:AA52" si="90">Z45</f>
+        <f t="shared" ref="AA45" si="90">Z45</f>
         <v>1</v>
       </c>
       <c r="AB45" s="18">
-        <f t="shared" ref="AB45:AB52" si="91">AA45</f>
+        <f t="shared" ref="AB45" si="91">AA45</f>
         <v>1</v>
       </c>
       <c r="AC45" s="19">
@@ -20406,7 +20406,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C46" s="5">
         <v>0.75</v>
@@ -20508,7 +20508,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C47" s="5">
         <v>0.75</v>
@@ -20610,7 +20610,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C48" s="5">
         <v>0.75</v>
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="19">
-        <f t="shared" ref="M48:M61" si="98">L48</f>
+        <f t="shared" ref="M48" si="98">L48</f>
         <v>0</v>
       </c>
       <c r="N48" s="13">
@@ -20658,7 +20658,7 @@
         <v>78.75</v>
       </c>
       <c r="Q48" s="19">
-        <f t="shared" ref="Q48:Q61" si="99">P48</f>
+        <f t="shared" ref="Q48" si="99">P48</f>
         <v>78.75</v>
       </c>
       <c r="R48" s="13">
@@ -20673,7 +20673,7 @@
         <v>101.25</v>
       </c>
       <c r="U48" s="19">
-        <f t="shared" ref="U48:U61" si="100">T48</f>
+        <f t="shared" ref="U48" si="100">T48</f>
         <v>101.25</v>
       </c>
       <c r="W48" s="14">
@@ -20685,7 +20685,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="19">
-        <f t="shared" ref="Y48:Y61" si="101">X48</f>
+        <f t="shared" ref="Y48" si="101">X48</f>
         <v>0</v>
       </c>
       <c r="Z48" s="13">
@@ -20700,7 +20700,7 @@
         <v>67.5</v>
       </c>
       <c r="AC48" s="19">
-        <f t="shared" ref="AC48:AC61" si="102">AB48</f>
+        <f t="shared" ref="AC48" si="102">AB48</f>
         <v>67.5</v>
       </c>
     </row>
@@ -20710,7 +20710,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="5">
         <v>1.5</v>
@@ -20815,7 +20815,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="5">
         <v>1.5</v>
@@ -20920,7 +20920,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C51" s="5">
         <v>1.5</v>
@@ -21025,7 +21025,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="5">
         <v>1.5</v>
@@ -21130,7 +21130,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C53" s="5">
         <v>1.5</v>
@@ -21235,7 +21235,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="9">
@@ -21261,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="14">
-        <f t="shared" ref="K54:K94" si="104">J54</f>
+        <f t="shared" ref="K54:K61" si="104">J54</f>
         <v>0</v>
       </c>
       <c r="L54" s="18">
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="14">
-        <f t="shared" ref="O54:O94" si="105">N54</f>
+        <f t="shared" ref="O54:O61" si="105">N54</f>
         <v>0</v>
       </c>
       <c r="P54" s="18">
@@ -21288,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="S54" s="14">
-        <f t="shared" ref="S54:S94" si="106">R54</f>
+        <f t="shared" ref="S54:S61" si="106">R54</f>
         <v>1</v>
       </c>
       <c r="T54" s="18">
@@ -21303,7 +21303,7 @@
         <v>1.2</v>
       </c>
       <c r="W54" s="14">
-        <f t="shared" ref="W54:W94" si="107">V54</f>
+        <f t="shared" ref="W54:W61" si="107">V54</f>
         <v>1.2</v>
       </c>
       <c r="X54" s="18">
@@ -21318,7 +21318,7 @@
         <v>0.5</v>
       </c>
       <c r="AA54" s="14">
-        <f t="shared" ref="AA54:AA94" si="108">Z54</f>
+        <f t="shared" ref="AA54:AA61" si="108">Z54</f>
         <v>0.5</v>
       </c>
       <c r="AB54" s="18">
@@ -21336,7 +21336,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="9">
@@ -21437,7 +21437,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="9">
@@ -21538,14 +21538,14 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F57" s="13">
         <v>5</v>
@@ -21635,14 +21635,14 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F58" s="13">
         <v>11</v>
@@ -21732,14 +21732,14 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F59" s="13">
         <v>0</v>
@@ -21829,7 +21829,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
@@ -21854,7 +21854,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="18">
-        <f t="shared" ref="L60:M100" si="109">K60</f>
+        <f t="shared" ref="L60:M94" si="109">K60</f>
         <v>0</v>
       </c>
       <c r="M60" s="19">
@@ -21866,7 +21866,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="18">
-        <f t="shared" ref="P60:Q100" si="110">O60</f>
+        <f t="shared" ref="P60:Q94" si="110">O60</f>
         <v>0</v>
       </c>
       <c r="Q60" s="19">
@@ -21881,7 +21881,7 @@
         <v>3.5</v>
       </c>
       <c r="T60" s="18">
-        <f t="shared" ref="T60:U100" si="111">S60</f>
+        <f t="shared" ref="T60:U94" si="111">S60</f>
         <v>3.5</v>
       </c>
       <c r="U60" s="19">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="18">
-        <f t="shared" ref="X60:Y100" si="112">W60</f>
+        <f t="shared" ref="X60:Y94" si="112">W60</f>
         <v>0</v>
       </c>
       <c r="Y60" s="19">
@@ -21905,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="18">
-        <f t="shared" ref="AB60:AC100" si="113">AA60</f>
+        <f t="shared" ref="AB60:AC94" si="113">AA60</f>
         <v>0</v>
       </c>
       <c r="AC60" s="19">
@@ -21919,7 +21919,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
@@ -22009,10 +22009,10 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="10">
@@ -22103,7 +22103,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
@@ -22124,7 +22124,7 @@
         <v>9.6</v>
       </c>
       <c r="K63" s="14">
-        <f t="shared" ref="K63:K103" si="114">J63</f>
+        <f t="shared" ref="K63:K80" si="114">J63</f>
         <v>0</v>
       </c>
       <c r="L63" s="18">
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="14">
-        <f t="shared" ref="O63:O103" si="115">N63</f>
+        <f t="shared" ref="O63:O80" si="115">N63</f>
         <v>0</v>
       </c>
       <c r="P63" s="18">
@@ -22151,7 +22151,7 @@
         <v>3.5</v>
       </c>
       <c r="S63" s="14">
-        <f t="shared" ref="S63:S103" si="116">R63</f>
+        <f t="shared" ref="S63:S80" si="116">R63</f>
         <v>3.5</v>
       </c>
       <c r="T63" s="18">
@@ -22166,7 +22166,7 @@
         <v>10</v>
       </c>
       <c r="W63" s="14">
-        <f t="shared" ref="W63:W103" si="117">V63</f>
+        <f t="shared" ref="W63:W80" si="117">V63</f>
         <v>10</v>
       </c>
       <c r="X63" s="18">
@@ -22181,7 +22181,7 @@
         <v>10</v>
       </c>
       <c r="AA63" s="14">
-        <f t="shared" ref="AA63:AA103" si="118">Z63</f>
+        <f t="shared" ref="AA63:AA80" si="118">Z63</f>
         <v>10</v>
       </c>
       <c r="AB63" s="18">
@@ -22199,7 +22199,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
@@ -22295,12 +22295,12 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
       <c r="E65" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F65" s="13">
         <v>115</v>
@@ -22393,7 +22393,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
@@ -22477,7 +22477,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
@@ -22561,7 +22561,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
@@ -22645,7 +22645,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
@@ -22747,7 +22747,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
@@ -22849,7 +22849,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
@@ -22951,7 +22951,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
@@ -23038,7 +23038,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
@@ -23125,7 +23125,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
@@ -23212,7 +23212,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
@@ -23305,7 +23305,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
@@ -23395,7 +23395,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
@@ -23482,7 +23482,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
@@ -23566,7 +23566,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
@@ -23653,7 +23653,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
@@ -23740,7 +23740,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C81" s="5">
         <v>1.5</v>
@@ -23844,7 +23844,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C82" s="5">
         <v>1.5</v>
@@ -23948,7 +23948,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
@@ -23966,7 +23966,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="14">
-        <f t="shared" ref="K83:K123" si="121">J83</f>
+        <f t="shared" ref="K83:K94" si="121">J83</f>
         <v>0</v>
       </c>
       <c r="L83" s="18">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="14">
-        <f t="shared" ref="O83:O123" si="122">N83</f>
+        <f t="shared" ref="O83:O94" si="122">N83</f>
         <v>0</v>
       </c>
       <c r="P83" s="18">
@@ -23993,7 +23993,7 @@
         <v>2.5</v>
       </c>
       <c r="S83" s="14">
-        <f t="shared" ref="S83:S123" si="123">R83</f>
+        <f t="shared" ref="S83:S94" si="123">R83</f>
         <v>2.5</v>
       </c>
       <c r="T83" s="18">
@@ -24008,7 +24008,7 @@
         <v>1</v>
       </c>
       <c r="W83" s="14">
-        <f t="shared" ref="W83:W123" si="124">V83</f>
+        <f t="shared" ref="W83:W94" si="124">V83</f>
         <v>1</v>
       </c>
       <c r="X83" s="18">
@@ -24020,7 +24020,7 @@
         <v>1</v>
       </c>
       <c r="AA83" s="14">
-        <f t="shared" ref="AA83:AA123" si="125">Z83</f>
+        <f t="shared" ref="AA83:AA94" si="125">Z83</f>
         <v>0</v>
       </c>
       <c r="AB83" s="18">
@@ -24038,7 +24038,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B84" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -24128,7 +24128,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
@@ -24218,7 +24218,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
@@ -24308,7 +24308,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
@@ -24412,7 +24412,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
@@ -24516,7 +24516,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="19">
-        <f t="shared" ref="M89:M111" si="126">L89</f>
+        <f t="shared" ref="M89:M94" si="126">L89</f>
         <v>0</v>
       </c>
       <c r="O89" s="14">
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="19">
-        <f t="shared" ref="Q89:Q111" si="127">P89</f>
+        <f t="shared" ref="Q89:Q94" si="127">P89</f>
         <v>0</v>
       </c>
       <c r="S89" s="14">
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="19">
-        <f t="shared" ref="U89:U111" si="128">T89</f>
+        <f t="shared" ref="U89:U94" si="128">T89</f>
         <v>0</v>
       </c>
       <c r="W89" s="14">
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="19">
-        <f t="shared" ref="Y89:Y111" si="129">X89</f>
+        <f t="shared" ref="Y89:Y94" si="129">X89</f>
         <v>0</v>
       </c>
       <c r="AA89" s="14">
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="19">
-        <f t="shared" ref="AC89:AC111" si="130">AB89</f>
+        <f t="shared" ref="AC89:AC94" si="130">AB89</f>
         <v>0</v>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
@@ -24684,7 +24684,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
@@ -24768,7 +24768,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
@@ -24855,7 +24855,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
@@ -24942,7 +24942,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="9"/>
@@ -25078,7 +25078,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>269</v>
@@ -25168,7 +25168,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" s="5">
         <v>0.33</v>
@@ -25266,7 +25266,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="5">
         <v>1.25</v>
@@ -25364,7 +25364,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C5" s="5">
         <v>1.5</v>
@@ -25462,7 +25462,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -25558,7 +25558,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="5">
         <v>0.25</v>
@@ -25656,7 +25656,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C8" s="5">
         <v>0.25</v>
@@ -25754,7 +25754,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="5">
         <v>1.25</v>
@@ -25843,7 +25843,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="5">
         <v>1.5</v>
@@ -25932,7 +25932,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -26019,7 +26019,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="5">
         <v>0.25</v>
@@ -26108,7 +26108,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="5">
         <v>0.25</v>
@@ -26197,7 +26197,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -26292,7 +26292,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -26577,7 +26577,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -26672,7 +26672,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -26762,7 +26762,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -26852,7 +26852,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -26942,7 +26942,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -27029,7 +27029,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -27116,7 +27116,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -27203,7 +27203,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -27290,7 +27290,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -27377,7 +27377,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
@@ -27470,7 +27470,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -27563,7 +27563,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -27656,7 +27656,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -27752,7 +27752,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -27848,7 +27848,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -27944,7 +27944,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -28034,7 +28034,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -28124,7 +28124,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -28226,7 +28226,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="5">
         <v>0.25</v>
@@ -28334,7 +28334,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="5">
         <v>0.25</v>
@@ -28440,7 +28440,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
@@ -28533,7 +28533,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C39" s="5">
         <v>0.25</v>
@@ -28632,7 +28632,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" s="5">
         <v>0.25</v>
@@ -28729,7 +28729,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
@@ -28828,7 +28828,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C42" s="5">
         <v>0.25</v>
@@ -28933,7 +28933,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" s="5">
         <v>0.25</v>
@@ -29038,7 +29038,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="5">
         <v>0.25</v>
@@ -29141,7 +29141,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
@@ -29237,7 +29237,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C46" s="5">
         <v>0.25</v>
@@ -29339,7 +29339,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C47" s="5">
         <v>0.25</v>
@@ -29441,7 +29441,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B48" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C48" s="5">
         <v>0.25</v>
@@ -29541,7 +29541,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
@@ -29646,7 +29646,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50" s="5">
         <v>2</v>
@@ -29751,7 +29751,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
@@ -29856,7 +29856,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
@@ -29961,7 +29961,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
@@ -30066,7 +30066,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6">
@@ -30167,7 +30167,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6">
@@ -30268,7 +30268,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -30369,14 +30369,14 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F57" s="13">
         <v>5</v>
@@ -30466,14 +30466,14 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F58" s="13">
         <v>11</v>
@@ -30563,14 +30563,14 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F59" s="13">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
@@ -30752,7 +30752,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
@@ -30844,10 +30844,10 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="7">
@@ -30938,7 +30938,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -31034,7 +31034,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -31130,12 +31130,12 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F65" s="13">
         <v>115</v>
@@ -31228,7 +31228,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
@@ -31312,7 +31312,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
@@ -31396,7 +31396,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
@@ -31480,7 +31480,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
@@ -31582,7 +31582,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
@@ -31684,7 +31684,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
@@ -31786,7 +31786,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
@@ -31873,7 +31873,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
@@ -31960,7 +31960,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
@@ -32047,7 +32047,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
@@ -32140,7 +32140,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
@@ -32230,7 +32230,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
@@ -32317,7 +32317,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
@@ -32401,7 +32401,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
@@ -32488,7 +32488,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
@@ -32575,7 +32575,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B81" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C81" s="5">
         <v>1.75</v>
@@ -32679,7 +32679,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C82" s="5">
         <v>1.75</v>
@@ -32783,7 +32783,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
@@ -32873,7 +32873,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B84" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -32963,7 +32963,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B85" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
@@ -33053,7 +33053,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
@@ -33143,7 +33143,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
@@ -33247,7 +33247,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
@@ -33351,7 +33351,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
@@ -33435,7 +33435,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
@@ -33519,7 +33519,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
@@ -33603,7 +33603,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
@@ -33690,7 +33690,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
@@ -33777,7 +33777,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>

--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -1380,39 +1380,6 @@
     <t xml:space="preserve"> * = 1.25</t>
   </si>
   <si>
-    <t xml:space="preserve"> + = SWood_1000hr * 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = SWood_10_000hr * 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = SWood_GT10_000hr * 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = SWood_1000hr * 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = SWood_10_000hr * 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = SWood_GT10_000hr * 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = SStump_Density</t>
-  </si>
-  <si>
-    <t>MAKE EMPTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.75*OTree_Density + 0.75*MTree_Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.5*OTree_Density + 0.5*MTree_Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.25*OTree_Density + 0.25*MTree_Density</t>
-  </si>
-  <si>
     <t xml:space="preserve"> * = 1/0.5</t>
   </si>
   <si>
@@ -1588,6 +1555,39 @@
   </si>
   <si>
     <t>FB_0291_FCCS_233</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| = 0</t>
+  </si>
+  <si>
+    <t>| + = 0.25*OTree_Density + 0.25*MTree_Density</t>
+  </si>
+  <si>
+    <t>| + = 0.5*OTree_Density + 0.5*MTree_Density</t>
+  </si>
+  <si>
+    <t>| + = 0.75*OTree_Density + 0.75*MTree_Density</t>
+  </si>
+  <si>
+    <t>| + = SStump_Density</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3155,21 +3157,21 @@
         <v>271</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K36" s="23"/>
     </row>
@@ -3230,14 +3232,14 @@
         <v>271</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="21" t="s">
@@ -3341,20 +3343,20 @@
         <v>270</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="21" t="s">
         <v>271</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I43" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K43" s="23"/>
     </row>
@@ -3444,19 +3446,19 @@
         <v>270</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>271</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K47" s="23"/>
     </row>
@@ -3697,22 +3699,22 @@
         <v>341</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,22 +3725,22 @@
         <v>342</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,22 +3751,22 @@
         <v>343</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3791,22 +3793,22 @@
         <v>346</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3833,13 +3835,13 @@
         <v>349</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -7502,73 +7504,73 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="M1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="P1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="T1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="U1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="V1" t="s">
         <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="X1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Y1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Z1" t="s">
         <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AB1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AC1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -16318,73 +16320,73 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="M1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="P1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="Q1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="T1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="U1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="V1" t="s">
         <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="X1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="Y1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="Z1" t="s">
         <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="AB1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AC1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -25133,73 +25135,73 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="I1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="P1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="T1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="U1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="V1" t="s">
         <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="X1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="Y1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Z1" t="s">
         <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AB1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AC1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">

--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2668,20 +2668,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" style="27" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="26" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="21" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" style="25" customWidth="1"/>
     <col min="11" max="11" width="26.5703125" style="26" customWidth="1"/>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="K39" s="23"/>
     </row>
@@ -7504,8 +7504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10787,11 +10787,10 @@
         <v>0.5</v>
       </c>
       <c r="D36" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>1/0.5</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="11">
         <v>85</v>
       </c>
@@ -10801,11 +10800,11 @@
       </c>
       <c r="H36" s="15">
         <f>MIN(100,G36*$D36)</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="I36" s="16">
-        <f>MIN(100,$E36*H36)</f>
-        <v>51.425000000000011</v>
+        <f>H36</f>
+        <v>85</v>
       </c>
       <c r="J36" s="11">
         <v>85</v>
@@ -10816,11 +10815,11 @@
       </c>
       <c r="L36" s="15">
         <f>MIN(100,K36*$D36)</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="M36" s="16">
-        <f>MIN(100,$E36*L36)</f>
-        <v>51.425000000000011</v>
+        <f>L36</f>
+        <v>85</v>
       </c>
       <c r="N36" s="11">
         <v>100</v>
@@ -10831,11 +10830,11 @@
       </c>
       <c r="P36" s="15">
         <f>MIN(100,O36*$D36)</f>
-        <v>55.000000000000007</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="16">
-        <f>MIN(100,$E36*P36)</f>
-        <v>60.500000000000014</v>
+        <f>P36</f>
+        <v>100</v>
       </c>
       <c r="R36" s="11">
         <v>90</v>
@@ -10846,11 +10845,11 @@
       </c>
       <c r="T36" s="15">
         <f>MIN(100,S36*$D36)</f>
-        <v>49.500000000000007</v>
+        <v>90</v>
       </c>
       <c r="U36" s="16">
-        <f>MIN(100,$E36*T36)</f>
-        <v>54.45000000000001</v>
+        <f>T36</f>
+        <v>90</v>
       </c>
       <c r="V36" s="11">
         <v>85</v>
@@ -10861,11 +10860,11 @@
       </c>
       <c r="X36" s="15">
         <f>MIN(100,W36*$D36)</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="Y36" s="16">
-        <f>MIN(100,$E36*X36)</f>
-        <v>51.425000000000011</v>
+        <f>X36</f>
+        <v>85</v>
       </c>
       <c r="Z36" s="11">
         <v>90</v>
@@ -10876,11 +10875,11 @@
       </c>
       <c r="AB36" s="15">
         <f>MIN(100,AA36*$D36)</f>
-        <v>49.500000000000007</v>
+        <v>90</v>
       </c>
       <c r="AC36" s="16">
-        <f>MIN(100,$E36*AB36)</f>
-        <v>54.45000000000001</v>
+        <f>AB36</f>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -11087,11 +11086,10 @@
         <v>0.5</v>
       </c>
       <c r="D39" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <f>1/0.5</f>
+        <v>2</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="11">
         <v>95</v>
       </c>
@@ -11101,11 +11099,11 @@
       </c>
       <c r="H39" s="15">
         <f>MIN(100,G39*$D39)</f>
-        <v>52.250000000000007</v>
+        <v>95</v>
       </c>
       <c r="I39" s="16">
-        <f>MIN(100,$E39*H39)</f>
-        <v>57.475000000000016</v>
+        <f>H39</f>
+        <v>95</v>
       </c>
       <c r="J39" s="11">
         <v>85</v>
@@ -11116,11 +11114,11 @@
       </c>
       <c r="L39" s="15">
         <f>MIN(100,K39*$D39)</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f>MIN(100,$E39*L39)</f>
-        <v>51.425000000000011</v>
+        <f>L39</f>
+        <v>85</v>
       </c>
       <c r="O39" s="12">
         <f>$C39*N39</f>
@@ -11131,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f>MIN(100,$E39*P39)</f>
+        <f>P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -11143,11 +11141,11 @@
       </c>
       <c r="T39" s="15">
         <f>MIN(100,S39*$D39)</f>
-        <v>49.500000000000007</v>
+        <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f>MIN(100,$E39*T39)</f>
-        <v>54.45000000000001</v>
+        <f>T39</f>
+        <v>90</v>
       </c>
       <c r="W39" s="12">
         <f>$C39*V39</f>
@@ -11158,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f>MIN(100,$E39*X39)</f>
+        <f>X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -11170,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f>MIN(100,$E39*AB39)</f>
+        <f>AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -11495,7 +11493,8 @@
         <v>0.75</v>
       </c>
       <c r="D43" s="5">
-        <v>1.25</v>
+        <f>1/0.75</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="11">
@@ -11507,11 +11506,11 @@
       </c>
       <c r="H43" s="15">
         <f>G43*$D43</f>
-        <v>89.0625</v>
+        <v>95</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="35"/>
-        <v>89.0625</v>
+        <v>95</v>
       </c>
       <c r="K43" s="12">
         <f>$C43*J43</f>
@@ -11534,11 +11533,11 @@
       </c>
       <c r="P43" s="15">
         <f>O43*$D43</f>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" ref="Q43:Q56" si="74">P43</f>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="R43" s="11">
         <v>90</v>
@@ -11549,11 +11548,11 @@
       </c>
       <c r="T43" s="15">
         <f>S43*$D43</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="U43" s="16">
         <f t="shared" ref="U43:U56" si="75">T43</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="V43" s="11">
         <v>80</v>
@@ -11564,11 +11563,11 @@
       </c>
       <c r="X43" s="15">
         <f>W43*$D43</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y43" s="16">
         <f t="shared" ref="Y43:Y56" si="76">X43</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z43" s="11">
         <v>60</v>
@@ -11579,11 +11578,11 @@
       </c>
       <c r="AB43" s="15">
         <f>AA43*$D43</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="AC43" s="16">
         <f t="shared" ref="AC43:AC56" si="77">AB43</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -11898,7 +11897,8 @@
         <v>0.75</v>
       </c>
       <c r="D47" s="5">
-        <v>1.25</v>
+        <f>1/0.75</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="11">
@@ -11910,11 +11910,11 @@
       </c>
       <c r="H47" s="15">
         <f t="shared" si="88"/>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="35"/>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="K47" s="12">
         <f>$C47*J47</f>
@@ -11937,11 +11937,11 @@
       </c>
       <c r="P47" s="15">
         <f t="shared" ref="P47:P57" si="96">O47*$D47</f>
-        <v>65.625</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" ref="Q47:Q60" si="97">P47</f>
-        <v>65.625</v>
+        <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
@@ -11952,11 +11952,11 @@
       </c>
       <c r="T47" s="15">
         <f t="shared" ref="T47:T57" si="98">S47*$D47</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="U47" s="16">
         <f t="shared" ref="U47:U60" si="99">T47</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="W47" s="12">
         <f>$C47*V47</f>
@@ -11979,11 +11979,11 @@
       </c>
       <c r="AB47" s="15">
         <f t="shared" ref="AB47:AB57" si="102">AA47*$D47</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="AC47" s="16">
         <f t="shared" ref="AC47:AC60" si="103">AB47</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -12015,7 +12015,7 @@
         <v>3.75</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" ref="I48:I53" si="104">$E48*H48</f>
+        <f t="shared" ref="I48:I52" si="104">$E48*H48</f>
         <v>1.875</v>
       </c>
       <c r="J48" s="11">
@@ -12030,7 +12030,7 @@
         <v>0.9375</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" ref="M48:M53" si="105">$E48*L48</f>
+        <f t="shared" ref="M48:M52" si="105">$E48*L48</f>
         <v>0.46875</v>
       </c>
       <c r="O48" s="12">
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" ref="Q48:Q53" si="106">$E48*P48</f>
+        <f t="shared" ref="Q48:Q52" si="106">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="11">
@@ -12057,7 +12057,7 @@
         <v>0.46875</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" ref="U48:U53" si="107">$E48*T48</f>
+        <f t="shared" ref="U48:U52" si="107">$E48*T48</f>
         <v>0.234375</v>
       </c>
       <c r="V48" s="11">
@@ -12072,7 +12072,7 @@
         <v>0.9375</v>
       </c>
       <c r="Y48" s="16">
-        <f t="shared" ref="Y48:Y53" si="108">$E48*X48</f>
+        <f t="shared" ref="Y48:Y52" si="108">$E48*X48</f>
         <v>0.46875</v>
       </c>
       <c r="Z48" s="11">
@@ -12087,7 +12087,7 @@
         <v>0.46875</v>
       </c>
       <c r="AC48" s="16">
-        <f t="shared" ref="AC48:AC53" si="109">$E48*AB48</f>
+        <f t="shared" ref="AC48:AC52" si="109">$E48*AB48</f>
         <v>0.234375</v>
       </c>
     </row>
@@ -12240,7 +12240,7 @@
         <v>0.9375</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" ref="M50:M55" si="111">$E50*L50</f>
+        <f t="shared" ref="M50:M61" si="111">$E50*L50</f>
         <v>0.46875</v>
       </c>
       <c r="O50" s="12">
@@ -12252,7 +12252,7 @@
         <v>0.375</v>
       </c>
       <c r="Q50" s="16">
-        <f t="shared" ref="Q50:Q55" si="113">$E50*P50</f>
+        <f t="shared" ref="Q50:Q61" si="113">$E50*P50</f>
         <v>0.1875</v>
       </c>
       <c r="R50" s="11">
@@ -12267,7 +12267,7 @@
         <v>0.46875</v>
       </c>
       <c r="U50" s="16">
-        <f t="shared" ref="U50:U55" si="115">$E50*T50</f>
+        <f t="shared" ref="U50:U61" si="115">$E50*T50</f>
         <v>0.234375</v>
       </c>
       <c r="V50" s="11">
@@ -12282,7 +12282,7 @@
         <v>0.9375</v>
       </c>
       <c r="Y50" s="16">
-        <f t="shared" ref="Y50:Y55" si="117">$E50*X50</f>
+        <f t="shared" ref="Y50:Y61" si="117">$E50*X50</f>
         <v>0.46875</v>
       </c>
       <c r="Z50" s="11">
@@ -12297,7 +12297,7 @@
         <v>0.375</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" ref="AC50:AC55" si="119">$E50*AB50</f>
+        <f t="shared" ref="AC50:AC61" si="119">$E50*AB50</f>
         <v>0.1875</v>
       </c>
     </row>
@@ -12538,14 +12538,14 @@
         <v>4.5</v>
       </c>
       <c r="I53" s="16">
-        <f>$E53*H53</f>
+        <f t="shared" ref="I53:I61" si="121">$E53*H53</f>
         <v>2.25</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K93" si="121">J53</f>
+        <f t="shared" ref="K53:K93" si="122">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -12553,11 +12553,11 @@
         <v>0</v>
       </c>
       <c r="M53" s="16">
-        <f>$E53*L53</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O93" si="122">N53</f>
+        <f t="shared" ref="O53:O93" si="123">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -12565,14 +12565,14 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f>$E53*P53</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S93" si="123">R53</f>
+        <f t="shared" ref="S53:S93" si="124">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -12580,14 +12580,14 @@
         <v>0.75</v>
       </c>
       <c r="U53" s="16">
-        <f>$E53*T53</f>
+        <f t="shared" si="115"/>
         <v>0.375</v>
       </c>
       <c r="V53" s="11">
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W93" si="124">V53</f>
+        <f t="shared" ref="W53:W93" si="125">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -12595,14 +12595,14 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="Y53" s="16">
-        <f>$E53*X53</f>
+        <f t="shared" si="117"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="Z53" s="11">
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA93" si="125">Z53</f>
+        <f t="shared" ref="AA53:AA93" si="126">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -12610,7 +12610,7 @@
         <v>0.375</v>
       </c>
       <c r="AC53" s="16">
-        <f>$E53*AB53</f>
+        <f t="shared" si="119"/>
         <v>0.1875</v>
       </c>
     </row>
@@ -12641,79 +12641,79 @@
         <v>9</v>
       </c>
       <c r="I54" s="16">
-        <f>$E54*H54</f>
+        <f t="shared" si="121"/>
         <v>4.5</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" ref="L54:L64" si="126">K54*$D54</f>
+        <f t="shared" ref="L54:L64" si="127">K54*$D54</f>
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <f>$E54*L54</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <f t="shared" ref="P54:P64" si="127">O54*$D54</f>
+        <f t="shared" ref="P54:P64" si="128">O54*$D54</f>
         <v>0</v>
       </c>
       <c r="Q54" s="16">
-        <f>$E54*P54</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T54" s="15">
-        <f t="shared" ref="T54:T64" si="128">S54*$D54</f>
+        <f t="shared" ref="T54:T64" si="129">S54*$D54</f>
         <v>0</v>
       </c>
       <c r="U54" s="16">
-        <f>$E54*T54</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
         <v>0.5</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.5</v>
       </c>
       <c r="X54" s="15">
-        <f t="shared" ref="X54:X64" si="129">W54*$D54</f>
+        <f t="shared" ref="X54:X64" si="130">W54*$D54</f>
         <v>0.375</v>
       </c>
       <c r="Y54" s="16">
-        <f>$E54*X54</f>
+        <f t="shared" si="117"/>
         <v>0.1875</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <f t="shared" ref="AB54:AB64" si="130">AA54*$D54</f>
+        <f t="shared" ref="AB54:AB64" si="131">AA54*$D54</f>
         <v>0</v>
       </c>
       <c r="AC54" s="16">
-        <f>$E54*AB54</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -12744,79 +12744,79 @@
         <v>0</v>
       </c>
       <c r="I55" s="16">
-        <f>$E55*H55</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <f>$E55*L55</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P55" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="Q55" s="16">
-        <f>$E55*P55</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R55" s="11">
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T55" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="U55" s="16">
-        <f>$E55*T55</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="V55" s="11">
         <v>0.5</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.5</v>
       </c>
       <c r="X55" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.375</v>
       </c>
       <c r="Y55" s="16">
-        <f>$E55*X55</f>
+        <f t="shared" si="117"/>
         <v>0.1875</v>
       </c>
       <c r="Z55" s="11">
         <v>0</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB55" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AC55" s="16">
-        <f>$E55*AB55</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -12847,11 +12847,11 @@
         <v>6.5</v>
       </c>
       <c r="I56" s="16">
-        <f>$E56*H56</f>
+        <f t="shared" si="121"/>
         <v>3.25</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
@@ -12859,11 +12859,11 @@
         <v>0</v>
       </c>
       <c r="M56" s="16">
-        <f>$E56*L56</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P56" s="15">
@@ -12871,14 +12871,14 @@
         <v>0</v>
       </c>
       <c r="Q56" s="16">
-        <f>$E56*P56</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R56" s="11">
         <v>0.5</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.5</v>
       </c>
       <c r="T56" s="15">
@@ -12886,14 +12886,14 @@
         <v>0.75</v>
       </c>
       <c r="U56" s="16">
-        <f>$E56*T56</f>
+        <f t="shared" si="115"/>
         <v>0.375</v>
       </c>
       <c r="V56" s="11">
         <v>0.75</v>
       </c>
       <c r="W56" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.75</v>
       </c>
       <c r="X56" s="15">
@@ -12901,11 +12901,11 @@
         <v>1.05</v>
       </c>
       <c r="Y56" s="16">
-        <f>$E56*X56</f>
+        <f t="shared" si="117"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
@@ -12913,7 +12913,7 @@
         <v>0.125</v>
       </c>
       <c r="AC56" s="16">
-        <f>$E56*AB56</f>
+        <f t="shared" si="119"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -12944,11 +12944,11 @@
         <v>14</v>
       </c>
       <c r="I57" s="16">
-        <f>$E57*H57</f>
+        <f t="shared" si="121"/>
         <v>7</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L57" s="15">
@@ -12956,11 +12956,11 @@
         <v>0</v>
       </c>
       <c r="M57" s="16">
-        <f>$E57*L57</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P57" s="15">
@@ -12968,14 +12968,14 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f>$E57*P57</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R57" s="11">
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T57" s="15">
@@ -12983,14 +12983,14 @@
         <v>0</v>
       </c>
       <c r="U57" s="16">
-        <f>$E57*T57</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="V57" s="11">
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.3</v>
       </c>
       <c r="X57" s="15">
@@ -12998,11 +12998,11 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="Y57" s="16">
-        <f>$E57*X57</f>
+        <f t="shared" si="117"/>
         <v>0.21249999999999999</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <f>$E57*AB57</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -13041,11 +13041,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="16">
-        <f>$E58*H58</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L58" s="15">
@@ -13053,11 +13053,11 @@
         <v>0</v>
       </c>
       <c r="M58" s="16">
-        <f>$E58*L58</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P58" s="15">
@@ -13065,14 +13065,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="16">
-        <f>$E58*P58</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R58" s="11">
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T58" s="15">
@@ -13080,14 +13080,14 @@
         <v>0</v>
       </c>
       <c r="U58" s="16">
-        <f>$E58*T58</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="V58" s="11">
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X58" s="15">
@@ -13095,11 +13095,11 @@
         <v>0.125</v>
       </c>
       <c r="Y58" s="16">
-        <f>$E58*X58</f>
+        <f t="shared" si="117"/>
         <v>6.25E-2</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="16">
-        <f>$E58*AB58</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -13136,70 +13136,70 @@
         <v>9.6</v>
       </c>
       <c r="I59" s="16">
-        <f>$E59*H59</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L93" si="131">K59</f>
+        <f t="shared" ref="L59:L93" si="132">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f>$E59*L59</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P93" si="132">O59</f>
+        <f t="shared" ref="P59:P93" si="133">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f>$E59*P59</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R59" s="11">
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T93" si="133">S59</f>
+        <f t="shared" ref="T59:T93" si="134">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f>$E59*T59</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X93" si="134">W59</f>
+        <f t="shared" ref="X59:X93" si="135">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f>$E59*X59</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB93" si="135">AA59</f>
+        <f t="shared" ref="AB59:AB93" si="136">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f>$E59*AB59</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -13228,70 +13228,70 @@
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
-        <f>$E60*H60</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M60" s="16">
-        <f>$E60*L60</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f>$E60*P60</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="U60" s="16">
-        <f>$E60*T60</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
-        <f>$E60*X60</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
-        <f>$E60*AB60</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
         <v>118</v>
       </c>
       <c r="I61" s="16">
-        <f>$E61*H61</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K61" s="12">
@@ -13330,11 +13330,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M61" s="16">
-        <f>$E61*L61</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O61" s="12">
@@ -13342,11 +13342,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f>$E61*P61</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
@@ -13357,11 +13357,11 @@
         <v>925</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>925</v>
       </c>
       <c r="U61" s="16">
-        <f>$E61*T61</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W61" s="12">
@@ -13369,11 +13369,11 @@
         <v>48.75</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>48.75</v>
       </c>
       <c r="Y61" s="16">
-        <f>$E61*X61</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA61" s="12">
@@ -13381,11 +13381,11 @@
         <v>25</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>25</v>
       </c>
       <c r="AC61" s="16">
-        <f>$E61*AB61</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -13412,76 +13412,76 @@
         <v>9.6</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" ref="I62:I63" si="136">H59</f>
+        <f t="shared" ref="I62:I63" si="137">H59</f>
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="137">J62</f>
+        <f t="shared" ref="K62:K93" si="138">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M62" s="16">
-        <f t="shared" ref="M62:M63" si="138">L59</f>
+        <f t="shared" ref="M62:M63" si="139">L59</f>
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="139">N62</f>
+        <f t="shared" ref="O62:O93" si="140">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
-        <f t="shared" ref="Q62:Q63" si="140">P59</f>
+        <f t="shared" ref="Q62:Q63" si="141">P59</f>
         <v>0</v>
       </c>
       <c r="R62" s="11">
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="141">R62</f>
+        <f t="shared" ref="S62:S93" si="142">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
-        <f t="shared" ref="U62:U63" si="142">T59</f>
+        <f t="shared" ref="U62:U63" si="143">T59</f>
         <v>3.5</v>
       </c>
       <c r="V62" s="11">
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="143">V62</f>
+        <f t="shared" ref="W62:W93" si="144">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
-        <f t="shared" ref="Y62:Y63" si="144">X59</f>
+        <f t="shared" ref="Y62:Y63" si="145">X59</f>
         <v>0</v>
       </c>
       <c r="Z62" s="11">
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="145">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="146">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
-        <f t="shared" ref="AC62:AC63" si="146">AB59</f>
+        <f t="shared" ref="AC62:AC63" si="147">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -13508,76 +13508,76 @@
         <v>0.4</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="R63" s="11">
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="141"/>
-        <v>2</v>
-      </c>
-      <c r="T63" s="15">
-        <f t="shared" si="133"/>
-        <v>2</v>
-      </c>
-      <c r="U63" s="16">
         <f t="shared" si="142"/>
         <v>2</v>
       </c>
+      <c r="T63" s="15">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="U63" s="16">
+        <f t="shared" si="143"/>
+        <v>2</v>
+      </c>
       <c r="V63" s="11">
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
     </row>
@@ -13610,11 +13610,11 @@
         <v>233</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -13622,11 +13622,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -13637,11 +13637,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -13652,11 +13652,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -13667,11 +13667,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -13702,55 +13702,55 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -13777,67 +13777,67 @@
         <v>0</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" ref="I65:I93" si="147">H66</f>
+        <f t="shared" ref="I66:I93" si="148">H66</f>
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
-        <f t="shared" ref="M66:M93" si="148">L66</f>
+        <f t="shared" ref="M66:M93" si="149">L66</f>
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
-        <f t="shared" ref="Q66:Q93" si="149">P66</f>
+        <f t="shared" ref="Q66:Q93" si="150">P66</f>
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
-        <f t="shared" ref="U66:U93" si="150">T66</f>
+        <f t="shared" ref="U66:U93" si="151">T66</f>
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
-        <f t="shared" ref="Y66:Y93" si="151">X66</f>
+        <f t="shared" ref="Y66:Y93" si="152">X66</f>
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" ref="AC66:AC93" si="152">AB66</f>
+        <f t="shared" ref="AC66:AC93" si="153">AB66</f>
         <v>0</v>
       </c>
     </row>
@@ -13861,67 +13861,67 @@
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -13948,82 +13948,82 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14050,82 +14050,82 @@
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L69" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P69" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
       </c>
       <c r="W69" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X69" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y69" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC69" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14152,82 +14152,82 @@
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
         <v>0</v>
       </c>
       <c r="O70" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P70" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
       </c>
       <c r="W70" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X70" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14251,70 +14251,70 @@
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14338,70 +14338,70 @@
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14425,70 +14425,70 @@
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14515,73 +14515,73 @@
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>40</v>
       </c>
     </row>
@@ -14608,70 +14608,70 @@
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14695,70 +14695,70 @@
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>60</v>
       </c>
     </row>
@@ -14782,67 +14782,67 @@
         <v>0</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P77" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14866,70 +14866,70 @@
         <v>0</v>
       </c>
       <c r="I78" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M78" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R78" s="11">
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>2</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="U78" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -14953,70 +14953,70 @@
         <v>0</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M79" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q79" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R79" s="11">
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>5</v>
       </c>
       <c r="T79" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="U79" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y79" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC79" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -15045,7 +15045,7 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.25</v>
       </c>
       <c r="J80" s="11">
@@ -15056,11 +15056,11 @@
         <v>1.25</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.25</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>1.25</v>
       </c>
       <c r="N80" s="11">
@@ -15071,11 +15071,11 @@
         <v>3.125</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>3.125</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>3.125</v>
       </c>
       <c r="R80" s="11">
@@ -15086,11 +15086,11 @@
         <v>1.25</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1.25</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1.25</v>
       </c>
       <c r="V80" s="11">
@@ -15101,11 +15101,11 @@
         <v>1.875</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.875</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.875</v>
       </c>
       <c r="Z80" s="11">
@@ -15116,11 +15116,11 @@
         <v>2.5</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2.5</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.5</v>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
         <v>87.5</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>87.5</v>
       </c>
       <c r="J81" s="11">
@@ -15160,11 +15160,11 @@
         <v>75</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>75</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>75</v>
       </c>
       <c r="N81" s="11">
@@ -15175,11 +15175,11 @@
         <v>6.25</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>6.25</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>6.25</v>
       </c>
       <c r="R81" s="11">
@@ -15190,11 +15190,11 @@
         <v>18.75</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>18.75</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>18.75</v>
       </c>
       <c r="V81" s="11">
@@ -15205,11 +15205,11 @@
         <v>100</v>
       </c>
       <c r="X81" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>100</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>100</v>
       </c>
       <c r="Z81" s="11">
@@ -15220,11 +15220,11 @@
         <v>87.5</v>
       </c>
       <c r="AB81" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>87.5</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>87.5</v>
       </c>
     </row>
@@ -15248,73 +15248,73 @@
         <v>0</v>
       </c>
       <c r="I82" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" ref="K82:K93" si="153">J82</f>
+        <f t="shared" ref="K82:K93" si="154">J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M82" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" ref="O82:O93" si="154">N82</f>
+        <f t="shared" ref="O82:O93" si="155">N82</f>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R82" s="11">
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" ref="S82:S93" si="155">R82</f>
+        <f t="shared" ref="S82:S93" si="156">R82</f>
         <v>2.5</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2.5</v>
       </c>
       <c r="U82" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.5</v>
       </c>
       <c r="V82" s="11">
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" ref="W82:W93" si="156">V82</f>
+        <f t="shared" ref="W82:W93" si="157">V82</f>
         <v>1</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Y82" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" ref="AA82:AA93" si="157">Z82</f>
+        <f t="shared" ref="AA82:AA93" si="158">Z82</f>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -15338,73 +15338,73 @@
         <v>0</v>
       </c>
       <c r="I83" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M83" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q83" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R83" s="11">
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>80</v>
       </c>
       <c r="T83" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>80</v>
       </c>
       <c r="U83" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>80</v>
       </c>
       <c r="V83" s="11">
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="X83" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>5</v>
       </c>
       <c r="Y83" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC83" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -15428,73 +15428,73 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.2</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.2</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -15518,73 +15518,73 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>60</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>60</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>60</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>90</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>90</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>90</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -15611,82 +15611,82 @@
         <v>0.5</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.5</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.4</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.4</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.4</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.2</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.2</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.2</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>4</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>4</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>4</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.5</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>1.5</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15713,82 +15713,82 @@
         <v>70</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>70</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>60</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>60</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>60</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>70</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>70</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>70</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>100</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>100</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>100</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>90</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>90</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>90</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>70</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>70</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>70</v>
       </c>
     </row>
@@ -15812,67 +15812,67 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="15">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="12">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="15">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="12">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="15">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="12">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="X88" s="15">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="16">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="12">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="15">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AC88" s="16">
         <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="15">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="16">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="12">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="15">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="16">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="12">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="15">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="16">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="12">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="15">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="16">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="12">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="15">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="AC88" s="16">
-        <f t="shared" si="152"/>
         <v>0</v>
       </c>
     </row>
@@ -15896,67 +15896,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="12">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="12">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="16">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="12">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AC89" s="16">
         <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="16">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="12">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="16">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="12">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="16">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="12">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="16">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="12">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="16">
-        <f t="shared" si="152"/>
         <v>0</v>
       </c>
     </row>
@@ -15980,67 +15980,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="12">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="16">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AC90" s="16">
         <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="15">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="15">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="15">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="15">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="152"/>
         <v>0</v>
       </c>
     </row>
@@ -16064,70 +16064,70 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
         <v>18</v>
       </c>
       <c r="S91" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>18</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>18</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>18</v>
       </c>
       <c r="W91" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -16151,70 +16151,70 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -16238,70 +16238,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -16315,8 +16315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19607,7 +19607,8 @@
         <v>0.25</v>
       </c>
       <c r="D36" s="8">
-        <v>1.5</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="11">
@@ -19619,11 +19620,11 @@
       </c>
       <c r="H36" s="15">
         <f>MIN(100,G36*$D36)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="I36" s="16">
         <f>H36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="J36" s="11">
         <v>85</v>
@@ -19634,11 +19635,11 @@
       </c>
       <c r="L36" s="15">
         <f>MIN(100,K36*$D36)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="M36" s="16">
         <f>L36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="N36" s="11">
         <v>100</v>
@@ -19649,11 +19650,11 @@
       </c>
       <c r="P36" s="15">
         <f>MIN(100,O36*$D36)</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="16">
         <f>P36</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="R36" s="11">
         <v>90</v>
@@ -19664,11 +19665,11 @@
       </c>
       <c r="T36" s="15">
         <f>MIN(100,S36*$D36)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="U36" s="16">
         <f>T36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="V36" s="11">
         <v>85</v>
@@ -19679,11 +19680,11 @@
       </c>
       <c r="X36" s="15">
         <f>MIN(100,W36*$D36)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="Y36" s="16">
         <f>X36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="Z36" s="11">
         <v>90</v>
@@ -19694,11 +19695,11 @@
       </c>
       <c r="AB36" s="15">
         <f>MIN(100,AA36*$D36)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AC36" s="16">
         <f>AB36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -19905,7 +19906,8 @@
         <v>0.25</v>
       </c>
       <c r="D39" s="8">
-        <v>1.5</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="11">
@@ -19917,11 +19919,11 @@
       </c>
       <c r="H39" s="15">
         <f>MIN(100,G39*$D39)</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="I39" s="16">
         <f>H39</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="J39" s="11">
         <v>85</v>
@@ -19932,11 +19934,11 @@
       </c>
       <c r="L39" s="15">
         <f>MIN(100,K39*$D39)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="M39" s="16">
         <f>L39</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="O39" s="12">
         <f>$C39*N39</f>
@@ -19959,11 +19961,11 @@
       </c>
       <c r="T39" s="15">
         <f>MIN(100,S39*$D39)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="U39" s="16">
         <f>T39</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="W39" s="12">
         <f>$C39*V39</f>
@@ -20311,7 +20313,8 @@
         <v>0.5</v>
       </c>
       <c r="D43" s="8">
-        <v>1.5</v>
+        <f>1/0.5</f>
+        <v>2</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="11">
@@ -20323,11 +20326,11 @@
       </c>
       <c r="H43" s="15">
         <f>MIN(100,G43*$D43)</f>
-        <v>71.25</v>
+        <v>95</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="34"/>
-        <v>71.25</v>
+        <v>95</v>
       </c>
       <c r="K43" s="12">
         <f>$C43*J43</f>
@@ -20350,11 +20353,11 @@
       </c>
       <c r="P43" s="15">
         <f>MIN(100,O43*$D43)</f>
-        <v>63.75</v>
+        <v>85</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" ref="Q43:Q56" si="67">P43</f>
-        <v>63.75</v>
+        <v>85</v>
       </c>
       <c r="R43" s="11">
         <v>90</v>
@@ -20365,11 +20368,11 @@
       </c>
       <c r="T43" s="15">
         <f>MIN(100,S43*$D43)</f>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="U43" s="16">
         <f t="shared" ref="U43:U56" si="68">T43</f>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="V43" s="11">
         <v>80</v>
@@ -20380,11 +20383,11 @@
       </c>
       <c r="X43" s="15">
         <f>MIN(100,W43*$D43)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Y43" s="16">
         <f t="shared" ref="Y43:Y56" si="69">X43</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Z43" s="11">
         <v>60</v>
@@ -20395,11 +20398,11 @@
       </c>
       <c r="AB43" s="15">
         <f>MIN(100,AA43*$D43)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AC43" s="16">
         <f t="shared" ref="AC43:AC56" si="70">AB43</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -20507,7 +20510,7 @@
         <v>329</v>
       </c>
       <c r="C45" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D45" s="8">
         <v>1.5</v>
@@ -20520,15 +20523,15 @@
       </c>
       <c r="G45" s="12">
         <f>$C45*F45</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" ref="H45:H55" si="81">G45*$D45</f>
-        <v>0.11250000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="I45" s="16">
         <f>$E45*H45</f>
-        <v>0.16875000000000001</v>
+        <v>0.11250000000000002</v>
       </c>
       <c r="K45" s="12">
         <f>$C45*J45</f>
@@ -20547,30 +20550,30 @@
       </c>
       <c r="O45" s="12">
         <f>$C45*N45</f>
-        <v>7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P45" s="15">
         <f t="shared" ref="P45:P55" si="83">O45*$D45</f>
-        <v>1.125E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q45" s="16">
         <f>$E45*P45</f>
-        <v>1.6875000000000001E-2</v>
+        <v>1.125E-2</v>
       </c>
       <c r="R45" s="11">
         <v>0.02</v>
       </c>
       <c r="S45" s="12">
         <f>$C45*R45</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T45" s="15">
         <f t="shared" ref="T45:T55" si="84">S45*$D45</f>
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="U45" s="16">
         <f>$E45*T45</f>
-        <v>3.3750000000000002E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="W45" s="12">
         <f>$C45*V45</f>
@@ -20589,15 +20592,15 @@
       </c>
       <c r="AA45" s="12">
         <f>$C45*Z45</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AB45" s="15">
         <f t="shared" ref="AB45:AB55" si="86">AA45*$D45</f>
-        <v>0.11250000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="AC45" s="16">
         <f>$E45*AB45</f>
-        <v>0.16875000000000001</v>
+        <v>0.11250000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -20609,7 +20612,7 @@
         <v>330</v>
       </c>
       <c r="C46" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="8">
         <v>1.5</v>
@@ -20622,15 +20625,15 @@
       </c>
       <c r="G46" s="12">
         <f>$C46*F46</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="H46" s="15">
         <f>MIN(100,G46*$D46)</f>
-        <v>0.22500000000000003</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I46" s="16">
         <f>MIN(100,$E46*H46)</f>
-        <v>0.33750000000000002</v>
+        <v>0.22500000000000003</v>
       </c>
       <c r="K46" s="12">
         <f>$C46*J46</f>
@@ -20649,30 +20652,30 @@
       </c>
       <c r="O46" s="12">
         <f>$C46*N46</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P46" s="15">
         <f>MIN(100,O46*$D46)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="16">
         <f>MIN(100,$E46*P46)</f>
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="R46" s="11">
         <v>5</v>
       </c>
       <c r="S46" s="12">
         <f>$C46*R46</f>
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T46" s="15">
         <f>MIN(100,S46*$D46)</f>
-        <v>5.625</v>
+        <v>3.75</v>
       </c>
       <c r="U46" s="16">
         <f>MIN(100,$E46*T46)</f>
-        <v>8.4375</v>
+        <v>5.625</v>
       </c>
       <c r="W46" s="12">
         <f>$C46*V46</f>
@@ -20691,15 +20694,15 @@
       </c>
       <c r="AA46" s="12">
         <f>$C46*Z46</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB46" s="15">
         <f>MIN(100,AA46*$D46)</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" s="16">
         <f>MIN(100,$E46*AB46)</f>
-        <v>33.75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -20711,10 +20714,11 @@
         <v>331</v>
       </c>
       <c r="C47" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D47" s="8">
-        <v>1.5</v>
+        <f>1/0.5</f>
+        <v>2</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="11">
@@ -20722,15 +20726,15 @@
       </c>
       <c r="G47" s="12">
         <f>$C47*F47</f>
-        <v>63.75</v>
+        <v>42.5</v>
       </c>
       <c r="H47" s="15">
         <f>MIN(100,G47*$D47)</f>
-        <v>95.625</v>
+        <v>85</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="34"/>
-        <v>95.625</v>
+        <v>85</v>
       </c>
       <c r="K47" s="12">
         <f>$C47*J47</f>
@@ -20749,30 +20753,30 @@
       </c>
       <c r="O47" s="12">
         <f>$C47*N47</f>
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="P47" s="15">
         <f>MIN(100,O47*$D47)</f>
-        <v>78.75</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" ref="Q47:Q60" si="88">P47</f>
-        <v>78.75</v>
+        <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
       </c>
       <c r="S47" s="12">
         <f>$C47*R47</f>
-        <v>67.5</v>
+        <v>45</v>
       </c>
       <c r="T47" s="15">
         <f>MIN(100,S47*$D47)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="U47" s="16">
         <f t="shared" ref="U47:U60" si="89">T47</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="W47" s="12">
         <f>$C47*V47</f>
@@ -20791,15 +20795,15 @@
       </c>
       <c r="AA47" s="12">
         <f>$C47*Z47</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB47" s="15">
         <f>MIN(100,AA47*$D47)</f>
-        <v>67.5</v>
+        <v>60</v>
       </c>
       <c r="AC47" s="16">
         <f t="shared" ref="AC47:AC60" si="91">AB47</f>
-        <v>67.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -25131,8 +25135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28422,7 +28426,8 @@
         <v>0.25</v>
       </c>
       <c r="D36" s="8">
-        <v>1.5</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="11">
@@ -28434,11 +28439,11 @@
       </c>
       <c r="H36" s="15">
         <f>MIN(100,G36*$D36)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="34"/>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="J36" s="11">
         <v>85</v>
@@ -28449,11 +28454,11 @@
       </c>
       <c r="L36" s="15">
         <f>MIN(100,K36*$D36)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" ref="M36:M49" si="35">L36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="N36" s="11">
         <v>100</v>
@@ -28464,11 +28469,11 @@
       </c>
       <c r="P36" s="15">
         <f>MIN(100,O36*$D36)</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" ref="Q36:Q49" si="36">P36</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="R36" s="11">
         <v>90</v>
@@ -28479,11 +28484,11 @@
       </c>
       <c r="T36" s="15">
         <f>MIN(100,S36*$D36)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="U36" s="16">
         <f t="shared" ref="U36:U49" si="37">T36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="V36" s="11">
         <v>85</v>
@@ -28494,11 +28499,11 @@
       </c>
       <c r="X36" s="15">
         <f>MIN(100,W36*$D36)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="Y36" s="16">
         <f t="shared" ref="Y36:Y49" si="38">X36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="Z36" s="11">
         <v>90</v>
@@ -28509,11 +28514,11 @@
       </c>
       <c r="AB36" s="15">
         <f>MIN(100,AA36*$D36)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AC36" s="16">
         <f t="shared" ref="AC36:AC49" si="39">AB36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -28720,7 +28725,8 @@
         <v>0.25</v>
       </c>
       <c r="D39" s="8">
-        <v>1.5</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="11">
@@ -28732,11 +28738,11 @@
       </c>
       <c r="H39" s="15">
         <f>MIN(100,G39*$D39)</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="34"/>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="J39" s="11">
         <v>85</v>
@@ -28747,11 +28753,11 @@
       </c>
       <c r="L39" s="15">
         <f>MIN(100,K39*$D39)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="M39" s="16">
         <f t="shared" ref="M39:M52" si="51">L39</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="O39" s="12">
         <f>$C39*N39</f>
@@ -28774,11 +28780,11 @@
       </c>
       <c r="T39" s="15">
         <f>MIN(100,S39*$D39)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="U39" s="16">
         <f t="shared" ref="U39:U52" si="53">T39</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="W39" s="12">
         <f>$C39*V39</f>
@@ -29126,7 +29132,8 @@
         <v>0.25</v>
       </c>
       <c r="D43" s="8">
-        <v>1.5</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="11">
@@ -29138,11 +29145,11 @@
       </c>
       <c r="H43" s="15">
         <f>MIN(100,G43*$D43)</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="34"/>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="K43" s="12">
         <f>$C43*J43</f>
@@ -29165,11 +29172,11 @@
       </c>
       <c r="P43" s="15">
         <f>MIN(100,O43*$D43)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" ref="Q43:Q56" si="67">P43</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="R43" s="11">
         <v>90</v>
@@ -29180,11 +29187,11 @@
       </c>
       <c r="T43" s="15">
         <f>MIN(100,S43*$D43)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="U43" s="16">
         <f t="shared" ref="U43:U56" si="68">T43</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="V43" s="11">
         <v>80</v>
@@ -29195,11 +29202,11 @@
       </c>
       <c r="X43" s="15">
         <f>MIN(100,W43*$D43)</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Y43" s="16">
         <f t="shared" ref="Y43:Y56" si="69">X43</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Z43" s="11">
         <v>60</v>
@@ -29210,11 +29217,11 @@
       </c>
       <c r="AB43" s="15">
         <f>MIN(100,AA43*$D43)</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="AC43" s="16">
         <f t="shared" ref="AC43:AC56" si="70">AB43</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -29529,7 +29536,8 @@
         <v>0.25</v>
       </c>
       <c r="D47" s="8">
-        <v>1.5</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="11">
@@ -29541,11 +29549,11 @@
       </c>
       <c r="H47" s="15">
         <f>MIN(100,G47*$D47)</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="34"/>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="K47" s="12">
         <f>$C47*J47</f>
@@ -29568,11 +29576,11 @@
       </c>
       <c r="P47" s="15">
         <f>MIN(100,O47*$D47)</f>
-        <v>26.25</v>
+        <v>70</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" ref="Q47:Q60" si="88">P47</f>
-        <v>26.25</v>
+        <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
@@ -29583,11 +29591,11 @@
       </c>
       <c r="T47" s="15">
         <f>MIN(100,S47*$D47)</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="U47" s="16">
         <f t="shared" ref="U47:U60" si="89">T47</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="W47" s="12">
         <f>$C47*V47</f>
@@ -29610,11 +29618,11 @@
       </c>
       <c r="AB47" s="15">
         <f>MIN(100,AA47*$D47)</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="AC47" s="16">
         <f t="shared" ref="AC47:AC60" si="91">AB47</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -42533,11 +42541,11 @@
       </c>
       <c r="D36">
         <f>'2_MechAdd_LowSeverity'!H36</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <f>'2_MechAdd_LowSeverity'!I36</f>
-        <v>51.425000000000011</v>
+        <v>85</v>
       </c>
       <c r="F36">
         <f>'2_MechAdd_ModSeverity'!G36</f>
@@ -42545,11 +42553,11 @@
       </c>
       <c r="G36">
         <f>'2_MechAdd_ModSeverity'!H36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="H36">
         <f>'2_MechAdd_ModSeverity'!I36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="I36">
         <f>'2_MechAdd_HighSeverity'!G36</f>
@@ -42557,11 +42565,11 @@
       </c>
       <c r="J36">
         <f>'2_MechAdd_HighSeverity'!H36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="K36">
         <f>'2_MechAdd_HighSeverity'!I36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="L36">
         <f>'2_MechAdd_LowSeverity'!J36</f>
@@ -42573,11 +42581,11 @@
       </c>
       <c r="N36">
         <f>'2_MechAdd_LowSeverity'!L36</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="O36">
         <f>'2_MechAdd_LowSeverity'!M36</f>
-        <v>51.425000000000011</v>
+        <v>85</v>
       </c>
       <c r="P36">
         <f>'2_MechAdd_ModSeverity'!K36</f>
@@ -42585,11 +42593,11 @@
       </c>
       <c r="Q36">
         <f>'2_MechAdd_ModSeverity'!L36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="R36">
         <f>'2_MechAdd_ModSeverity'!M36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="S36">
         <f>'2_MechAdd_HighSeverity'!K36</f>
@@ -42597,11 +42605,11 @@
       </c>
       <c r="T36">
         <f>'2_MechAdd_HighSeverity'!L36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="U36">
         <f>'2_MechAdd_HighSeverity'!M36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="V36">
         <f>'2_MechAdd_LowSeverity'!N36</f>
@@ -42613,11 +42621,11 @@
       </c>
       <c r="X36">
         <f>'2_MechAdd_LowSeverity'!P36</f>
-        <v>55.000000000000007</v>
+        <v>100</v>
       </c>
       <c r="Y36">
         <f>'2_MechAdd_LowSeverity'!Q36</f>
-        <v>60.500000000000014</v>
+        <v>100</v>
       </c>
       <c r="Z36">
         <f>'2_MechAdd_ModSeverity'!O36</f>
@@ -42625,11 +42633,11 @@
       </c>
       <c r="AA36">
         <f>'2_MechAdd_ModSeverity'!P36</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="AB36">
         <f>'2_MechAdd_ModSeverity'!Q36</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="AC36">
         <f>'2_MechAdd_HighSeverity'!O36</f>
@@ -42637,11 +42645,11 @@
       </c>
       <c r="AD36">
         <f>'2_MechAdd_HighSeverity'!P36</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="AE36">
         <f>'2_MechAdd_HighSeverity'!Q36</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="AF36">
         <f>'2_MechAdd_LowSeverity'!R36</f>
@@ -42653,11 +42661,11 @@
       </c>
       <c r="AH36">
         <f>'2_MechAdd_LowSeverity'!T36</f>
-        <v>49.500000000000007</v>
+        <v>90</v>
       </c>
       <c r="AI36">
         <f>'2_MechAdd_LowSeverity'!U36</f>
-        <v>54.45000000000001</v>
+        <v>90</v>
       </c>
       <c r="AJ36">
         <f>'2_MechAdd_ModSeverity'!S36</f>
@@ -42665,11 +42673,11 @@
       </c>
       <c r="AK36">
         <f>'2_MechAdd_ModSeverity'!T36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AL36">
         <f>'2_MechAdd_ModSeverity'!U36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AM36">
         <f>'2_MechAdd_HighSeverity'!S36</f>
@@ -42677,11 +42685,11 @@
       </c>
       <c r="AN36">
         <f>'2_MechAdd_HighSeverity'!T36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AO36">
         <f>'2_MechAdd_HighSeverity'!U36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AP36">
         <f>'2_MechAdd_LowSeverity'!V36</f>
@@ -42693,11 +42701,11 @@
       </c>
       <c r="AR36">
         <f>'2_MechAdd_LowSeverity'!X36</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="AS36">
         <f>'2_MechAdd_LowSeverity'!Y36</f>
-        <v>51.425000000000011</v>
+        <v>85</v>
       </c>
       <c r="AT36">
         <f>'2_MechAdd_ModSeverity'!W36</f>
@@ -42705,11 +42713,11 @@
       </c>
       <c r="AU36">
         <f>'2_MechAdd_ModSeverity'!X36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="AV36">
         <f>'2_MechAdd_ModSeverity'!Y36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="AW36">
         <f>'2_MechAdd_HighSeverity'!W36</f>
@@ -42717,11 +42725,11 @@
       </c>
       <c r="AX36">
         <f>'2_MechAdd_HighSeverity'!X36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="AY36">
         <f>'2_MechAdd_HighSeverity'!Y36</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="AZ36">
         <f>'2_MechAdd_LowSeverity'!Z36</f>
@@ -42733,11 +42741,11 @@
       </c>
       <c r="BB36">
         <f>'2_MechAdd_LowSeverity'!AB36</f>
-        <v>49.500000000000007</v>
+        <v>90</v>
       </c>
       <c r="BC36">
         <f>'2_MechAdd_LowSeverity'!AC36</f>
-        <v>54.45000000000001</v>
+        <v>90</v>
       </c>
       <c r="BD36">
         <f>'2_MechAdd_ModSeverity'!AA36</f>
@@ -42745,11 +42753,11 @@
       </c>
       <c r="BE36">
         <f>'2_MechAdd_ModSeverity'!AB36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="BF36">
         <f>'2_MechAdd_ModSeverity'!AC36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="BG36">
         <f>'2_MechAdd_HighSeverity'!AA36</f>
@@ -42757,11 +42765,11 @@
       </c>
       <c r="BH36">
         <f>'2_MechAdd_HighSeverity'!AB36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="BI36">
         <f>'2_MechAdd_HighSeverity'!AC36</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
@@ -43271,11 +43279,11 @@
       </c>
       <c r="D39">
         <f>'2_MechAdd_LowSeverity'!H39</f>
-        <v>52.250000000000007</v>
+        <v>95</v>
       </c>
       <c r="E39">
         <f>'2_MechAdd_LowSeverity'!I39</f>
-        <v>57.475000000000016</v>
+        <v>95</v>
       </c>
       <c r="F39">
         <f>'2_MechAdd_ModSeverity'!G39</f>
@@ -43283,11 +43291,11 @@
       </c>
       <c r="G39">
         <f>'2_MechAdd_ModSeverity'!H39</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="H39">
         <f>'2_MechAdd_ModSeverity'!I39</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="I39">
         <f>'2_MechAdd_HighSeverity'!G39</f>
@@ -43295,11 +43303,11 @@
       </c>
       <c r="J39">
         <f>'2_MechAdd_HighSeverity'!H39</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="K39">
         <f>'2_MechAdd_HighSeverity'!I39</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="L39">
         <f>'2_MechAdd_LowSeverity'!J39</f>
@@ -43311,11 +43319,11 @@
       </c>
       <c r="N39">
         <f>'2_MechAdd_LowSeverity'!L39</f>
-        <v>46.750000000000007</v>
+        <v>85</v>
       </c>
       <c r="O39">
         <f>'2_MechAdd_LowSeverity'!M39</f>
-        <v>51.425000000000011</v>
+        <v>85</v>
       </c>
       <c r="P39">
         <f>'2_MechAdd_ModSeverity'!K39</f>
@@ -43323,11 +43331,11 @@
       </c>
       <c r="Q39">
         <f>'2_MechAdd_ModSeverity'!L39</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="R39">
         <f>'2_MechAdd_ModSeverity'!M39</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="S39">
         <f>'2_MechAdd_HighSeverity'!K39</f>
@@ -43335,11 +43343,11 @@
       </c>
       <c r="T39">
         <f>'2_MechAdd_HighSeverity'!L39</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="U39">
         <f>'2_MechAdd_HighSeverity'!M39</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="V39">
         <f>'2_MechAdd_LowSeverity'!N39</f>
@@ -43391,11 +43399,11 @@
       </c>
       <c r="AH39">
         <f>'2_MechAdd_LowSeverity'!T39</f>
-        <v>49.500000000000007</v>
+        <v>90</v>
       </c>
       <c r="AI39">
         <f>'2_MechAdd_LowSeverity'!U39</f>
-        <v>54.45000000000001</v>
+        <v>90</v>
       </c>
       <c r="AJ39">
         <f>'2_MechAdd_ModSeverity'!S39</f>
@@ -43403,11 +43411,11 @@
       </c>
       <c r="AK39">
         <f>'2_MechAdd_ModSeverity'!T39</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AL39">
         <f>'2_MechAdd_ModSeverity'!U39</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AM39">
         <f>'2_MechAdd_HighSeverity'!S39</f>
@@ -43415,11 +43423,11 @@
       </c>
       <c r="AN39">
         <f>'2_MechAdd_HighSeverity'!T39</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AO39">
         <f>'2_MechAdd_HighSeverity'!U39</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AP39">
         <f>'2_MechAdd_LowSeverity'!V39</f>
@@ -44255,11 +44263,11 @@
       </c>
       <c r="D43">
         <f>'2_MechAdd_LowSeverity'!H43</f>
-        <v>89.0625</v>
+        <v>95</v>
       </c>
       <c r="E43">
         <f>'2_MechAdd_LowSeverity'!I43</f>
-        <v>89.0625</v>
+        <v>95</v>
       </c>
       <c r="F43">
         <f>'2_MechAdd_ModSeverity'!G43</f>
@@ -44267,11 +44275,11 @@
       </c>
       <c r="G43">
         <f>'2_MechAdd_ModSeverity'!H43</f>
-        <v>71.25</v>
+        <v>95</v>
       </c>
       <c r="H43">
         <f>'2_MechAdd_ModSeverity'!I43</f>
-        <v>71.25</v>
+        <v>95</v>
       </c>
       <c r="I43">
         <f>'2_MechAdd_HighSeverity'!G43</f>
@@ -44279,11 +44287,11 @@
       </c>
       <c r="J43">
         <f>'2_MechAdd_HighSeverity'!H43</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="K43">
         <f>'2_MechAdd_HighSeverity'!I43</f>
-        <v>35.625</v>
+        <v>95</v>
       </c>
       <c r="L43">
         <f>'2_MechAdd_LowSeverity'!J43</f>
@@ -44335,11 +44343,11 @@
       </c>
       <c r="X43">
         <f>'2_MechAdd_LowSeverity'!P43</f>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="Y43">
         <f>'2_MechAdd_LowSeverity'!Q43</f>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="Z43">
         <f>'2_MechAdd_ModSeverity'!O43</f>
@@ -44347,11 +44355,11 @@
       </c>
       <c r="AA43">
         <f>'2_MechAdd_ModSeverity'!P43</f>
-        <v>63.75</v>
+        <v>85</v>
       </c>
       <c r="AB43">
         <f>'2_MechAdd_ModSeverity'!Q43</f>
-        <v>63.75</v>
+        <v>85</v>
       </c>
       <c r="AC43">
         <f>'2_MechAdd_HighSeverity'!O43</f>
@@ -44359,11 +44367,11 @@
       </c>
       <c r="AD43">
         <f>'2_MechAdd_HighSeverity'!P43</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="AE43">
         <f>'2_MechAdd_HighSeverity'!Q43</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="AF43">
         <f>'2_MechAdd_LowSeverity'!R43</f>
@@ -44375,11 +44383,11 @@
       </c>
       <c r="AH43">
         <f>'2_MechAdd_LowSeverity'!T43</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="AI43">
         <f>'2_MechAdd_LowSeverity'!U43</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="AJ43">
         <f>'2_MechAdd_ModSeverity'!S43</f>
@@ -44387,11 +44395,11 @@
       </c>
       <c r="AK43">
         <f>'2_MechAdd_ModSeverity'!T43</f>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="AL43">
         <f>'2_MechAdd_ModSeverity'!U43</f>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="AM43">
         <f>'2_MechAdd_HighSeverity'!S43</f>
@@ -44399,11 +44407,11 @@
       </c>
       <c r="AN43">
         <f>'2_MechAdd_HighSeverity'!T43</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AO43">
         <f>'2_MechAdd_HighSeverity'!U43</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AP43">
         <f>'2_MechAdd_LowSeverity'!V43</f>
@@ -44415,11 +44423,11 @@
       </c>
       <c r="AR43">
         <f>'2_MechAdd_LowSeverity'!X43</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS43">
         <f>'2_MechAdd_LowSeverity'!Y43</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AT43">
         <f>'2_MechAdd_ModSeverity'!W43</f>
@@ -44427,11 +44435,11 @@
       </c>
       <c r="AU43">
         <f>'2_MechAdd_ModSeverity'!X43</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AV43">
         <f>'2_MechAdd_ModSeverity'!Y43</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AW43">
         <f>'2_MechAdd_HighSeverity'!W43</f>
@@ -44439,11 +44447,11 @@
       </c>
       <c r="AX43">
         <f>'2_MechAdd_HighSeverity'!X43</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AY43">
         <f>'2_MechAdd_HighSeverity'!Y43</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AZ43">
         <f>'2_MechAdd_LowSeverity'!Z43</f>
@@ -44455,11 +44463,11 @@
       </c>
       <c r="BB43">
         <f>'2_MechAdd_LowSeverity'!AB43</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="BC43">
         <f>'2_MechAdd_LowSeverity'!AC43</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="BD43">
         <f>'2_MechAdd_ModSeverity'!AA43</f>
@@ -44467,11 +44475,11 @@
       </c>
       <c r="BE43">
         <f>'2_MechAdd_ModSeverity'!AB43</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BF43">
         <f>'2_MechAdd_ModSeverity'!AC43</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BG43">
         <f>'2_MechAdd_HighSeverity'!AA43</f>
@@ -44479,11 +44487,11 @@
       </c>
       <c r="BH43">
         <f>'2_MechAdd_HighSeverity'!AB43</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="BI43">
         <f>'2_MechAdd_HighSeverity'!AC43</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
@@ -44755,15 +44763,15 @@
       </c>
       <c r="F45">
         <f>'2_MechAdd_ModSeverity'!G45</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G45">
         <f>'2_MechAdd_ModSeverity'!H45</f>
-        <v>0.11250000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="H45">
         <f>'2_MechAdd_ModSeverity'!I45</f>
-        <v>0.16875000000000001</v>
+        <v>0.11250000000000002</v>
       </c>
       <c r="I45">
         <f>'2_MechAdd_HighSeverity'!G45</f>
@@ -44835,15 +44843,15 @@
       </c>
       <c r="Z45">
         <f>'2_MechAdd_ModSeverity'!O45</f>
-        <v>7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA45">
         <f>'2_MechAdd_ModSeverity'!P45</f>
-        <v>1.125E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AB45">
         <f>'2_MechAdd_ModSeverity'!Q45</f>
-        <v>1.6875000000000001E-2</v>
+        <v>1.125E-2</v>
       </c>
       <c r="AC45">
         <f>'2_MechAdd_HighSeverity'!O45</f>
@@ -44875,15 +44883,15 @@
       </c>
       <c r="AJ45">
         <f>'2_MechAdd_ModSeverity'!S45</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AK45">
         <f>'2_MechAdd_ModSeverity'!T45</f>
-        <v>2.2499999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AL45">
         <f>'2_MechAdd_ModSeverity'!U45</f>
-        <v>3.3750000000000002E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AM45">
         <f>'2_MechAdd_HighSeverity'!S45</f>
@@ -44955,15 +44963,15 @@
       </c>
       <c r="BD45">
         <f>'2_MechAdd_ModSeverity'!AA45</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.05</v>
       </c>
       <c r="BE45">
         <f>'2_MechAdd_ModSeverity'!AB45</f>
-        <v>0.11250000000000002</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="BF45">
         <f>'2_MechAdd_ModSeverity'!AC45</f>
-        <v>0.16875000000000001</v>
+        <v>0.11250000000000002</v>
       </c>
       <c r="BG45">
         <f>'2_MechAdd_HighSeverity'!AA45</f>
@@ -45001,15 +45009,15 @@
       </c>
       <c r="F46">
         <f>'2_MechAdd_ModSeverity'!G46</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="G46">
         <f>'2_MechAdd_ModSeverity'!H46</f>
-        <v>0.22500000000000003</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="H46">
         <f>'2_MechAdd_ModSeverity'!I46</f>
-        <v>0.33750000000000002</v>
+        <v>0.22500000000000003</v>
       </c>
       <c r="I46">
         <f>'2_MechAdd_HighSeverity'!G46</f>
@@ -45081,15 +45089,15 @@
       </c>
       <c r="Z46">
         <f>'2_MechAdd_ModSeverity'!O46</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA46">
         <f>'2_MechAdd_ModSeverity'!P46</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB46">
         <f>'2_MechAdd_ModSeverity'!Q46</f>
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AC46">
         <f>'2_MechAdd_HighSeverity'!O46</f>
@@ -45121,15 +45129,15 @@
       </c>
       <c r="AJ46">
         <f>'2_MechAdd_ModSeverity'!S46</f>
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="AK46">
         <f>'2_MechAdd_ModSeverity'!T46</f>
-        <v>5.625</v>
+        <v>3.75</v>
       </c>
       <c r="AL46">
         <f>'2_MechAdd_ModSeverity'!U46</f>
-        <v>8.4375</v>
+        <v>5.625</v>
       </c>
       <c r="AM46">
         <f>'2_MechAdd_HighSeverity'!S46</f>
@@ -45201,15 +45209,15 @@
       </c>
       <c r="BD46">
         <f>'2_MechAdd_ModSeverity'!AA46</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BE46">
         <f>'2_MechAdd_ModSeverity'!AB46</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="BF46">
         <f>'2_MechAdd_ModSeverity'!AC46</f>
-        <v>33.75</v>
+        <v>22.5</v>
       </c>
       <c r="BG46">
         <f>'2_MechAdd_HighSeverity'!AA46</f>
@@ -45239,23 +45247,23 @@
       </c>
       <c r="D47">
         <f>'2_MechAdd_LowSeverity'!H47</f>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="E47">
         <f>'2_MechAdd_LowSeverity'!I47</f>
-        <v>79.6875</v>
+        <v>85</v>
       </c>
       <c r="F47">
         <f>'2_MechAdd_ModSeverity'!G47</f>
-        <v>63.75</v>
+        <v>42.5</v>
       </c>
       <c r="G47">
         <f>'2_MechAdd_ModSeverity'!H47</f>
-        <v>95.625</v>
+        <v>85</v>
       </c>
       <c r="H47">
         <f>'2_MechAdd_ModSeverity'!I47</f>
-        <v>95.625</v>
+        <v>85</v>
       </c>
       <c r="I47">
         <f>'2_MechAdd_HighSeverity'!G47</f>
@@ -45263,11 +45271,11 @@
       </c>
       <c r="J47">
         <f>'2_MechAdd_HighSeverity'!H47</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="K47">
         <f>'2_MechAdd_HighSeverity'!I47</f>
-        <v>31.875</v>
+        <v>85</v>
       </c>
       <c r="L47">
         <f>'2_MechAdd_LowSeverity'!J47</f>
@@ -45319,23 +45327,23 @@
       </c>
       <c r="X47">
         <f>'2_MechAdd_LowSeverity'!P47</f>
-        <v>65.625</v>
+        <v>70</v>
       </c>
       <c r="Y47">
         <f>'2_MechAdd_LowSeverity'!Q47</f>
-        <v>65.625</v>
+        <v>70</v>
       </c>
       <c r="Z47">
         <f>'2_MechAdd_ModSeverity'!O47</f>
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="AA47">
         <f>'2_MechAdd_ModSeverity'!P47</f>
-        <v>78.75</v>
+        <v>70</v>
       </c>
       <c r="AB47">
         <f>'2_MechAdd_ModSeverity'!Q47</f>
-        <v>78.75</v>
+        <v>70</v>
       </c>
       <c r="AC47">
         <f>'2_MechAdd_HighSeverity'!O47</f>
@@ -45343,11 +45351,11 @@
       </c>
       <c r="AD47">
         <f>'2_MechAdd_HighSeverity'!P47</f>
-        <v>26.25</v>
+        <v>70</v>
       </c>
       <c r="AE47">
         <f>'2_MechAdd_HighSeverity'!Q47</f>
-        <v>26.25</v>
+        <v>70</v>
       </c>
       <c r="AF47">
         <f>'2_MechAdd_LowSeverity'!R47</f>
@@ -45359,23 +45367,23 @@
       </c>
       <c r="AH47">
         <f>'2_MechAdd_LowSeverity'!T47</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="AI47">
         <f>'2_MechAdd_LowSeverity'!U47</f>
-        <v>84.375</v>
+        <v>90</v>
       </c>
       <c r="AJ47">
         <f>'2_MechAdd_ModSeverity'!S47</f>
-        <v>67.5</v>
+        <v>45</v>
       </c>
       <c r="AK47">
         <f>'2_MechAdd_ModSeverity'!T47</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL47">
         <f>'2_MechAdd_ModSeverity'!U47</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM47">
         <f>'2_MechAdd_HighSeverity'!S47</f>
@@ -45383,11 +45391,11 @@
       </c>
       <c r="AN47">
         <f>'2_MechAdd_HighSeverity'!T47</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AO47">
         <f>'2_MechAdd_HighSeverity'!U47</f>
-        <v>33.75</v>
+        <v>90</v>
       </c>
       <c r="AP47">
         <f>'2_MechAdd_LowSeverity'!V47</f>
@@ -45439,23 +45447,23 @@
       </c>
       <c r="BB47">
         <f>'2_MechAdd_LowSeverity'!AB47</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="BC47">
         <f>'2_MechAdd_LowSeverity'!AC47</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="BD47">
         <f>'2_MechAdd_ModSeverity'!AA47</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="BE47">
         <f>'2_MechAdd_ModSeverity'!AB47</f>
-        <v>67.5</v>
+        <v>60</v>
       </c>
       <c r="BF47">
         <f>'2_MechAdd_ModSeverity'!AC47</f>
-        <v>67.5</v>
+        <v>60</v>
       </c>
       <c r="BG47">
         <f>'2_MechAdd_HighSeverity'!AA47</f>
@@ -45463,11 +45471,11 @@
       </c>
       <c r="BH47">
         <f>'2_MechAdd_HighSeverity'!AB47</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="BI47">
         <f>'2_MechAdd_HighSeverity'!AC47</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="452">
   <si>
     <t>* = 1.1</t>
   </si>
@@ -1598,6 +1598,12 @@
   <si>
     <t>| if = 0, but add SStump, = SStump_Density</t>
   </si>
+  <si>
+    <t>| If not present, Sstump_Diameter</t>
+  </si>
+  <si>
+    <t>| If not present, Sstump_Height</t>
+  </si>
 </sst>
 </file>
 
@@ -2668,20 +2674,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="25" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="26" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="26" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="21" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" style="25" customWidth="1"/>
     <col min="11" max="11" width="26.5703125" style="26" customWidth="1"/>
@@ -3833,6 +3839,15 @@
       <c r="B62" t="s">
         <v>346</v>
       </c>
+      <c r="E62" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
@@ -3841,6 +3856,15 @@
       <c r="B63" t="s">
         <v>347</v>
       </c>
+      <c r="E63" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
@@ -3866,9 +3890,6 @@
       <c r="B65" t="s">
         <v>346</v>
       </c>
-      <c r="E65" s="23" t="s">
-        <v>447</v>
-      </c>
       <c r="H65" s="23" t="s">
         <v>447</v>
       </c>
@@ -3883,9 +3904,6 @@
       <c r="B66" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>448</v>
-      </c>
       <c r="H66" s="23" t="s">
         <v>448</v>
       </c>
@@ -3900,9 +3918,7 @@
       <c r="B67" t="s">
         <v>348</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>449</v>
-      </c>
+      <c r="E67" s="23"/>
       <c r="H67" s="23" t="s">
         <v>449</v>
       </c>
@@ -7504,8 +7520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7936,7 +7952,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K15" si="8">J5</f>
+        <f t="shared" ref="K5" si="8">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -7948,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O15" si="10">N5</f>
+        <f t="shared" ref="O5" si="10">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -7963,7 +7979,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S15" si="12">R5</f>
+        <f t="shared" ref="S5" si="12">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -7978,7 +7994,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W15" si="14">V5</f>
+        <f t="shared" ref="W5" si="14">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -7993,7 +8009,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA15" si="16">Z5</f>
+        <f t="shared" ref="AA5" si="16">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -8403,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K20" si="18">J10</f>
+        <f t="shared" ref="K10" si="18">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -8415,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O20" si="19">N10</f>
+        <f t="shared" ref="O10" si="19">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -8427,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S20" si="20">R10</f>
+        <f t="shared" ref="S10" si="20">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -8442,7 +8458,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W20" si="21">V10</f>
+        <f t="shared" ref="W10" si="21">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -8454,7 +8470,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA20" si="22">Z10</f>
+        <f t="shared" ref="AA10" si="22">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -8668,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:K23" si="23">J13</f>
+        <f t="shared" ref="K13:K15" si="23">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -8680,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:O23" si="24">N13</f>
+        <f t="shared" ref="O13:O15" si="24">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -8695,7 +8711,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" ref="S13:S23" si="25">R13</f>
+        <f t="shared" ref="S13:S15" si="25">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="15">
@@ -8710,7 +8726,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" ref="W13:W23" si="26">V13</f>
+        <f t="shared" ref="W13:W15" si="26">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="15">
@@ -8725,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" ref="AA13:AA23" si="27">Z13</f>
+        <f t="shared" ref="AA13:AA15" si="27">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="15">
@@ -10603,7 +10619,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34:M47" si="36">L34</f>
+        <f t="shared" ref="M34" si="36">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -10618,7 +10634,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34:Q47" si="37">P34</f>
+        <f t="shared" ref="Q34" si="37">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -10633,7 +10649,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34:U47" si="38">T34</f>
+        <f t="shared" ref="U34" si="38">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -10648,7 +10664,7 @@
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34:Y47" si="39">X34</f>
+        <f t="shared" ref="Y34" si="39">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -10663,7 +10679,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34:AC47" si="40">AB34</f>
+        <f t="shared" ref="AC34" si="40">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -10912,66 +10928,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="43">J37</f>
+        <f t="shared" ref="K37" si="43">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="44">K37</f>
+        <f t="shared" ref="L37" si="44">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="45">L37</f>
+        <f t="shared" ref="M37" si="45">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="46">N37</f>
+        <f t="shared" ref="O37" si="46">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="47">O37</f>
+        <f t="shared" ref="P37" si="47">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="48">P37</f>
+        <f t="shared" ref="Q37" si="48">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="49">R37</f>
+        <f t="shared" ref="S37" si="49">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="50">S37</f>
+        <f t="shared" ref="T37" si="50">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="51">T37</f>
+        <f t="shared" ref="U37" si="51">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="52">V37</f>
+        <f t="shared" ref="W37" si="52">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="53">W37</f>
+        <f t="shared" ref="X37" si="53">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="54">X37</f>
+        <f t="shared" ref="Y37" si="54">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="55">Z37</f>
+        <f t="shared" ref="AA37" si="55">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="56">AA37</f>
+        <f t="shared" ref="AB37" si="56">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="57">AB37</f>
+        <f t="shared" ref="AC37" si="57">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -11199,75 +11215,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="58">J40</f>
+        <f t="shared" ref="K40" si="58">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="59">K40</f>
+        <f t="shared" ref="L40" si="59">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40:M53" si="60">L40</f>
+        <f t="shared" ref="M40" si="60">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="61">N40</f>
+        <f t="shared" ref="O40" si="61">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="62">O40</f>
+        <f t="shared" ref="P40" si="62">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40:Q53" si="63">P40</f>
+        <f t="shared" ref="Q40" si="63">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="64">R40</f>
+        <f t="shared" ref="S40" si="64">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="65">S40</f>
+        <f t="shared" ref="T40" si="65">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40:U53" si="66">T40</f>
+        <f t="shared" ref="U40" si="66">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="67">V40</f>
+        <f t="shared" ref="W40" si="67">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="68">W40</f>
+        <f t="shared" ref="X40" si="68">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40:Y53" si="69">X40</f>
+        <f t="shared" ref="Y40" si="69">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="70">Z40</f>
+        <f t="shared" ref="AA40" si="70">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="71">AA40</f>
+        <f t="shared" ref="AB40" si="71">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40:AC53" si="72">AB40</f>
+        <f t="shared" ref="AC40" si="72">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -11521,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M56" si="73">L43</f>
+        <f t="shared" ref="M43:M44" si="73">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -11536,7 +11552,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q56" si="74">P43</f>
+        <f t="shared" ref="Q43:Q44" si="74">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -11551,7 +11567,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U56" si="75">T43</f>
+        <f t="shared" ref="U43:U44" si="75">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -11566,7 +11582,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y56" si="76">X43</f>
+        <f t="shared" ref="Y43:Y44" si="76">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -11581,7 +11597,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC56" si="77">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="77">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -11612,11 +11628,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44:K51" si="78">J44</f>
+        <f t="shared" ref="K44" si="78">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="79">K44</f>
+        <f t="shared" ref="L44" si="79">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -11627,11 +11643,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O51" si="80">N44</f>
+        <f t="shared" ref="O44" si="80">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="81">O44</f>
+        <f t="shared" ref="P44" si="81">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -11642,11 +11658,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44:S51" si="82">R44</f>
+        <f t="shared" ref="S44" si="82">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="83">S44</f>
+        <f t="shared" ref="T44" si="83">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -11654,11 +11670,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44:W51" si="84">V44</f>
+        <f t="shared" ref="W44" si="84">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="85">W44</f>
+        <f t="shared" ref="X44" si="85">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -11669,11 +11685,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44:AA51" si="86">Z44</f>
+        <f t="shared" ref="AA44" si="86">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="87">AA44</f>
+        <f t="shared" ref="AB44" si="87">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -11718,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" ref="L45:L55" si="89">K45*$D45</f>
+        <f t="shared" ref="L45" si="89">K45*$D45</f>
         <v>0</v>
       </c>
       <c r="M45" s="16">
@@ -11733,7 +11749,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="P45" s="15">
-        <f t="shared" ref="P45:P55" si="90">O45*$D45</f>
+        <f t="shared" ref="P45" si="90">O45*$D45</f>
         <v>9.3749999999999997E-3</v>
       </c>
       <c r="Q45" s="16">
@@ -11748,7 +11764,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" ref="T45:T55" si="91">S45*$D45</f>
+        <f t="shared" ref="T45" si="91">S45*$D45</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="U45" s="16">
@@ -11760,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" ref="X45:X55" si="92">W45*$D45</f>
+        <f t="shared" ref="X45" si="92">W45*$D45</f>
         <v>0</v>
       </c>
       <c r="Y45" s="16">
@@ -11775,7 +11791,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" ref="AB45:AB55" si="93">AA45*$D45</f>
+        <f t="shared" ref="AB45" si="93">AA45*$D45</f>
         <v>9.3750000000000014E-2</v>
       </c>
       <c r="AC45" s="16">
@@ -11921,11 +11937,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" ref="L47:L57" si="94">K47*$D47</f>
+        <f t="shared" ref="L47:L48" si="94">K47*$D47</f>
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="95">L47</f>
+        <f t="shared" ref="M47" si="95">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -11936,11 +11952,11 @@
         <v>52.5</v>
       </c>
       <c r="P47" s="15">
-        <f t="shared" ref="P47:P57" si="96">O47*$D47</f>
+        <f t="shared" ref="P47:P48" si="96">O47*$D47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="97">P47</f>
+        <f t="shared" ref="Q47" si="97">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -11951,11 +11967,11 @@
         <v>67.5</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" ref="T47:T57" si="98">S47*$D47</f>
+        <f t="shared" ref="T47:T48" si="98">S47*$D47</f>
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="99">T47</f>
+        <f t="shared" ref="U47" si="99">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -11963,11 +11979,11 @@
         <v>0</v>
       </c>
       <c r="X47" s="15">
-        <f t="shared" ref="X47:X57" si="100">W47*$D47</f>
+        <f t="shared" ref="X47:X48" si="100">W47*$D47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="101">X47</f>
+        <f t="shared" ref="Y47" si="101">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -11978,11 +11994,11 @@
         <v>45</v>
       </c>
       <c r="AB47" s="15">
-        <f t="shared" ref="AB47:AB57" si="102">AA47*$D47</f>
+        <f t="shared" ref="AB47:AB48" si="102">AA47*$D47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="103">AB47</f>
+        <f t="shared" ref="AC47" si="103">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -12030,7 +12046,7 @@
         <v>0.9375</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" ref="M48:M52" si="105">$E48*L48</f>
+        <f t="shared" ref="M48" si="105">$E48*L48</f>
         <v>0.46875</v>
       </c>
       <c r="O48" s="12">
@@ -12042,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" ref="Q48:Q52" si="106">$E48*P48</f>
+        <f t="shared" ref="Q48" si="106">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="11">
@@ -12057,7 +12073,7 @@
         <v>0.46875</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" ref="U48:U52" si="107">$E48*T48</f>
+        <f t="shared" ref="U48" si="107">$E48*T48</f>
         <v>0.234375</v>
       </c>
       <c r="V48" s="11">
@@ -12072,7 +12088,7 @@
         <v>0.9375</v>
       </c>
       <c r="Y48" s="16">
-        <f t="shared" ref="Y48:Y52" si="108">$E48*X48</f>
+        <f t="shared" ref="Y48" si="108">$E48*X48</f>
         <v>0.46875</v>
       </c>
       <c r="Z48" s="11">
@@ -12087,7 +12103,7 @@
         <v>0.46875</v>
       </c>
       <c r="AC48" s="16">
-        <f t="shared" ref="AC48:AC52" si="109">$E48*AB48</f>
+        <f t="shared" ref="AC48" si="109">$E48*AB48</f>
         <v>0.234375</v>
       </c>
     </row>
@@ -12236,7 +12252,7 @@
         <v>1.25</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" ref="L50:L60" si="110">K50*$D50</f>
+        <f t="shared" ref="L50:L52" si="110">K50*$D50</f>
         <v>0.9375</v>
       </c>
       <c r="M50" s="16">
@@ -12248,7 +12264,7 @@
         <v>0.5</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:P60" si="112">O50*$D50</f>
+        <f t="shared" ref="P50:P52" si="112">O50*$D50</f>
         <v>0.375</v>
       </c>
       <c r="Q50" s="16">
@@ -12263,7 +12279,7 @@
         <v>0.625</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" ref="T50:T60" si="114">S50*$D50</f>
+        <f t="shared" ref="T50:T52" si="114">S50*$D50</f>
         <v>0.46875</v>
       </c>
       <c r="U50" s="16">
@@ -12278,7 +12294,7 @@
         <v>1.25</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" ref="X50:X60" si="116">W50*$D50</f>
+        <f t="shared" ref="X50:X52" si="116">W50*$D50</f>
         <v>0.9375</v>
       </c>
       <c r="Y50" s="16">
@@ -12293,7 +12309,7 @@
         <v>0.5</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" ref="AB50:AB60" si="118">AA50*$D50</f>
+        <f t="shared" ref="AB50:AB52" si="118">AA50*$D50</f>
         <v>0.375</v>
       </c>
       <c r="AC50" s="16">
@@ -12545,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K93" si="122">J53</f>
+        <f t="shared" ref="K53:K60" si="122">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -12557,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O93" si="123">N53</f>
+        <f t="shared" ref="O53:O60" si="123">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -12572,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S93" si="124">R53</f>
+        <f t="shared" ref="S53:S60" si="124">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -12587,7 +12603,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W93" si="125">V53</f>
+        <f t="shared" ref="W53:W60" si="125">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -12602,7 +12618,7 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA93" si="126">Z53</f>
+        <f t="shared" ref="AA53:AA60" si="126">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -12652,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" ref="L54:L64" si="127">K54*$D54</f>
+        <f t="shared" ref="L54:L55" si="127">K54*$D54</f>
         <v>0</v>
       </c>
       <c r="M54" s="16">
@@ -12664,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <f t="shared" ref="P54:P64" si="128">O54*$D54</f>
+        <f t="shared" ref="P54:P55" si="128">O54*$D54</f>
         <v>0</v>
       </c>
       <c r="Q54" s="16">
@@ -12679,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="15">
-        <f t="shared" ref="T54:T64" si="129">S54*$D54</f>
+        <f t="shared" ref="T54:T55" si="129">S54*$D54</f>
         <v>0</v>
       </c>
       <c r="U54" s="16">
@@ -12694,7 +12710,7 @@
         <v>0.5</v>
       </c>
       <c r="X54" s="15">
-        <f t="shared" ref="X54:X64" si="130">W54*$D54</f>
+        <f t="shared" ref="X54:X55" si="130">W54*$D54</f>
         <v>0.375</v>
       </c>
       <c r="Y54" s="16">
@@ -12709,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <f t="shared" ref="AB54:AB64" si="131">AA54*$D54</f>
+        <f t="shared" ref="AB54:AB55" si="131">AA54*$D54</f>
         <v>0</v>
       </c>
       <c r="AC54" s="16">
@@ -13416,7 +13432,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="138">J62</f>
+        <f t="shared" ref="K62:K79" si="138">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -13428,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="140">N62</f>
+        <f t="shared" ref="O62:O79" si="140">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -13443,7 +13459,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="142">R62</f>
+        <f t="shared" ref="S62:S79" si="142">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -13458,7 +13474,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="144">V62</f>
+        <f t="shared" ref="W62:W79" si="144">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -13473,7 +13489,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="146">Z62</f>
+        <f t="shared" ref="AA62:AA79" si="146">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -16750,7 +16766,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -16762,7 +16778,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -16777,7 +16793,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -16792,7 +16808,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -16807,7 +16823,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -17217,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -17229,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -17241,7 +17257,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -17256,7 +17272,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -17268,7 +17284,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -19732,66 +19748,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="36">J37</f>
+        <f t="shared" ref="K37" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="37">K37</f>
+        <f t="shared" ref="L37" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="38">L37</f>
+        <f t="shared" ref="M37" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="39">N37</f>
+        <f t="shared" ref="O37" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="40">O37</f>
+        <f t="shared" ref="P37" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="41">P37</f>
+        <f t="shared" ref="Q37" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="42">R37</f>
+        <f t="shared" ref="S37" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="43">S37</f>
+        <f t="shared" ref="T37" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="44">T37</f>
+        <f t="shared" ref="U37" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="45">V37</f>
+        <f t="shared" ref="W37" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="46">W37</f>
+        <f t="shared" ref="X37" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="47">X37</f>
+        <f t="shared" ref="Y37" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
+        <f t="shared" ref="AA37" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
+        <f t="shared" ref="AB37" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
+        <f t="shared" ref="AC37" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20019,75 +20035,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="51">J40</f>
+        <f t="shared" ref="K40" si="51">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="52">K40</f>
+        <f t="shared" ref="L40" si="52">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40:M53" si="53">L40</f>
+        <f t="shared" ref="M40" si="53">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="54">N40</f>
+        <f t="shared" ref="O40" si="54">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="55">O40</f>
+        <f t="shared" ref="P40" si="55">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40:Q53" si="56">P40</f>
+        <f t="shared" ref="Q40" si="56">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="57">R40</f>
+        <f t="shared" ref="S40" si="57">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="58">S40</f>
+        <f t="shared" ref="T40" si="58">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40:U53" si="59">T40</f>
+        <f t="shared" ref="U40" si="59">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="60">V40</f>
+        <f t="shared" ref="W40" si="60">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="61">W40</f>
+        <f t="shared" ref="X40" si="61">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40:Y53" si="62">X40</f>
+        <f t="shared" ref="Y40" si="62">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="63">Z40</f>
+        <f t="shared" ref="AA40" si="63">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="64">AA40</f>
+        <f t="shared" ref="AB40" si="64">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40:AC53" si="65">AB40</f>
+        <f t="shared" ref="AC40" si="65">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -20341,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M56" si="66">L43</f>
+        <f t="shared" ref="M43:M44" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20356,7 +20372,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q56" si="67">P43</f>
+        <f t="shared" ref="Q43:Q44" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20371,7 +20387,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U56" si="68">T43</f>
+        <f t="shared" ref="U43:U44" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20386,7 +20402,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y56" si="69">X43</f>
+        <f t="shared" ref="Y43:Y44" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20401,7 +20417,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20432,11 +20448,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44:K51" si="71">J44</f>
+        <f t="shared" ref="K44" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="72">K44</f>
+        <f t="shared" ref="L44" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -20447,11 +20463,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O51" si="73">N44</f>
+        <f t="shared" ref="O44" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="74">O44</f>
+        <f t="shared" ref="P44" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -20462,11 +20478,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44:S51" si="75">R44</f>
+        <f t="shared" ref="S44" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="76">S44</f>
+        <f t="shared" ref="T44" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -20474,11 +20490,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44:W51" si="77">V44</f>
+        <f t="shared" ref="W44" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="78">W44</f>
+        <f t="shared" ref="X44" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -20489,11 +20505,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
+        <f t="shared" ref="AA44" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
+        <f t="shared" ref="AB44" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -20538,7 +20554,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" ref="L45:L55" si="82">K45*$D45</f>
+        <f t="shared" ref="L45" si="82">K45*$D45</f>
         <v>0</v>
       </c>
       <c r="M45" s="16">
@@ -20553,7 +20569,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P45" s="15">
-        <f t="shared" ref="P45:P55" si="83">O45*$D45</f>
+        <f t="shared" ref="P45" si="83">O45*$D45</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q45" s="16">
@@ -20568,7 +20584,7 @@
         <v>0.01</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" ref="T45:T55" si="84">S45*$D45</f>
+        <f t="shared" ref="T45" si="84">S45*$D45</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U45" s="16">
@@ -20580,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" ref="X45:X55" si="85">W45*$D45</f>
+        <f t="shared" ref="X45" si="85">W45*$D45</f>
         <v>0</v>
       </c>
       <c r="Y45" s="16">
@@ -20595,7 +20611,7 @@
         <v>0.05</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" ref="AB45:AB55" si="86">AA45*$D45</f>
+        <f t="shared" ref="AB45" si="86">AA45*$D45</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AC45" s="16">
@@ -20745,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="87">L47</f>
+        <f t="shared" ref="M47" si="87">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -20760,7 +20776,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="88">P47</f>
+        <f t="shared" ref="Q47" si="88">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -20775,7 +20791,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="89">T47</f>
+        <f t="shared" ref="U47" si="89">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -20787,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="90">X47</f>
+        <f t="shared" ref="Y47" si="90">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -20802,7 +20818,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="91">AB47</f>
+        <f t="shared" ref="AC47" si="91">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -20846,7 +20862,7 @@
         <v>1.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L58" si="92">K48*$D48</f>
+        <f t="shared" ref="L48" si="92">K48*$D48</f>
         <v>1.125</v>
       </c>
       <c r="M48" s="16">
@@ -20858,7 +20874,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P58" si="93">O48*$D48</f>
+        <f t="shared" ref="P48" si="93">O48*$D48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -20873,7 +20889,7 @@
         <v>0.75</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T58" si="94">S48*$D48</f>
+        <f t="shared" ref="T48" si="94">S48*$D48</f>
         <v>0.5625</v>
       </c>
       <c r="U48" s="16">
@@ -20888,7 +20904,7 @@
         <v>1.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X58" si="95">W48*$D48</f>
+        <f t="shared" ref="X48" si="95">W48*$D48</f>
         <v>1.125</v>
       </c>
       <c r="Y48" s="16">
@@ -20903,7 +20919,7 @@
         <v>0.75</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB58" si="96">AA48*$D48</f>
+        <f t="shared" ref="AB48" si="96">AA48*$D48</f>
         <v>0.5625</v>
       </c>
       <c r="AC48" s="16">
@@ -21056,7 +21072,7 @@
         <v>1.5</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" ref="L50:L60" si="97">K50*$D50</f>
+        <f t="shared" ref="L50:L55" si="97">K50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="M50" s="16">
@@ -21068,7 +21084,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:P60" si="98">O50*$D50</f>
+        <f t="shared" ref="P50:P55" si="98">O50*$D50</f>
         <v>0.75</v>
       </c>
       <c r="Q50" s="16">
@@ -21083,7 +21099,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" ref="T50:T60" si="99">S50*$D50</f>
+        <f t="shared" ref="T50:T55" si="99">S50*$D50</f>
         <v>0.75</v>
       </c>
       <c r="U50" s="16">
@@ -21098,7 +21114,7 @@
         <v>1.5</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" ref="X50:X60" si="100">W50*$D50</f>
+        <f t="shared" ref="X50:X55" si="100">W50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="Y50" s="16">
@@ -21113,7 +21129,7 @@
         <v>1</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" ref="AB50:AB60" si="101">AA50*$D50</f>
+        <f t="shared" ref="AB50:AB55" si="101">AA50*$D50</f>
         <v>0.75</v>
       </c>
       <c r="AC50" s="16">
@@ -21363,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K93" si="103">J53</f>
+        <f t="shared" ref="K53:K60" si="103">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -21375,7 +21391,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O93" si="104">N53</f>
+        <f t="shared" ref="O53:O60" si="104">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -21390,7 +21406,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S93" si="105">R53</f>
+        <f t="shared" ref="S53:S60" si="105">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -21405,7 +21421,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W93" si="106">V53</f>
+        <f t="shared" ref="W53:W60" si="106">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -21420,7 +21436,7 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA93" si="107">Z53</f>
+        <f t="shared" ref="AA53:AA60" si="107">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -22226,7 +22242,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="113">J62</f>
+        <f t="shared" ref="K62:K79" si="113">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -22238,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="114">N62</f>
+        <f t="shared" ref="O62:O79" si="114">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -22253,7 +22269,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="115">R62</f>
+        <f t="shared" ref="S62:S79" si="115">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -22268,7 +22284,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="116">V62</f>
+        <f t="shared" ref="W62:W79" si="116">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -22283,7 +22299,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="117">Z62</f>
+        <f t="shared" ref="AA62:AA79" si="117">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -25569,7 +25585,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -25581,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -25596,7 +25612,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -25611,7 +25627,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -25626,7 +25642,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -26036,7 +26052,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -26048,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -26060,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -26075,7 +26091,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -26087,7 +26103,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -28457,7 +28473,7 @@
         <v>85</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" ref="M36:M49" si="35">L36</f>
+        <f t="shared" ref="M36:M37" si="35">L36</f>
         <v>85</v>
       </c>
       <c r="N36" s="11">
@@ -28472,7 +28488,7 @@
         <v>100</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" ref="Q36:Q49" si="36">P36</f>
+        <f t="shared" ref="Q36:Q37" si="36">P36</f>
         <v>100</v>
       </c>
       <c r="R36" s="11">
@@ -28487,7 +28503,7 @@
         <v>90</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" ref="U36:U49" si="37">T36</f>
+        <f t="shared" ref="U36:U37" si="37">T36</f>
         <v>90</v>
       </c>
       <c r="V36" s="11">
@@ -28502,7 +28518,7 @@
         <v>85</v>
       </c>
       <c r="Y36" s="16">
-        <f t="shared" ref="Y36:Y49" si="38">X36</f>
+        <f t="shared" ref="Y36:Y37" si="38">X36</f>
         <v>85</v>
       </c>
       <c r="Z36" s="11">
@@ -28517,7 +28533,7 @@
         <v>90</v>
       </c>
       <c r="AC36" s="16">
-        <f t="shared" ref="AC36:AC49" si="39">AB36</f>
+        <f t="shared" ref="AC36:AC37" si="39">AB36</f>
         <v>90</v>
       </c>
     </row>
@@ -28551,11 +28567,11 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="41">J37</f>
+        <f t="shared" ref="K37" si="41">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="42">K37</f>
+        <f t="shared" ref="L37" si="42">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
@@ -28563,11 +28579,11 @@
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="43">N37</f>
+        <f t="shared" ref="O37" si="43">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="44">O37</f>
+        <f t="shared" ref="P37" si="44">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
@@ -28578,11 +28594,11 @@
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="45">R37</f>
+        <f t="shared" ref="S37" si="45">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="46">S37</f>
+        <f t="shared" ref="T37" si="46">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
@@ -28590,11 +28606,11 @@
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="47">V37</f>
+        <f t="shared" ref="W37" si="47">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="48">W37</f>
+        <f t="shared" ref="X37" si="48">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
@@ -28602,11 +28618,11 @@
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="49">Z37</f>
+        <f t="shared" ref="AA37" si="49">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="50">AA37</f>
+        <f t="shared" ref="AB37" si="50">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
@@ -28756,7 +28772,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M52" si="51">L39</f>
+        <f t="shared" ref="M39:M40" si="51">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -28768,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q52" si="52">P39</f>
+        <f t="shared" ref="Q39:Q40" si="52">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -28783,7 +28799,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U52" si="53">T39</f>
+        <f t="shared" ref="U39:U40" si="53">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -28795,7 +28811,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y52" si="54">X39</f>
+        <f t="shared" ref="Y39:Y40" si="54">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -28807,7 +28823,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC52" si="55">AB39</f>
+        <f t="shared" ref="AC39:AC40" si="55">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -28838,11 +28854,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="56">J40</f>
+        <f t="shared" ref="K40" si="56">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="57">K40</f>
+        <f t="shared" ref="L40" si="57">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -28853,11 +28869,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="58">N40</f>
+        <f t="shared" ref="O40" si="58">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="59">O40</f>
+        <f t="shared" ref="P40" si="59">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -28868,11 +28884,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="60">R40</f>
+        <f t="shared" ref="S40" si="60">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="61">S40</f>
+        <f t="shared" ref="T40" si="61">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -28883,11 +28899,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="62">V40</f>
+        <f t="shared" ref="W40" si="62">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="63">W40</f>
+        <f t="shared" ref="X40" si="63">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -28898,11 +28914,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="64">Z40</f>
+        <f t="shared" ref="AA40" si="64">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="65">AA40</f>
+        <f t="shared" ref="AB40" si="65">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -29160,7 +29176,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M56" si="66">L43</f>
+        <f t="shared" ref="M43:M44" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -29175,7 +29191,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q56" si="67">P43</f>
+        <f t="shared" ref="Q43:Q44" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -29190,7 +29206,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U56" si="68">T43</f>
+        <f t="shared" ref="U43:U44" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -29205,7 +29221,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y56" si="69">X43</f>
+        <f t="shared" ref="Y43:Y44" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -29220,7 +29236,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -29251,11 +29267,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44:K51" si="71">J44</f>
+        <f t="shared" ref="K44" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="72">K44</f>
+        <f t="shared" ref="L44" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -29266,11 +29282,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O51" si="73">N44</f>
+        <f t="shared" ref="O44" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="74">O44</f>
+        <f t="shared" ref="P44" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -29281,11 +29297,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44:S51" si="75">R44</f>
+        <f t="shared" ref="S44" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="76">S44</f>
+        <f t="shared" ref="T44" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -29293,11 +29309,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44:W51" si="77">V44</f>
+        <f t="shared" ref="W44" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="78">W44</f>
+        <f t="shared" ref="X44" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -29308,11 +29324,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
+        <f t="shared" ref="AA44" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
+        <f t="shared" ref="AB44" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -29357,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" ref="L45:L55" si="82">K45*$D45</f>
+        <f t="shared" ref="L45" si="82">K45*$D45</f>
         <v>0</v>
       </c>
       <c r="M45" s="16">
@@ -29372,7 +29388,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P45" s="15">
-        <f t="shared" ref="P45:P55" si="83">O45*$D45</f>
+        <f t="shared" ref="P45" si="83">O45*$D45</f>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="Q45" s="16">
@@ -29387,7 +29403,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" ref="T45:T55" si="84">S45*$D45</f>
+        <f t="shared" ref="T45" si="84">S45*$D45</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="U45" s="16">
@@ -29399,7 +29415,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" ref="X45:X55" si="85">W45*$D45</f>
+        <f t="shared" ref="X45" si="85">W45*$D45</f>
         <v>0</v>
       </c>
       <c r="Y45" s="16">
@@ -29414,7 +29430,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" ref="AB45:AB55" si="86">AA45*$D45</f>
+        <f t="shared" ref="AB45" si="86">AA45*$D45</f>
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="AC45" s="16">
@@ -29564,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="87">L47</f>
+        <f t="shared" ref="M47" si="87">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -29579,7 +29595,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="88">P47</f>
+        <f t="shared" ref="Q47" si="88">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -29594,7 +29610,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="89">T47</f>
+        <f t="shared" ref="U47" si="89">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -29606,7 +29622,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="90">X47</f>
+        <f t="shared" ref="Y47" si="90">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -29621,7 +29637,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="91">AB47</f>
+        <f t="shared" ref="AC47" si="91">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -29665,7 +29681,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L58" si="92">K48*$D48</f>
+        <f t="shared" ref="L48" si="92">K48*$D48</f>
         <v>1.5</v>
       </c>
       <c r="M48" s="16">
@@ -29677,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P58" si="93">O48*$D48</f>
+        <f t="shared" ref="P48" si="93">O48*$D48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -29692,7 +29708,7 @@
         <v>1</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T58" si="94">S48*$D48</f>
+        <f t="shared" ref="T48" si="94">S48*$D48</f>
         <v>0.75</v>
       </c>
       <c r="U48" s="16">
@@ -29707,7 +29723,7 @@
         <v>2</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X58" si="95">W48*$D48</f>
+        <f t="shared" ref="X48" si="95">W48*$D48</f>
         <v>1.5</v>
       </c>
       <c r="Y48" s="16">
@@ -29722,7 +29738,7 @@
         <v>1</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB58" si="96">AA48*$D48</f>
+        <f t="shared" ref="AB48" si="96">AA48*$D48</f>
         <v>0.75</v>
       </c>
       <c r="AC48" s="16">
@@ -29875,7 +29891,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" ref="L50:L60" si="97">K50*$D50</f>
+        <f t="shared" ref="L50:L55" si="97">K50*$D50</f>
         <v>1.5</v>
       </c>
       <c r="M50" s="16">
@@ -29887,7 +29903,7 @@
         <v>1.5</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:P60" si="98">O50*$D50</f>
+        <f t="shared" ref="P50:P55" si="98">O50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="Q50" s="16">
@@ -29902,7 +29918,7 @@
         <v>1.5</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" ref="T50:T60" si="99">S50*$D50</f>
+        <f t="shared" ref="T50:T55" si="99">S50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="U50" s="16">
@@ -29917,7 +29933,7 @@
         <v>2</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" ref="X50:X60" si="100">W50*$D50</f>
+        <f t="shared" ref="X50:X55" si="100">W50*$D50</f>
         <v>1.5</v>
       </c>
       <c r="Y50" s="16">
@@ -29932,7 +29948,7 @@
         <v>1.5</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" ref="AB50:AB60" si="101">AA50*$D50</f>
+        <f t="shared" ref="AB50:AB55" si="101">AA50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="AC50" s="16">
@@ -30182,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K93" si="103">J53</f>
+        <f t="shared" ref="K53:K60" si="103">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -30194,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O93" si="104">N53</f>
+        <f t="shared" ref="O53:O60" si="104">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -30209,7 +30225,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S93" si="105">R53</f>
+        <f t="shared" ref="S53:S60" si="105">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -30224,7 +30240,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W93" si="106">V53</f>
+        <f t="shared" ref="W53:W60" si="106">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -30239,7 +30255,7 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA93" si="107">Z53</f>
+        <f t="shared" ref="AA53:AA60" si="107">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -31049,7 +31065,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="113">J62</f>
+        <f t="shared" ref="K62:K79" si="113">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -31061,7 +31077,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="114">N62</f>
+        <f t="shared" ref="O62:O79" si="114">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -31076,7 +31092,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="115">R62</f>
+        <f t="shared" ref="S62:S79" si="115">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -31091,7 +31107,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="116">V62</f>
+        <f t="shared" ref="W62:W79" si="116">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -31106,7 +31122,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="117">Z62</f>
+        <f t="shared" ref="AA62:AA79" si="117">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -31428,7 +31444,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="16">
-        <f t="shared" ref="M66:M93" si="119">L66</f>
+        <f t="shared" ref="M66:M85" si="119">L66</f>
         <v>0</v>
       </c>
       <c r="O66" s="12">
@@ -31440,7 +31456,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="16">
-        <f t="shared" ref="Q66:Q93" si="120">P66</f>
+        <f t="shared" ref="Q66:Q85" si="120">P66</f>
         <v>0</v>
       </c>
       <c r="S66" s="12">
@@ -31452,7 +31468,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="16">
-        <f t="shared" ref="U66:U93" si="121">T66</f>
+        <f t="shared" ref="U66:U85" si="121">T66</f>
         <v>0</v>
       </c>
       <c r="W66" s="12">
@@ -31464,7 +31480,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="16">
-        <f t="shared" ref="Y66:Y93" si="122">X66</f>
+        <f t="shared" ref="Y66:Y85" si="122">X66</f>
         <v>0</v>
       </c>
       <c r="AA66" s="12">
@@ -31476,7 +31492,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" ref="AC66:AC93" si="123">AB66</f>
+        <f t="shared" ref="AC66:AC85" si="123">AB66</f>
         <v>0</v>
       </c>
     </row>

--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -7560,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView topLeftCell="G9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8024,7 +8024,7 @@
         <v>100</v>
       </c>
       <c r="N5" s="12">
-        <f t="shared" ref="N5:N15" si="8">M5</f>
+        <f t="shared" ref="N5" si="8">M5</f>
         <v>0</v>
       </c>
       <c r="O5" s="15">
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" ref="R5:R15" si="10">Q5</f>
+        <f t="shared" ref="R5" si="10">Q5</f>
         <v>0</v>
       </c>
       <c r="S5" s="15">
@@ -8051,7 +8051,7 @@
         <v>25</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" ref="V5:V15" si="12">U5</f>
+        <f t="shared" ref="V5" si="12">U5</f>
         <v>25</v>
       </c>
       <c r="W5" s="15">
@@ -8066,7 +8066,7 @@
         <v>60</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" ref="Z5:Z15" si="14">Y5</f>
+        <f t="shared" ref="Z5" si="14">Y5</f>
         <v>60</v>
       </c>
       <c r="AA5" s="15">
@@ -8081,7 +8081,7 @@
         <v>78</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" ref="AD5:AD15" si="16">AC5</f>
+        <f t="shared" ref="AD5" si="16">AC5</f>
         <v>78</v>
       </c>
       <c r="AE5" s="15">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="12">
-        <f t="shared" ref="N10:N20" si="18">M10</f>
+        <f t="shared" ref="N10" si="18">M10</f>
         <v>0</v>
       </c>
       <c r="O10" s="15">
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="12">
-        <f t="shared" ref="R10:R20" si="19">Q10</f>
+        <f t="shared" ref="R10" si="19">Q10</f>
         <v>0</v>
       </c>
       <c r="S10" s="15">
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" ref="V10:V20" si="20">U10</f>
+        <f t="shared" ref="V10" si="20">U10</f>
         <v>0</v>
       </c>
       <c r="W10" s="15">
@@ -8553,7 +8553,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="12">
-        <f t="shared" ref="Z10:Z20" si="21">Y10</f>
+        <f t="shared" ref="Z10" si="21">Y10</f>
         <v>44</v>
       </c>
       <c r="AA10" s="15">
@@ -8565,7 +8565,7 @@
         <v>44</v>
       </c>
       <c r="AD10" s="12">
-        <f t="shared" ref="AD10:AD20" si="22">AC10</f>
+        <f t="shared" ref="AD10" si="22">AC10</f>
         <v>0</v>
       </c>
       <c r="AE10" s="15">
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" ref="N13:N23" si="23">M13</f>
+        <f t="shared" ref="N13:N15" si="23">M13</f>
         <v>0</v>
       </c>
       <c r="O13" s="15">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" ref="R13:R23" si="24">Q13</f>
+        <f t="shared" ref="R13:R15" si="24">Q13</f>
         <v>0</v>
       </c>
       <c r="S13" s="15">
@@ -8819,7 +8819,7 @@
         <v>0.5</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" ref="V13:V23" si="25">U13</f>
+        <f t="shared" ref="V13:V15" si="25">U13</f>
         <v>0.5</v>
       </c>
       <c r="W13" s="15">
@@ -8834,7 +8834,7 @@
         <v>1.7</v>
       </c>
       <c r="Z13" s="12">
-        <f t="shared" ref="Z13:Z23" si="26">Y13</f>
+        <f t="shared" ref="Z13:Z15" si="26">Y13</f>
         <v>1.7</v>
       </c>
       <c r="AA13" s="15">
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="AD13" s="12">
-        <f t="shared" ref="AD13:AD23" si="27">AC13</f>
+        <f t="shared" ref="AD13:AD15" si="27">AC13</f>
         <v>1</v>
       </c>
       <c r="AE13" s="15">
@@ -10794,7 +10794,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" ref="P34:P47" si="36">O34</f>
+        <f t="shared" ref="P34" si="36">O34</f>
         <v>5</v>
       </c>
       <c r="Q34" s="11">
@@ -10809,7 +10809,7 @@
         <v>3</v>
       </c>
       <c r="T34" s="16">
-        <f t="shared" ref="T34:T47" si="37">S34</f>
+        <f t="shared" ref="T34" si="37">S34</f>
         <v>3</v>
       </c>
       <c r="U34" s="11">
@@ -10824,7 +10824,7 @@
         <v>5</v>
       </c>
       <c r="X34" s="16">
-        <f t="shared" ref="X34:X47" si="38">W34</f>
+        <f t="shared" ref="X34" si="38">W34</f>
         <v>5</v>
       </c>
       <c r="Y34" s="11">
@@ -10839,7 +10839,7 @@
         <v>6</v>
       </c>
       <c r="AB34" s="16">
-        <f t="shared" ref="AB34:AB47" si="39">AA34</f>
+        <f t="shared" ref="AB34" si="39">AA34</f>
         <v>6</v>
       </c>
       <c r="AC34" s="11">
@@ -10854,7 +10854,7 @@
         <v>5</v>
       </c>
       <c r="AF34" s="16">
-        <f t="shared" ref="AF34:AF47" si="40">AE34</f>
+        <f t="shared" ref="AF34" si="40">AE34</f>
         <v>5</v>
       </c>
     </row>
@@ -11122,66 +11122,66 @@
         <v>2</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" ref="N37:N44" si="43">M37</f>
+        <f t="shared" ref="N37" si="43">M37</f>
         <v>2</v>
       </c>
       <c r="O37" s="15">
-        <f t="shared" ref="O37:O44" si="44">N37</f>
+        <f t="shared" ref="O37" si="44">N37</f>
         <v>2</v>
       </c>
       <c r="P37" s="16">
-        <f t="shared" ref="P37:P50" si="45">O37</f>
+        <f t="shared" ref="P37" si="45">O37</f>
         <v>2</v>
       </c>
       <c r="R37" s="12">
-        <f t="shared" ref="R37:R44" si="46">Q37</f>
+        <f t="shared" ref="R37" si="46">Q37</f>
         <v>0</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:S44" si="47">R37</f>
+        <f t="shared" ref="S37" si="47">R37</f>
         <v>0</v>
       </c>
       <c r="T37" s="16">
-        <f t="shared" ref="T37:T50" si="48">S37</f>
+        <f t="shared" ref="T37" si="48">S37</f>
         <v>0</v>
       </c>
       <c r="U37" s="11">
         <v>1</v>
       </c>
       <c r="V37" s="12">
-        <f t="shared" ref="V37:V44" si="49">U37</f>
+        <f t="shared" ref="V37" si="49">U37</f>
         <v>1</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:W44" si="50">V37</f>
+        <f t="shared" ref="W37" si="50">V37</f>
         <v>1</v>
       </c>
       <c r="X37" s="16">
-        <f t="shared" ref="X37:X50" si="51">W37</f>
+        <f t="shared" ref="X37" si="51">W37</f>
         <v>1</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" ref="Z37:Z44" si="52">Y37</f>
+        <f t="shared" ref="Z37" si="52">Y37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="15">
-        <f t="shared" ref="AA37:AA44" si="53">Z37</f>
+        <f t="shared" ref="AA37" si="53">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="16">
-        <f t="shared" ref="AB37:AB50" si="54">AA37</f>
+        <f t="shared" ref="AB37" si="54">AA37</f>
         <v>0</v>
       </c>
       <c r="AD37" s="12">
-        <f t="shared" ref="AD37:AD44" si="55">AC37</f>
+        <f t="shared" ref="AD37" si="55">AC37</f>
         <v>0</v>
       </c>
       <c r="AE37" s="15">
-        <f t="shared" ref="AE37:AE44" si="56">AD37</f>
+        <f t="shared" ref="AE37" si="56">AD37</f>
         <v>0</v>
       </c>
       <c r="AF37" s="16">
-        <f t="shared" ref="AF37:AF50" si="57">AE37</f>
+        <f t="shared" ref="AF37" si="57">AE37</f>
         <v>0</v>
       </c>
     </row>
@@ -11428,75 +11428,75 @@
         <v>0.9</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" ref="N40:N47" si="58">M40</f>
+        <f t="shared" ref="N40" si="58">M40</f>
         <v>0</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" ref="O40:O47" si="59">N40</f>
+        <f t="shared" ref="O40" si="59">N40</f>
         <v>0</v>
       </c>
       <c r="P40" s="16">
-        <f t="shared" ref="P40:P53" si="60">O40</f>
+        <f t="shared" ref="P40" si="60">O40</f>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
         <v>2</v>
       </c>
       <c r="R40" s="12">
-        <f t="shared" ref="R40:R47" si="61">Q40</f>
+        <f t="shared" ref="R40" si="61">Q40</f>
         <v>2</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:S47" si="62">R40</f>
+        <f t="shared" ref="S40" si="62">R40</f>
         <v>2</v>
       </c>
       <c r="T40" s="16">
-        <f t="shared" ref="T40:T53" si="63">S40</f>
+        <f t="shared" ref="T40" si="63">S40</f>
         <v>2</v>
       </c>
       <c r="U40" s="11">
         <v>1</v>
       </c>
       <c r="V40" s="12">
-        <f t="shared" ref="V40:V47" si="64">U40</f>
+        <f t="shared" ref="V40" si="64">U40</f>
         <v>1</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" ref="W40:W47" si="65">V40</f>
+        <f t="shared" ref="W40" si="65">V40</f>
         <v>1</v>
       </c>
       <c r="X40" s="16">
-        <f t="shared" ref="X40:X53" si="66">W40</f>
+        <f t="shared" ref="X40" si="66">W40</f>
         <v>1</v>
       </c>
       <c r="Y40" s="11">
         <v>2.5</v>
       </c>
       <c r="Z40" s="12">
-        <f t="shared" ref="Z40:Z47" si="67">Y40</f>
+        <f t="shared" ref="Z40" si="67">Y40</f>
         <v>2.5</v>
       </c>
       <c r="AA40" s="15">
-        <f t="shared" ref="AA40:AA47" si="68">Z40</f>
+        <f t="shared" ref="AA40" si="68">Z40</f>
         <v>2.5</v>
       </c>
       <c r="AB40" s="16">
-        <f t="shared" ref="AB40:AB53" si="69">AA40</f>
+        <f t="shared" ref="AB40" si="69">AA40</f>
         <v>2.5</v>
       </c>
       <c r="AC40" s="11">
         <v>2</v>
       </c>
       <c r="AD40" s="12">
-        <f t="shared" ref="AD40:AD47" si="70">AC40</f>
+        <f t="shared" ref="AD40" si="70">AC40</f>
         <v>2</v>
       </c>
       <c r="AE40" s="15">
-        <f t="shared" ref="AE40:AE47" si="71">AD40</f>
+        <f t="shared" ref="AE40" si="71">AD40</f>
         <v>2</v>
       </c>
       <c r="AF40" s="16">
-        <f t="shared" ref="AF40:AF53" si="72">AE40</f>
+        <f t="shared" ref="AF40" si="72">AE40</f>
         <v>2</v>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="16">
-        <f t="shared" ref="P43:P56" si="73">O43</f>
+        <f t="shared" ref="P43:P44" si="73">O43</f>
         <v>0</v>
       </c>
       <c r="Q43" s="11">
@@ -11790,7 +11790,7 @@
         <v>85</v>
       </c>
       <c r="T43" s="16">
-        <f t="shared" ref="T43:T56" si="74">S43</f>
+        <f t="shared" ref="T43:T44" si="74">S43</f>
         <v>85</v>
       </c>
       <c r="U43" s="11">
@@ -11805,7 +11805,7 @@
         <v>90</v>
       </c>
       <c r="X43" s="16">
-        <f t="shared" ref="X43:X56" si="75">W43</f>
+        <f t="shared" ref="X43:X44" si="75">W43</f>
         <v>90</v>
       </c>
       <c r="Y43" s="11">
@@ -11820,7 +11820,7 @@
         <v>80</v>
       </c>
       <c r="AB43" s="16">
-        <f t="shared" ref="AB43:AB56" si="76">AA43</f>
+        <f t="shared" ref="AB43:AB44" si="76">AA43</f>
         <v>80</v>
       </c>
       <c r="AC43" s="11">
@@ -11835,7 +11835,7 @@
         <v>60</v>
       </c>
       <c r="AF43" s="16">
-        <f t="shared" ref="AF43:AF56" si="77">AE43</f>
+        <f t="shared" ref="AF43:AF44" si="77">AE43</f>
         <v>60</v>
       </c>
     </row>
@@ -11869,11 +11869,11 @@
         <v>0.9</v>
       </c>
       <c r="N44" s="12">
-        <f t="shared" ref="N44:N51" si="78">M44</f>
+        <f t="shared" ref="N44" si="78">M44</f>
         <v>0</v>
       </c>
       <c r="O44" s="15">
-        <f t="shared" ref="O44:O51" si="79">N44</f>
+        <f t="shared" ref="O44" si="79">N44</f>
         <v>0</v>
       </c>
       <c r="P44" s="16">
@@ -11884,11 +11884,11 @@
         <v>1</v>
       </c>
       <c r="R44" s="12">
-        <f t="shared" ref="R44:R51" si="80">Q44</f>
+        <f t="shared" ref="R44" si="80">Q44</f>
         <v>1</v>
       </c>
       <c r="S44" s="15">
-        <f t="shared" ref="S44:S51" si="81">R44</f>
+        <f t="shared" ref="S44" si="81">R44</f>
         <v>1</v>
       </c>
       <c r="T44" s="16">
@@ -11899,11 +11899,11 @@
         <v>0.5</v>
       </c>
       <c r="V44" s="12">
-        <f t="shared" ref="V44:V51" si="82">U44</f>
+        <f t="shared" ref="V44" si="82">U44</f>
         <v>0.5</v>
       </c>
       <c r="W44" s="15">
-        <f t="shared" ref="W44:W51" si="83">V44</f>
+        <f t="shared" ref="W44" si="83">V44</f>
         <v>0.5</v>
       </c>
       <c r="X44" s="16">
@@ -11911,11 +11911,11 @@
         <v>0.5</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" ref="Z44:Z51" si="84">Y44</f>
+        <f t="shared" ref="Z44" si="84">Y44</f>
         <v>0</v>
       </c>
       <c r="AA44" s="15">
-        <f t="shared" ref="AA44:AA51" si="85">Z44</f>
+        <f t="shared" ref="AA44" si="85">Z44</f>
         <v>0</v>
       </c>
       <c r="AB44" s="16">
@@ -11926,11 +11926,11 @@
         <v>1</v>
       </c>
       <c r="AD44" s="12">
-        <f t="shared" ref="AD44:AD51" si="86">AC44</f>
+        <f t="shared" ref="AD44" si="86">AC44</f>
         <v>1</v>
       </c>
       <c r="AE44" s="15">
-        <f t="shared" ref="AE44:AE51" si="87">AD44</f>
+        <f t="shared" ref="AE44" si="87">AD44</f>
         <v>1</v>
       </c>
       <c r="AF44" s="16">
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="16">
-        <f t="shared" ref="P47:P60" si="88">O47</f>
+        <f t="shared" ref="P47" si="88">O47</f>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
@@ -12222,7 +12222,7 @@
         <v>70</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" ref="T47:T60" si="89">S47</f>
+        <f t="shared" ref="T47" si="89">S47</f>
         <v>70</v>
       </c>
       <c r="U47" s="11">
@@ -12237,7 +12237,7 @@
         <v>90</v>
       </c>
       <c r="X47" s="16">
-        <f t="shared" ref="X47:X60" si="90">W47</f>
+        <f t="shared" ref="X47" si="90">W47</f>
         <v>90</v>
       </c>
       <c r="Z47" s="12">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="16">
-        <f t="shared" ref="AB47:AB60" si="91">AA47</f>
+        <f t="shared" ref="AB47" si="91">AA47</f>
         <v>0</v>
       </c>
       <c r="AC47" s="11">
@@ -12264,7 +12264,7 @@
         <v>60</v>
       </c>
       <c r="AF47" s="16">
-        <f t="shared" ref="AF47:AF60" si="92">AE47</f>
+        <f t="shared" ref="AF47" si="92">AE47</f>
         <v>60</v>
       </c>
     </row>
@@ -12530,7 +12530,7 @@
         <v>2.5</v>
       </c>
       <c r="K50" s="15">
-        <f>J50*$G50</f>
+        <f t="shared" ref="K50:K55" si="93">J50*$G50</f>
         <v>1.875</v>
       </c>
       <c r="L50" s="16">
@@ -12545,7 +12545,7 @@
         <v>1.25</v>
       </c>
       <c r="O50" s="15">
-        <f>N50*$G50</f>
+        <f t="shared" ref="O50:O55" si="94">N50*$G50</f>
         <v>0.9375</v>
       </c>
       <c r="P50" s="16">
@@ -12557,7 +12557,7 @@
         <v>0.5</v>
       </c>
       <c r="S50" s="15">
-        <f>R50*$G50</f>
+        <f t="shared" ref="S50:S55" si="95">R50*$G50</f>
         <v>0.375</v>
       </c>
       <c r="T50" s="16">
@@ -12572,7 +12572,7 @@
         <v>0.625</v>
       </c>
       <c r="W50" s="15">
-        <f>V50*$G50</f>
+        <f t="shared" ref="W50:W55" si="96">V50*$G50</f>
         <v>0.46875</v>
       </c>
       <c r="X50" s="16">
@@ -12587,7 +12587,7 @@
         <v>1.25</v>
       </c>
       <c r="AA50" s="15">
-        <f>Z50*$G50</f>
+        <f t="shared" ref="AA50:AA55" si="97">Z50*$G50</f>
         <v>0.9375</v>
       </c>
       <c r="AB50" s="16">
@@ -12602,7 +12602,7 @@
         <v>0.5</v>
       </c>
       <c r="AE50" s="15">
-        <f>AD50*$G50</f>
+        <f t="shared" ref="AE50:AE55" si="98">AD50*$G50</f>
         <v>0.375</v>
       </c>
       <c r="AF50" s="16">
@@ -12644,7 +12644,7 @@
         <v>1.875</v>
       </c>
       <c r="K51" s="15">
-        <f>J51*$G51</f>
+        <f t="shared" si="93"/>
         <v>1.40625</v>
       </c>
       <c r="L51" s="16">
@@ -12659,7 +12659,7 @@
         <v>1.25</v>
       </c>
       <c r="O51" s="15">
-        <f>N51*$G51</f>
+        <f t="shared" si="94"/>
         <v>0.9375</v>
       </c>
       <c r="P51" s="16">
@@ -12671,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="15">
-        <f>R51*$G51</f>
+        <f t="shared" si="95"/>
         <v>0.75</v>
       </c>
       <c r="T51" s="16">
@@ -12686,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="15">
-        <f>V51*$G51</f>
+        <f t="shared" si="96"/>
         <v>0.75</v>
       </c>
       <c r="X51" s="16">
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="AA51" s="15">
-        <f>Z51*$G51</f>
+        <f t="shared" si="97"/>
         <v>0.75</v>
       </c>
       <c r="AB51" s="16">
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="AE51" s="15">
-        <f>AD51*$G51</f>
+        <f t="shared" si="98"/>
         <v>0.75</v>
       </c>
       <c r="AF51" s="16">
@@ -12758,7 +12758,7 @@
         <v>1.25</v>
       </c>
       <c r="K52" s="15">
-        <f>J52*$G52</f>
+        <f t="shared" si="93"/>
         <v>0.9375</v>
       </c>
       <c r="L52" s="16">
@@ -12773,7 +12773,7 @@
         <v>0.625</v>
       </c>
       <c r="O52" s="15">
-        <f>N52*$G52</f>
+        <f t="shared" si="94"/>
         <v>0.46875</v>
       </c>
       <c r="P52" s="16">
@@ -12785,7 +12785,7 @@
         <v>0.5</v>
       </c>
       <c r="S52" s="15">
-        <f>R52*$G52</f>
+        <f t="shared" si="95"/>
         <v>0.375</v>
       </c>
       <c r="T52" s="16">
@@ -12800,7 +12800,7 @@
         <v>0.5</v>
       </c>
       <c r="W52" s="15">
-        <f>V52*$G52</f>
+        <f t="shared" si="96"/>
         <v>0.375</v>
       </c>
       <c r="X52" s="16">
@@ -12815,7 +12815,7 @@
         <v>0.5</v>
       </c>
       <c r="AA52" s="15">
-        <f>Z52*$G52</f>
+        <f t="shared" si="97"/>
         <v>0.375</v>
       </c>
       <c r="AB52" s="16">
@@ -12830,7 +12830,7 @@
         <v>0.5</v>
       </c>
       <c r="AE52" s="15">
-        <f>AD52*$G52</f>
+        <f t="shared" si="98"/>
         <v>0.375</v>
       </c>
       <c r="AF52" s="16">
@@ -12860,11 +12860,11 @@
         <v>6</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" ref="J53:K93" si="93">I53</f>
+        <f t="shared" ref="J53:K93" si="99">I53</f>
         <v>6</v>
       </c>
       <c r="K53" s="15">
-        <f>J53*$G53</f>
+        <f t="shared" si="93"/>
         <v>4.5</v>
       </c>
       <c r="L53" s="44">
@@ -12875,11 +12875,11 @@
         <v>0</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53:N93" si="94">M53</f>
+        <f t="shared" ref="N53:N60" si="100">M53</f>
         <v>0</v>
       </c>
       <c r="O53" s="15">
-        <f>N53*$G53</f>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P53" s="44">
@@ -12887,11 +12887,11 @@
         <v>0</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" ref="R53:R93" si="95">Q53</f>
+        <f t="shared" ref="R53:R60" si="101">Q53</f>
         <v>0</v>
       </c>
       <c r="S53" s="15">
-        <f>R53*$G53</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T53" s="44">
@@ -12902,11 +12902,11 @@
         <v>1</v>
       </c>
       <c r="V53" s="12">
-        <f t="shared" ref="V53:V93" si="96">U53</f>
+        <f t="shared" ref="V53:V60" si="102">U53</f>
         <v>1</v>
       </c>
       <c r="W53" s="15">
-        <f>V53*$G53</f>
+        <f t="shared" si="96"/>
         <v>0.75</v>
       </c>
       <c r="X53" s="44">
@@ -12917,11 +12917,11 @@
         <v>1.2</v>
       </c>
       <c r="Z53" s="12">
-        <f t="shared" ref="Z53:Z93" si="97">Y53</f>
+        <f t="shared" ref="Z53:Z60" si="103">Y53</f>
         <v>1.2</v>
       </c>
       <c r="AA53" s="15">
-        <f>Z53*$G53</f>
+        <f t="shared" si="97"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AB53" s="44">
@@ -12932,11 +12932,11 @@
         <v>0.5</v>
       </c>
       <c r="AD53" s="12">
-        <f t="shared" ref="AD53:AD93" si="98">AC53</f>
+        <f t="shared" ref="AD53:AD60" si="104">AC53</f>
         <v>0.5</v>
       </c>
       <c r="AE53" s="15">
-        <f>AD53*$G53</f>
+        <f t="shared" si="98"/>
         <v>0.375</v>
       </c>
       <c r="AF53" s="44">
@@ -12966,11 +12966,11 @@
         <v>12</v>
       </c>
       <c r="J54" s="12">
+        <f t="shared" si="99"/>
+        <v>12</v>
+      </c>
+      <c r="K54" s="15">
         <f t="shared" si="93"/>
-        <v>12</v>
-      </c>
-      <c r="K54" s="15">
-        <f>J54*$G54</f>
         <v>9</v>
       </c>
       <c r="L54" s="44">
@@ -12981,11 +12981,11 @@
         <v>0</v>
       </c>
       <c r="N54" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="15">
-        <f>N54*$G54</f>
         <v>0</v>
       </c>
       <c r="P54" s="44">
@@ -12993,11 +12993,11 @@
         <v>0</v>
       </c>
       <c r="R54" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="15">
         <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="15">
-        <f>R54*$G54</f>
         <v>0</v>
       </c>
       <c r="T54" s="44">
@@ -13008,11 +13008,11 @@
         <v>0</v>
       </c>
       <c r="V54" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="15">
         <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="15">
-        <f>V54*$G54</f>
         <v>0</v>
       </c>
       <c r="X54" s="44">
@@ -13023,11 +13023,11 @@
         <v>0.5</v>
       </c>
       <c r="Z54" s="12">
+        <f t="shared" si="103"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA54" s="15">
         <f t="shared" si="97"/>
-        <v>0.5</v>
-      </c>
-      <c r="AA54" s="15">
-        <f>Z54*$G54</f>
         <v>0.375</v>
       </c>
       <c r="AB54" s="44">
@@ -13038,11 +13038,11 @@
         <v>0</v>
       </c>
       <c r="AD54" s="12">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="15">
         <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE54" s="15">
-        <f>AD54*$G54</f>
         <v>0</v>
       </c>
       <c r="AF54" s="44">
@@ -13072,11 +13072,11 @@
         <v>0</v>
       </c>
       <c r="J55" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <f>J55*$G55</f>
         <v>0</v>
       </c>
       <c r="L55" s="44">
@@ -13087,11 +13087,11 @@
         <v>0</v>
       </c>
       <c r="N55" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="15">
-        <f>N55*$G55</f>
         <v>0</v>
       </c>
       <c r="P55" s="44">
@@ -13099,11 +13099,11 @@
         <v>0</v>
       </c>
       <c r="R55" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
         <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="15">
-        <f>R55*$G55</f>
         <v>0</v>
       </c>
       <c r="T55" s="44">
@@ -13114,11 +13114,11 @@
         <v>0</v>
       </c>
       <c r="V55" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
         <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="15">
-        <f>V55*$G55</f>
         <v>0</v>
       </c>
       <c r="X55" s="44">
@@ -13129,11 +13129,11 @@
         <v>0.5</v>
       </c>
       <c r="Z55" s="12">
+        <f t="shared" si="103"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA55" s="15">
         <f t="shared" si="97"/>
-        <v>0.5</v>
-      </c>
-      <c r="AA55" s="15">
-        <f>Z55*$G55</f>
         <v>0.375</v>
       </c>
       <c r="AB55" s="44">
@@ -13144,11 +13144,11 @@
         <v>0</v>
       </c>
       <c r="AD55" s="12">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="15">
         <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE55" s="15">
-        <f>AD55*$G55</f>
         <v>0</v>
       </c>
       <c r="AF55" s="44">
@@ -13182,7 +13182,7 @@
         <v>5</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
       <c r="K56" s="15">
@@ -13194,7 +13194,7 @@
         <v>8.75</v>
       </c>
       <c r="N56" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="O56" s="15">
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="S56" s="15">
@@ -13221,7 +13221,7 @@
         <v>0.5</v>
       </c>
       <c r="V56" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0.5</v>
       </c>
       <c r="W56" s="15">
@@ -13236,7 +13236,7 @@
         <v>0.75</v>
       </c>
       <c r="Z56" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.75</v>
       </c>
       <c r="AA56" s="15">
@@ -13248,7 +13248,7 @@
         <v>1.5</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AE56" s="15">
@@ -13286,7 +13286,7 @@
         <v>11</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>11</v>
       </c>
       <c r="K57" s="15">
@@ -13298,7 +13298,7 @@
         <v>18.5</v>
       </c>
       <c r="N57" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="O57" s="15">
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="S57" s="15">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="W57" s="15">
@@ -13340,7 +13340,7 @@
         <v>0.3</v>
       </c>
       <c r="Z57" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0.3</v>
       </c>
       <c r="AA57" s="15">
@@ -13352,7 +13352,7 @@
         <v>0.61250000000000004</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AE57" s="15">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K58" s="15">
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="O58" s="15">
@@ -13414,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="S58" s="15">
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="W58" s="15">
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AA58" s="15">
@@ -13456,7 +13456,7 @@
         <v>0.3125</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AE58" s="15">
@@ -13488,11 +13488,11 @@
         <v>9.6</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>9.6</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>9.6</v>
       </c>
       <c r="L59" s="16">
@@ -13500,11 +13500,11 @@
         <v>0</v>
       </c>
       <c r="N59" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="O59" s="15">
-        <f t="shared" ref="O59:O93" si="99">N59</f>
+        <f t="shared" ref="O59:O93" si="105">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="16">
@@ -13512,11 +13512,11 @@
         <v>0</v>
       </c>
       <c r="R59" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="S59" s="15">
-        <f t="shared" ref="S59:S93" si="100">R59</f>
+        <f t="shared" ref="S59:S93" si="106">R59</f>
         <v>0</v>
       </c>
       <c r="T59" s="16">
@@ -13527,11 +13527,11 @@
         <v>3.5</v>
       </c>
       <c r="V59" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>3.5</v>
       </c>
       <c r="W59" s="15">
-        <f t="shared" ref="W59:W93" si="101">V59</f>
+        <f t="shared" ref="W59:W93" si="107">V59</f>
         <v>3.5</v>
       </c>
       <c r="X59" s="16">
@@ -13539,11 +13539,11 @@
         <v>0</v>
       </c>
       <c r="Z59" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AA59" s="15">
-        <f t="shared" ref="AA59:AA93" si="102">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="108">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="16">
@@ -13551,11 +13551,11 @@
         <v>0</v>
       </c>
       <c r="AD59" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AE59" s="15">
-        <f t="shared" ref="AE59:AE93" si="103">AD59</f>
+        <f t="shared" ref="AE59:AE93" si="109">AD59</f>
         <v>0</v>
       </c>
       <c r="AF59" s="16">
@@ -13583,11 +13583,11 @@
         <v>0.4</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.4</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.4</v>
       </c>
       <c r="L60" s="16">
@@ -13595,11 +13595,11 @@
         <v>0</v>
       </c>
       <c r="N60" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="O60" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P60" s="16">
@@ -13607,11 +13607,11 @@
         <v>0</v>
       </c>
       <c r="R60" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="S60" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T60" s="16">
@@ -13622,11 +13622,11 @@
         <v>2</v>
       </c>
       <c r="V60" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>2</v>
       </c>
       <c r="W60" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="X60" s="16">
@@ -13634,11 +13634,11 @@
         <v>0</v>
       </c>
       <c r="Z60" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AA60" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB60" s="16">
@@ -13646,11 +13646,11 @@
         <v>0</v>
       </c>
       <c r="AD60" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AE60" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF60" s="16">
@@ -13688,7 +13688,7 @@
         <v>118</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>118</v>
       </c>
       <c r="L61" s="16">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P61" s="16">
@@ -13712,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T61" s="16">
@@ -13727,7 +13727,7 @@
         <v>925</v>
       </c>
       <c r="W61" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>925</v>
       </c>
       <c r="X61" s="16">
@@ -13739,7 +13739,7 @@
         <v>48.75</v>
       </c>
       <c r="AA61" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>48.75</v>
       </c>
       <c r="AB61" s="16">
@@ -13751,7 +13751,7 @@
         <v>25</v>
       </c>
       <c r="AE61" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>25</v>
       </c>
       <c r="AF61" s="16">
@@ -13779,11 +13779,11 @@
         <v>9.6</v>
       </c>
       <c r="J62" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>9.6</v>
       </c>
       <c r="K62" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>9.6</v>
       </c>
       <c r="L62" s="42">
@@ -13791,11 +13791,11 @@
         <v>9.6</v>
       </c>
       <c r="N62" s="40">
-        <f t="shared" ref="N62:N93" si="104">M62</f>
+        <f t="shared" ref="N62:N79" si="110">M62</f>
         <v>0</v>
       </c>
       <c r="O62" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P62" s="42">
@@ -13803,11 +13803,11 @@
         <v>0</v>
       </c>
       <c r="R62" s="40">
-        <f t="shared" ref="R62:R93" si="105">Q62</f>
+        <f t="shared" ref="R62:R79" si="111">Q62</f>
         <v>0</v>
       </c>
       <c r="S62" s="41">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T62" s="42">
@@ -13818,11 +13818,11 @@
         <v>3.5</v>
       </c>
       <c r="V62" s="40">
-        <f t="shared" ref="V62:V93" si="106">U62</f>
+        <f t="shared" ref="V62:V79" si="112">U62</f>
         <v>3.5</v>
       </c>
       <c r="W62" s="41">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>3.5</v>
       </c>
       <c r="X62" s="42">
@@ -13833,11 +13833,11 @@
         <v>10</v>
       </c>
       <c r="Z62" s="40">
-        <f t="shared" ref="Z62:Z93" si="107">Y62</f>
+        <f t="shared" ref="Z62:Z79" si="113">Y62</f>
         <v>10</v>
       </c>
       <c r="AA62" s="41">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>10</v>
       </c>
       <c r="AB62" s="42">
@@ -13848,11 +13848,11 @@
         <v>10</v>
       </c>
       <c r="AD62" s="40">
-        <f t="shared" ref="AD62:AD93" si="108">AC62</f>
+        <f t="shared" ref="AD62:AD79" si="114">AC62</f>
         <v>10</v>
       </c>
       <c r="AE62" s="41">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>10</v>
       </c>
       <c r="AF62" s="42">
@@ -13880,11 +13880,11 @@
         <v>0.4</v>
       </c>
       <c r="J63" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.4</v>
       </c>
       <c r="K63" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.4</v>
       </c>
       <c r="L63" s="42">
@@ -13892,11 +13892,11 @@
         <v>0.4</v>
       </c>
       <c r="N63" s="40">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O63" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P63" s="42">
@@ -13904,11 +13904,11 @@
         <v>0</v>
       </c>
       <c r="R63" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S63" s="41">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T63" s="42">
@@ -13919,11 +13919,11 @@
         <v>2</v>
       </c>
       <c r="V63" s="40">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>2</v>
       </c>
       <c r="W63" s="41">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="X63" s="42">
@@ -13934,11 +13934,11 @@
         <v>1</v>
       </c>
       <c r="Z63" s="40">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="AA63" s="41">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="AB63" s="42">
@@ -13949,11 +13949,11 @@
         <v>1</v>
       </c>
       <c r="AD63" s="40">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AE63" s="41">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1</v>
       </c>
       <c r="AF63" s="42">
@@ -13983,11 +13983,11 @@
         <v>115</v>
       </c>
       <c r="J64" s="40">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>115</v>
       </c>
       <c r="K64" s="41">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>115</v>
       </c>
       <c r="L64" s="42">
@@ -13995,11 +13995,11 @@
         <v>233</v>
       </c>
       <c r="N64" s="40">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O64" s="41">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P64" s="42">
@@ -14007,11 +14007,11 @@
         <v>0</v>
       </c>
       <c r="R64" s="40">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S64" s="41">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T64" s="42">
@@ -14022,11 +14022,11 @@
         <v>50</v>
       </c>
       <c r="V64" s="40">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>50</v>
       </c>
       <c r="W64" s="41">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>50</v>
       </c>
       <c r="X64" s="42">
@@ -14037,11 +14037,11 @@
         <v>5</v>
       </c>
       <c r="Z64" s="40">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>5</v>
       </c>
       <c r="AA64" s="41">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>5</v>
       </c>
       <c r="AB64" s="42">
@@ -14052,11 +14052,11 @@
         <v>3</v>
       </c>
       <c r="AD64" s="40">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
       <c r="AE64" s="41">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>3</v>
       </c>
       <c r="AF64" s="42">
@@ -14079,66 +14079,66 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
       <c r="J65" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L65" s="16">
         <v>0</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O65" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P65" s="16">
         <v>0</v>
       </c>
       <c r="R65" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S65" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T65" s="16">
         <v>0</v>
       </c>
       <c r="V65" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W65" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X65" s="16">
         <v>0</v>
       </c>
       <c r="Z65" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA65" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB65" s="16">
         <v>0</v>
       </c>
       <c r="AD65" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE65" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF65" s="16">
@@ -14160,75 +14160,75 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
       <c r="J66" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K66" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L66" s="16">
-        <f t="shared" ref="L66:L93" si="109">K66</f>
+        <f t="shared" ref="L66:L93" si="115">K66</f>
         <v>0</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O66" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P66" s="16">
-        <f t="shared" ref="P66:P93" si="110">O66</f>
+        <f t="shared" ref="P66:P93" si="116">O66</f>
         <v>0</v>
       </c>
       <c r="R66" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S66" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T66" s="16">
-        <f t="shared" ref="T66:T93" si="111">S66</f>
+        <f t="shared" ref="T66:T93" si="117">S66</f>
         <v>0</v>
       </c>
       <c r="V66" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W66" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X66" s="16">
-        <f t="shared" ref="X66:X93" si="112">W66</f>
+        <f t="shared" ref="X66:X93" si="118">W66</f>
         <v>0</v>
       </c>
       <c r="Z66" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA66" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB66" s="16">
-        <f t="shared" ref="AB66:AB93" si="113">AA66</f>
+        <f t="shared" ref="AB66:AB93" si="119">AA66</f>
         <v>0</v>
       </c>
       <c r="AD66" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE66" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF66" s="16">
-        <f t="shared" ref="AF66:AF93" si="114">AE66</f>
+        <f t="shared" ref="AF66:AF93" si="120">AE66</f>
         <v>0</v>
       </c>
     </row>
@@ -14247,75 +14247,75 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
       <c r="J67" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L67" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="12">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="N67" s="12">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="12">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="12">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="12">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="12">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AE67" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF67" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14337,90 +14337,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="K68" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="M68" s="11">
         <v>0</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O68" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P68" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
         <v>0</v>
       </c>
       <c r="R68" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S68" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T68" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="V68" s="12">
-        <f t="shared" si="106"/>
-        <v>8.1810999999999995E-2</v>
-      </c>
-      <c r="W68" s="15">
-        <f t="shared" si="101"/>
-        <v>8.1810999999999995E-2</v>
-      </c>
-      <c r="X68" s="16">
         <f t="shared" si="112"/>
         <v>8.1810999999999995E-2</v>
       </c>
+      <c r="W68" s="15">
+        <f t="shared" si="107"/>
+        <v>8.1810999999999995E-2</v>
+      </c>
+      <c r="X68" s="16">
+        <f t="shared" si="118"/>
+        <v>8.1810999999999995E-2</v>
+      </c>
       <c r="Y68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="Z68" s="12">
-        <f t="shared" si="107"/>
-        <v>0.13589300000000001</v>
-      </c>
-      <c r="AA68" s="15">
-        <f t="shared" si="102"/>
-        <v>0.13589300000000001</v>
-      </c>
-      <c r="AB68" s="16">
         <f t="shared" si="113"/>
         <v>0.13589300000000001</v>
       </c>
+      <c r="AA68" s="15">
+        <f t="shared" si="108"/>
+        <v>0.13589300000000001</v>
+      </c>
+      <c r="AB68" s="16">
+        <f t="shared" si="119"/>
+        <v>0.13589300000000001</v>
+      </c>
       <c r="AC68" s="11">
         <v>0</v>
       </c>
       <c r="AD68" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE68" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF68" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14442,90 +14442,90 @@
         <v>0</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K69" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L69" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>0</v>
+      </c>
+      <c r="R69" s="12">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="11">
+        <v>0</v>
+      </c>
+      <c r="V69" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="M69" s="11">
-        <v>0</v>
-      </c>
-      <c r="N69" s="12">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="11">
-        <v>0</v>
-      </c>
-      <c r="R69" s="12">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="11">
-        <v>0</v>
-      </c>
-      <c r="V69" s="12">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="12">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="12">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AE69" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF69" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14547,90 +14547,90 @@
         <v>0</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K70" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L70" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>0</v>
+      </c>
+      <c r="R70" s="12">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="11">
+        <v>0</v>
+      </c>
+      <c r="V70" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="M70" s="11">
-        <v>0</v>
-      </c>
-      <c r="N70" s="12">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="11">
-        <v>0</v>
-      </c>
-      <c r="R70" s="12">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="11">
-        <v>0</v>
-      </c>
-      <c r="V70" s="12">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="12">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA70" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="12">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AE70" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF70" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14649,78 +14649,78 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
       <c r="J71" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K71" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O71" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P71" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R71" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S71" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T71" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="V71" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W71" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X71" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Y71" s="11">
         <v>90</v>
       </c>
       <c r="Z71" s="12">
-        <f t="shared" si="107"/>
-        <v>90</v>
-      </c>
-      <c r="AA71" s="15">
-        <f t="shared" si="102"/>
-        <v>90</v>
-      </c>
-      <c r="AB71" s="16">
         <f t="shared" si="113"/>
         <v>90</v>
       </c>
+      <c r="AA71" s="15">
+        <f t="shared" si="108"/>
+        <v>90</v>
+      </c>
+      <c r="AB71" s="16">
+        <f t="shared" si="119"/>
+        <v>90</v>
+      </c>
       <c r="AD71" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE71" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF71" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14739,78 +14739,78 @@
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
       <c r="J72" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K72" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="M72" s="11">
         <v>100</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" si="104"/>
-        <v>100</v>
-      </c>
-      <c r="O72" s="15">
-        <f t="shared" si="99"/>
-        <v>100</v>
-      </c>
-      <c r="P72" s="16">
         <f t="shared" si="110"/>
         <v>100</v>
       </c>
+      <c r="O72" s="15">
+        <f t="shared" si="105"/>
+        <v>100</v>
+      </c>
+      <c r="P72" s="16">
+        <f t="shared" si="116"/>
+        <v>100</v>
+      </c>
       <c r="R72" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S72" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T72" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="V72" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W72" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X72" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Z72" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB72" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD72" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE72" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF72" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14829,78 +14829,78 @@
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
       <c r="J73" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K73" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O73" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P73" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Q73" s="11">
         <v>100</v>
       </c>
       <c r="R73" s="12">
-        <f t="shared" si="105"/>
-        <v>100</v>
-      </c>
-      <c r="S73" s="15">
-        <f t="shared" si="100"/>
-        <v>100</v>
-      </c>
-      <c r="T73" s="16">
         <f t="shared" si="111"/>
         <v>100</v>
       </c>
+      <c r="S73" s="15">
+        <f t="shared" si="106"/>
+        <v>100</v>
+      </c>
+      <c r="T73" s="16">
+        <f t="shared" si="117"/>
+        <v>100</v>
+      </c>
       <c r="V73" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W73" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X73" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Z73" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA73" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB73" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD73" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE73" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF73" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14922,81 +14922,81 @@
         <v>50</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>50</v>
       </c>
       <c r="K74" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>50</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>50</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O74" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P74" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R74" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S74" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T74" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="V74" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W74" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X74" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Y74" s="11">
         <v>10</v>
       </c>
       <c r="Z74" s="12">
-        <f t="shared" si="107"/>
-        <v>10</v>
-      </c>
-      <c r="AA74" s="15">
-        <f t="shared" si="102"/>
-        <v>10</v>
-      </c>
-      <c r="AB74" s="16">
         <f t="shared" si="113"/>
         <v>10</v>
       </c>
+      <c r="AA74" s="15">
+        <f t="shared" si="108"/>
+        <v>10</v>
+      </c>
+      <c r="AB74" s="16">
+        <f t="shared" si="119"/>
+        <v>10</v>
+      </c>
       <c r="AC74" s="11">
         <v>40</v>
       </c>
       <c r="AD74" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>40</v>
       </c>
       <c r="AE74" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>40</v>
       </c>
       <c r="AF74" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>40</v>
       </c>
     </row>
@@ -15018,78 +15018,78 @@
         <v>50</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>50</v>
       </c>
       <c r="K75" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>50</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>50</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O75" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P75" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R75" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S75" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T75" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U75" s="11">
         <v>100</v>
       </c>
       <c r="V75" s="12">
-        <f t="shared" si="106"/>
-        <v>100</v>
-      </c>
-      <c r="W75" s="15">
-        <f t="shared" si="101"/>
-        <v>100</v>
-      </c>
-      <c r="X75" s="16">
         <f t="shared" si="112"/>
         <v>100</v>
       </c>
+      <c r="W75" s="15">
+        <f t="shared" si="107"/>
+        <v>100</v>
+      </c>
+      <c r="X75" s="16">
+        <f t="shared" si="118"/>
+        <v>100</v>
+      </c>
       <c r="Z75" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA75" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB75" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD75" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE75" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF75" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15108,78 +15108,78 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
       <c r="J76" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L76" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O76" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P76" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R76" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S76" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T76" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="V76" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="W76" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X76" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Z76" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA76" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB76" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC76" s="11">
         <v>60</v>
       </c>
       <c r="AD76" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>60</v>
       </c>
       <c r="AE76" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>60</v>
       </c>
       <c r="AF76" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>60</v>
       </c>
     </row>
@@ -15198,75 +15198,75 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
       <c r="J77" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L77" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="12">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="N77" s="12">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="12">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="12">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="12">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="12">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AE77" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF77" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15285,78 +15285,78 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
       <c r="J78" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K78" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L78" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O78" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P78" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R78" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S78" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T78" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U78" s="11">
         <v>2</v>
       </c>
       <c r="V78" s="12">
-        <f t="shared" si="106"/>
-        <v>2</v>
-      </c>
-      <c r="W78" s="15">
-        <f t="shared" si="101"/>
-        <v>2</v>
-      </c>
-      <c r="X78" s="16">
         <f t="shared" si="112"/>
         <v>2</v>
       </c>
+      <c r="W78" s="15">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="X78" s="16">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="Z78" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA78" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB78" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD78" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE78" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF78" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15375,78 +15375,78 @@
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
       <c r="J79" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K79" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L79" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N79" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O79" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P79" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R79" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S79" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T79" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U79" s="11">
         <v>5</v>
       </c>
       <c r="V79" s="12">
-        <f t="shared" si="106"/>
-        <v>5</v>
-      </c>
-      <c r="W79" s="15">
-        <f t="shared" si="101"/>
-        <v>5</v>
-      </c>
-      <c r="X79" s="16">
         <f t="shared" si="112"/>
         <v>5</v>
       </c>
+      <c r="W79" s="15">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="X79" s="16">
+        <f t="shared" si="118"/>
+        <v>5</v>
+      </c>
       <c r="Z79" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="AA79" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB79" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD79" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AE79" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF79" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15476,11 +15476,11 @@
         <v>0.25</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.25</v>
       </c>
       <c r="L80" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
       <c r="M80" s="11">
@@ -15491,11 +15491,11 @@
         <v>1.25</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>1.25</v>
       </c>
       <c r="Q80" s="11">
@@ -15506,11 +15506,11 @@
         <v>3.125</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>3.125</v>
       </c>
       <c r="T80" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>3.125</v>
       </c>
       <c r="U80" s="11">
@@ -15521,11 +15521,11 @@
         <v>1.25</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>1.25</v>
       </c>
       <c r="X80" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>1.25</v>
       </c>
       <c r="Y80" s="11">
@@ -15536,11 +15536,11 @@
         <v>1.875</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>1.875</v>
       </c>
       <c r="AB80" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>1.875</v>
       </c>
       <c r="AC80" s="11">
@@ -15551,11 +15551,11 @@
         <v>2.5</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>2.5</v>
       </c>
       <c r="AF80" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>2.5</v>
       </c>
     </row>
@@ -15585,11 +15585,11 @@
         <v>87.5</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>87.5</v>
       </c>
       <c r="L81" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>87.5</v>
       </c>
       <c r="M81" s="11">
@@ -15600,11 +15600,11 @@
         <v>75</v>
       </c>
       <c r="O81" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>75</v>
       </c>
       <c r="P81" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>75</v>
       </c>
       <c r="Q81" s="11">
@@ -15615,11 +15615,11 @@
         <v>6.25</v>
       </c>
       <c r="S81" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>6.25</v>
       </c>
       <c r="T81" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>6.25</v>
       </c>
       <c r="U81" s="11">
@@ -15630,11 +15630,11 @@
         <v>18.75</v>
       </c>
       <c r="W81" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>18.75</v>
       </c>
       <c r="X81" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>18.75</v>
       </c>
       <c r="Y81" s="11">
@@ -15645,11 +15645,11 @@
         <v>100</v>
       </c>
       <c r="AA81" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>100</v>
       </c>
       <c r="AB81" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>100</v>
       </c>
       <c r="AC81" s="11">
@@ -15660,11 +15660,11 @@
         <v>87.5</v>
       </c>
       <c r="AE81" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>87.5</v>
       </c>
       <c r="AF81" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>87.5</v>
       </c>
     </row>
@@ -15683,81 +15683,81 @@
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
       <c r="J82" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L82" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N82" s="12">
-        <f t="shared" ref="N82:N93" si="115">M82</f>
+        <f t="shared" ref="N82:N93" si="121">M82</f>
         <v>0</v>
       </c>
       <c r="O82" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P82" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R82" s="12">
-        <f t="shared" ref="R82:R93" si="116">Q82</f>
+        <f t="shared" ref="R82:R93" si="122">Q82</f>
         <v>0</v>
       </c>
       <c r="S82" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T82" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U82" s="11">
         <v>2.5</v>
       </c>
       <c r="V82" s="12">
-        <f t="shared" ref="V82:V93" si="117">U82</f>
+        <f t="shared" ref="V82:V93" si="123">U82</f>
         <v>2.5</v>
       </c>
       <c r="W82" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>2.5</v>
       </c>
       <c r="X82" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>2.5</v>
       </c>
       <c r="Y82" s="11">
         <v>1</v>
       </c>
       <c r="Z82" s="12">
-        <f t="shared" ref="Z82:Z93" si="118">Y82</f>
+        <f t="shared" ref="Z82:Z93" si="124">Y82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="AB82" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="AD82" s="12">
-        <f t="shared" ref="AD82:AD93" si="119">AC82</f>
+        <f t="shared" ref="AD82:AD93" si="125">AC82</f>
         <v>0</v>
       </c>
       <c r="AE82" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF82" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15776,81 +15776,81 @@
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
       <c r="J83" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L83" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N83" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O83" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P83" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R83" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S83" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T83" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U83" s="11">
         <v>80</v>
       </c>
       <c r="V83" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>80</v>
       </c>
       <c r="W83" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>80</v>
       </c>
       <c r="X83" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>80</v>
       </c>
       <c r="Y83" s="11">
         <v>5</v>
       </c>
       <c r="Z83" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>5</v>
       </c>
       <c r="AA83" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>5</v>
       </c>
       <c r="AB83" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
       <c r="AD83" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE83" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF83" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15869,81 +15869,81 @@
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
       <c r="J84" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="M84" s="11">
         <v>0.2</v>
       </c>
       <c r="N84" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
       <c r="O84" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0.2</v>
       </c>
       <c r="P84" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
       <c r="R84" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S84" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T84" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U84" s="11">
         <v>2</v>
       </c>
       <c r="V84" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>2</v>
       </c>
       <c r="W84" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="X84" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="Z84" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA84" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB84" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD84" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE84" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF84" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15962,81 +15962,81 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
       <c r="J85" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K85" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L85" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="M85" s="11">
         <v>60</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>60</v>
       </c>
       <c r="O85" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>60</v>
       </c>
       <c r="P85" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
       <c r="R85" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S85" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T85" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U85" s="11">
         <v>90</v>
       </c>
       <c r="V85" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>90</v>
       </c>
       <c r="W85" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>90</v>
       </c>
       <c r="X85" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>90</v>
       </c>
       <c r="Z85" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA85" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB85" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD85" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE85" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF85" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -16058,90 +16058,90 @@
         <v>0.5</v>
       </c>
       <c r="J86" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.5</v>
       </c>
       <c r="K86" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0.5</v>
       </c>
       <c r="L86" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="M86" s="11">
         <v>0.4</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0.4</v>
       </c>
       <c r="O86" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0.4</v>
       </c>
       <c r="P86" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0.4</v>
       </c>
       <c r="Q86" s="11">
         <v>0.2</v>
       </c>
       <c r="R86" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.2</v>
       </c>
       <c r="S86" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0.2</v>
       </c>
       <c r="T86" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0.2</v>
       </c>
       <c r="U86" s="11">
         <v>4</v>
       </c>
       <c r="V86" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>4</v>
       </c>
       <c r="W86" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4</v>
       </c>
       <c r="X86" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>4</v>
       </c>
       <c r="Y86" s="11">
         <v>1</v>
       </c>
       <c r="Z86" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>1</v>
       </c>
       <c r="AA86" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="AB86" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="AC86" s="11">
         <v>1.5</v>
       </c>
       <c r="AD86" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>1.5</v>
       </c>
       <c r="AE86" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1.5</v>
       </c>
       <c r="AF86" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>1.5</v>
       </c>
     </row>
@@ -16163,90 +16163,90 @@
         <v>70</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>70</v>
       </c>
       <c r="K87" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>70</v>
       </c>
       <c r="L87" s="16">
+        <f t="shared" si="115"/>
+        <v>70</v>
+      </c>
+      <c r="M87" s="11">
+        <v>60</v>
+      </c>
+      <c r="N87" s="12">
+        <f t="shared" si="121"/>
+        <v>60</v>
+      </c>
+      <c r="O87" s="15">
+        <f t="shared" si="105"/>
+        <v>60</v>
+      </c>
+      <c r="P87" s="16">
+        <f t="shared" si="116"/>
+        <v>60</v>
+      </c>
+      <c r="Q87" s="11">
+        <v>70</v>
+      </c>
+      <c r="R87" s="12">
+        <f t="shared" si="122"/>
+        <v>70</v>
+      </c>
+      <c r="S87" s="15">
+        <f t="shared" si="106"/>
+        <v>70</v>
+      </c>
+      <c r="T87" s="16">
+        <f t="shared" si="117"/>
+        <v>70</v>
+      </c>
+      <c r="U87" s="11">
+        <v>100</v>
+      </c>
+      <c r="V87" s="12">
+        <f t="shared" si="123"/>
+        <v>100</v>
+      </c>
+      <c r="W87" s="15">
+        <f t="shared" si="107"/>
+        <v>100</v>
+      </c>
+      <c r="X87" s="16">
+        <f t="shared" si="118"/>
+        <v>100</v>
+      </c>
+      <c r="Y87" s="11">
+        <v>90</v>
+      </c>
+      <c r="Z87" s="12">
+        <f t="shared" si="124"/>
+        <v>90</v>
+      </c>
+      <c r="AA87" s="15">
+        <f t="shared" si="108"/>
+        <v>90</v>
+      </c>
+      <c r="AB87" s="16">
+        <f t="shared" si="119"/>
+        <v>90</v>
+      </c>
+      <c r="AC87" s="11">
+        <v>70</v>
+      </c>
+      <c r="AD87" s="12">
+        <f t="shared" si="125"/>
+        <v>70</v>
+      </c>
+      <c r="AE87" s="15">
         <f t="shared" si="109"/>
         <v>70</v>
       </c>
-      <c r="M87" s="11">
-        <v>60</v>
-      </c>
-      <c r="N87" s="12">
-        <f t="shared" si="115"/>
-        <v>60</v>
-      </c>
-      <c r="O87" s="15">
-        <f t="shared" si="99"/>
-        <v>60</v>
-      </c>
-      <c r="P87" s="16">
-        <f t="shared" si="110"/>
-        <v>60</v>
-      </c>
-      <c r="Q87" s="11">
-        <v>70</v>
-      </c>
-      <c r="R87" s="12">
-        <f t="shared" si="116"/>
-        <v>70</v>
-      </c>
-      <c r="S87" s="15">
-        <f t="shared" si="100"/>
-        <v>70</v>
-      </c>
-      <c r="T87" s="16">
-        <f t="shared" si="111"/>
-        <v>70</v>
-      </c>
-      <c r="U87" s="11">
-        <v>100</v>
-      </c>
-      <c r="V87" s="12">
-        <f t="shared" si="117"/>
-        <v>100</v>
-      </c>
-      <c r="W87" s="15">
-        <f t="shared" si="101"/>
-        <v>100</v>
-      </c>
-      <c r="X87" s="16">
-        <f t="shared" si="112"/>
-        <v>100</v>
-      </c>
-      <c r="Y87" s="11">
-        <v>90</v>
-      </c>
-      <c r="Z87" s="12">
-        <f t="shared" si="118"/>
-        <v>90</v>
-      </c>
-      <c r="AA87" s="15">
-        <f t="shared" si="102"/>
-        <v>90</v>
-      </c>
-      <c r="AB87" s="16">
-        <f t="shared" si="113"/>
-        <v>90</v>
-      </c>
-      <c r="AC87" s="11">
-        <v>70</v>
-      </c>
-      <c r="AD87" s="12">
-        <f t="shared" si="119"/>
-        <v>70</v>
-      </c>
-      <c r="AE87" s="15">
-        <f t="shared" si="103"/>
-        <v>70</v>
-      </c>
       <c r="AF87" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>70</v>
       </c>
     </row>
@@ -16265,75 +16265,75 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
       <c r="J88" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L88" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X88" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="12">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="N88" s="12">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="12">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="12">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="12">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AD88" s="12">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AE88" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF88" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -16352,75 +16352,75 @@
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
       <c r="J89" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L89" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X89" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AD89" s="12">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="N89" s="12">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="12">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="12">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="12">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="12">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF89" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -16439,75 +16439,75 @@
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
       <c r="J90" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L90" s="16">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="15">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="15">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="15">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="15">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AD90" s="12">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="15">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="N90" s="12">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="15">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="16">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="12">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="15">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="12">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="15">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="16">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="12">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="15">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="16">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="AD90" s="12">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AE90" s="15">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="AF90" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -16526,78 +16526,78 @@
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
       <c r="J91" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L91" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O91" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P91" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R91" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S91" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T91" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U91" s="11">
         <v>18</v>
       </c>
       <c r="V91" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>18</v>
       </c>
       <c r="W91" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>18</v>
       </c>
       <c r="X91" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>18</v>
       </c>
       <c r="Z91" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA91" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB91" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD91" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE91" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF91" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -16616,78 +16616,78 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
       <c r="J92" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L92" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N92" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O92" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P92" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R92" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S92" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T92" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U92" s="11">
         <v>1</v>
       </c>
       <c r="V92" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="W92" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="X92" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>1</v>
       </c>
       <c r="Z92" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA92" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB92" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD92" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE92" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF92" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -16706,78 +16706,78 @@
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
       <c r="J93" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="K93" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L93" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N93" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O93" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P93" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R93" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S93" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T93" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U93" s="11">
         <v>5</v>
       </c>
       <c r="V93" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="W93" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>5</v>
       </c>
       <c r="X93" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>5</v>
       </c>
       <c r="Z93" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA93" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB93" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AD93" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AE93" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AF93" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -21081,8 +21081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C17" sqref="C1:E1048576"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21516,7 +21516,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="7">J5</f>
+        <f t="shared" ref="K5:K20" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -21528,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="9">N5</f>
+        <f t="shared" ref="O5:O20" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -21543,7 +21543,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="11">R5</f>
+        <f t="shared" ref="S5:S20" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -21558,7 +21558,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="13">V5</f>
+        <f t="shared" ref="W5:W20" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -21573,7 +21573,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="15">Z5</f>
+        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -21983,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="17">J10</f>
+        <f t="shared" ref="K10:K25" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="18">N10</f>
+        <f t="shared" ref="O10:O25" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="19">R10</f>
+        <f t="shared" ref="S10:S25" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -22022,7 +22022,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="20">V10</f>
+        <f t="shared" ref="W10:W25" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -22034,7 +22034,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="21">Z10</f>
+        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -24498,66 +24498,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="36">J37</f>
+        <f t="shared" ref="K37:K44" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="37">K37</f>
+        <f t="shared" ref="L37:L44" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="38">L37</f>
+        <f t="shared" ref="M37:M50" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="39">N37</f>
+        <f t="shared" ref="O37:O44" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="40">O37</f>
+        <f t="shared" ref="P37:P44" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="41">P37</f>
+        <f t="shared" ref="Q37:Q50" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="42">R37</f>
+        <f t="shared" ref="S37:S44" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="43">S37</f>
+        <f t="shared" ref="T37:T44" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="44">T37</f>
+        <f t="shared" ref="U37:U50" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="45">V37</f>
+        <f t="shared" ref="W37:W44" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="46">W37</f>
+        <f t="shared" ref="X37:X44" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="47">X37</f>
+        <f t="shared" ref="Y37:Y50" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="48">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="49">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="50">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -24785,75 +24785,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="51">J40</f>
+        <f t="shared" ref="K40:K47" si="51">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="52">K40</f>
+        <f t="shared" ref="L40:L47" si="52">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40" si="53">L40</f>
+        <f t="shared" ref="M40:M53" si="53">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="54">N40</f>
+        <f t="shared" ref="O40:O47" si="54">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="55">O40</f>
+        <f t="shared" ref="P40:P47" si="55">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40" si="56">P40</f>
+        <f t="shared" ref="Q40:Q53" si="56">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="57">R40</f>
+        <f t="shared" ref="S40:S47" si="57">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="58">S40</f>
+        <f t="shared" ref="T40:T47" si="58">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40" si="59">T40</f>
+        <f t="shared" ref="U40:U53" si="59">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="60">V40</f>
+        <f t="shared" ref="W40:W47" si="60">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="61">W40</f>
+        <f t="shared" ref="X40:X47" si="61">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40" si="62">X40</f>
+        <f t="shared" ref="Y40:Y53" si="62">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="63">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="63">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="64">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="64">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40" si="65">AB40</f>
+        <f t="shared" ref="AC40:AC53" si="65">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -25107,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="66">L43</f>
+        <f t="shared" ref="M43:M56" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -25122,7 +25122,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="67">P43</f>
+        <f t="shared" ref="Q43:Q56" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -25137,7 +25137,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="68">T43</f>
+        <f t="shared" ref="U43:U56" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -25152,7 +25152,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="69">X43</f>
+        <f t="shared" ref="Y43:Y56" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -25167,7 +25167,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -25198,11 +25198,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="71">J44</f>
+        <f t="shared" ref="K44:K51" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="72">K44</f>
+        <f t="shared" ref="L44:L51" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -25213,11 +25213,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="73">N44</f>
+        <f t="shared" ref="O44:O51" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="74">O44</f>
+        <f t="shared" ref="P44:P51" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -25228,11 +25228,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="75">R44</f>
+        <f t="shared" ref="S44:S51" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="76">S44</f>
+        <f t="shared" ref="T44:T51" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -25240,11 +25240,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="77">V44</f>
+        <f t="shared" ref="W44:W51" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="78">W44</f>
+        <f t="shared" ref="X44:X51" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -25255,11 +25255,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="79">Z44</f>
+        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="80">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -25304,7 +25304,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" ref="L45" si="82">K45*$D45</f>
+        <f t="shared" ref="L45:L55" si="82">K45*$D45</f>
         <v>0</v>
       </c>
       <c r="M45" s="16">
@@ -25319,7 +25319,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P45" s="15">
-        <f t="shared" ref="P45" si="83">O45*$D45</f>
+        <f t="shared" ref="P45:P55" si="83">O45*$D45</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="Q45" s="16">
@@ -25334,7 +25334,7 @@
         <v>0.01</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" ref="T45" si="84">S45*$D45</f>
+        <f t="shared" ref="T45:T55" si="84">S45*$D45</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U45" s="16">
@@ -25346,7 +25346,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" ref="X45" si="85">W45*$D45</f>
+        <f t="shared" ref="X45:X55" si="85">W45*$D45</f>
         <v>0</v>
       </c>
       <c r="Y45" s="16">
@@ -25361,7 +25361,7 @@
         <v>0.05</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" ref="AB45" si="86">AA45*$D45</f>
+        <f t="shared" ref="AB45:AB55" si="86">AA45*$D45</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="AC45" s="16">
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="87">L47</f>
+        <f t="shared" ref="M47:M60" si="87">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -25526,7 +25526,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="88">P47</f>
+        <f t="shared" ref="Q47:Q60" si="88">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -25541,7 +25541,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="89">T47</f>
+        <f t="shared" ref="U47:U60" si="89">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -25553,7 +25553,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="90">X47</f>
+        <f t="shared" ref="Y47:Y60" si="90">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -25568,7 +25568,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="91">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="91">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -25612,7 +25612,7 @@
         <v>1.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48" si="92">K48*$D48</f>
+        <f t="shared" ref="L48:L58" si="92">K48*$D48</f>
         <v>1.125</v>
       </c>
       <c r="M48" s="16">
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48" si="93">O48*$D48</f>
+        <f t="shared" ref="P48:P58" si="93">O48*$D48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -25639,7 +25639,7 @@
         <v>0.75</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48" si="94">S48*$D48</f>
+        <f t="shared" ref="T48:T58" si="94">S48*$D48</f>
         <v>0.5625</v>
       </c>
       <c r="U48" s="16">
@@ -25654,7 +25654,7 @@
         <v>1.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48" si="95">W48*$D48</f>
+        <f t="shared" ref="X48:X58" si="95">W48*$D48</f>
         <v>1.125</v>
       </c>
       <c r="Y48" s="16">
@@ -25669,7 +25669,7 @@
         <v>0.75</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48" si="96">AA48*$D48</f>
+        <f t="shared" ref="AB48:AB58" si="96">AA48*$D48</f>
         <v>0.5625</v>
       </c>
       <c r="AC48" s="16">
@@ -25822,7 +25822,7 @@
         <v>1.5</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" ref="L50:L55" si="97">K50*$D50</f>
+        <f t="shared" ref="L50:L60" si="97">K50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="M50" s="16">
@@ -25834,7 +25834,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:P55" si="98">O50*$D50</f>
+        <f t="shared" ref="P50:P60" si="98">O50*$D50</f>
         <v>0.75</v>
       </c>
       <c r="Q50" s="16">
@@ -25849,7 +25849,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" ref="T50:T55" si="99">S50*$D50</f>
+        <f t="shared" ref="T50:T60" si="99">S50*$D50</f>
         <v>0.75</v>
       </c>
       <c r="U50" s="16">
@@ -25864,7 +25864,7 @@
         <v>1.5</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" ref="X50:X55" si="100">W50*$D50</f>
+        <f t="shared" ref="X50:X60" si="100">W50*$D50</f>
         <v>1.125</v>
       </c>
       <c r="Y50" s="16">
@@ -25879,7 +25879,7 @@
         <v>1</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" ref="AB50:AB55" si="101">AA50*$D50</f>
+        <f t="shared" ref="AB50:AB60" si="101">AA50*$D50</f>
         <v>0.75</v>
       </c>
       <c r="AC50" s="16">
@@ -26129,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K60" si="103">J53</f>
+        <f t="shared" ref="K53:K93" si="103">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -26141,7 +26141,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O60" si="104">N53</f>
+        <f t="shared" ref="O53:O93" si="104">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -26156,7 +26156,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S60" si="105">R53</f>
+        <f t="shared" ref="S53:S93" si="105">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -26171,7 +26171,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W60" si="106">V53</f>
+        <f t="shared" ref="W53:W93" si="106">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -26186,7 +26186,7 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA60" si="107">Z53</f>
+        <f t="shared" ref="AA53:AA93" si="107">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -26701,7 +26701,9 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
       <c r="F59" s="11">
         <v>9.6</v>
       </c>
@@ -26714,8 +26716,8 @@
         <v>9.6</v>
       </c>
       <c r="I59" s="16">
-        <f>H59</f>
-        <v>9.6</v>
+        <f>$E59*H59</f>
+        <v>0</v>
       </c>
       <c r="K59" s="12">
         <f t="shared" si="103"/>
@@ -26726,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f>L59</f>
+        <f>$E59*L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="12">
@@ -26738,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f>P59</f>
+        <f>$E59*P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="11">
@@ -26753,8 +26755,8 @@
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f>T59</f>
-        <v>3.5</v>
+        <f>$E59*T59</f>
+        <v>0</v>
       </c>
       <c r="W59" s="12">
         <f t="shared" si="106"/>
@@ -26765,7 +26767,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f>X59</f>
+        <f>$E59*X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="12">
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f>AB59</f>
+        <f>$E59*AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -26791,7 +26793,9 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
       <c r="F60" s="11">
         <v>0.4</v>
       </c>
@@ -26804,8 +26808,8 @@
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
-        <f>H60</f>
-        <v>0.4</v>
+        <f>$E60*H60</f>
+        <v>0</v>
       </c>
       <c r="K60" s="12">
         <f t="shared" si="103"/>
@@ -26816,7 +26820,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="16">
-        <f>L60</f>
+        <f>$E60*L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="12">
@@ -26828,7 +26832,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f>P60</f>
+        <f>$E60*P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="11">
@@ -26843,8 +26847,8 @@
         <v>2</v>
       </c>
       <c r="U60" s="16">
-        <f>T60</f>
-        <v>2</v>
+        <f>$E60*T60</f>
+        <v>0</v>
       </c>
       <c r="W60" s="12">
         <f t="shared" si="106"/>
@@ -26855,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="16">
-        <f>X60</f>
+        <f>$E60*X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
@@ -26867,7 +26871,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="16">
-        <f>AB60</f>
+        <f>$E60*AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -26992,7 +26996,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K79" si="113">J62</f>
+        <f t="shared" ref="K62:K93" si="113">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -27004,7 +27008,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O79" si="114">N62</f>
+        <f t="shared" ref="O62:O93" si="114">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -27019,22 +27023,22 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S79" si="115">R62</f>
+        <f t="shared" ref="S62:S93" si="115">R62</f>
         <v>3.5</v>
       </c>
-      <c r="T62" s="42">
-        <f>IF(S62&gt;0,S62,IF(S64+S61=0,0,S59))</f>
+      <c r="T62" s="15">
+        <f t="shared" si="110"/>
         <v>3.5</v>
       </c>
-      <c r="U62" s="16">
-        <f>T62</f>
+      <c r="U62" s="42">
+        <f>IF(T62&gt;0,T62,IF(T64+T61=0,0,T59))</f>
         <v>3.5</v>
       </c>
       <c r="V62" s="11">
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W79" si="116">V62</f>
+        <f t="shared" ref="W62:W93" si="116">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -27049,7 +27053,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA79" si="117">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="117">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -27118,12 +27122,12 @@
         <f t="shared" si="115"/>
         <v>2</v>
       </c>
-      <c r="T63" s="42">
-        <f>IF(S63&gt;0,S63,IF(S64+S61=0,0,S60))</f>
+      <c r="T63" s="15">
+        <f t="shared" si="110"/>
         <v>2</v>
       </c>
-      <c r="U63" s="16">
-        <f>T63</f>
+      <c r="U63" s="42">
+        <f>IF(T63&gt;0,T63,IF(T64+T61=0,0,T60))</f>
         <v>2</v>
       </c>
       <c r="V63" s="11">
@@ -29901,8 +29905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52981,7 +52985,7 @@
       </c>
       <c r="H59">
         <f>'2_MechAdd_ModSeverity'!I59</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <f>'2_MechAdd_HighSeverity'!G59</f>
@@ -53101,7 +53105,7 @@
       </c>
       <c r="AL59">
         <f>'2_MechAdd_ModSeverity'!U59</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AM59">
         <f>'2_MechAdd_HighSeverity'!S59</f>
@@ -53227,7 +53231,7 @@
       </c>
       <c r="H60">
         <f>'2_MechAdd_ModSeverity'!I60</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <f>'2_MechAdd_HighSeverity'!G60</f>
@@ -53347,7 +53351,7 @@
       </c>
       <c r="AL60">
         <f>'2_MechAdd_ModSeverity'!U60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM60">
         <f>'2_MechAdd_HighSeverity'!S60</f>

--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD67"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7539,8 +7539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7973,7 +7973,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="8">J5</f>
+        <f t="shared" ref="K5:K15" si="8">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="10">N5</f>
+        <f t="shared" ref="O5:O15" si="10">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -8000,7 +8000,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="12">R5</f>
+        <f t="shared" ref="S5:S15" si="12">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -8015,7 +8015,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="14">V5</f>
+        <f t="shared" ref="W5:W15" si="14">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -8030,7 +8030,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="16">Z5</f>
+        <f t="shared" ref="AA5:AA15" si="16">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -8247,7 +8247,7 @@
         <v>291</v>
       </c>
       <c r="C8" s="4">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -8304,15 +8304,15 @@
       </c>
       <c r="W8" s="12">
         <f>$C8*V8</f>
-        <v>9.375</v>
+        <v>8.25</v>
       </c>
       <c r="X8" s="15">
         <f t="shared" si="15"/>
-        <v>9.375</v>
+        <v>8.25</v>
       </c>
       <c r="Y8" s="16">
         <f t="shared" si="4"/>
-        <v>9.375</v>
+        <v>8.25</v>
       </c>
       <c r="AA8" s="12">
         <f>$C8*Z8</f>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="18">J10</f>
+        <f t="shared" ref="K10:K20" si="18">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="19">N10</f>
+        <f t="shared" ref="O10:O20" si="19">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="20">R10</f>
+        <f t="shared" ref="S10:S20" si="20">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -8479,7 +8479,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="21">V10</f>
+        <f t="shared" ref="W10:W20" si="21">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -8491,7 +8491,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="22">Z10</f>
+        <f t="shared" ref="AA10:AA20" si="22">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:K15" si="23">J13</f>
+        <f t="shared" ref="K13:K23" si="23">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:O15" si="24">N13</f>
+        <f t="shared" ref="O13:O23" si="24">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -8732,7 +8732,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" ref="S13:S15" si="25">R13</f>
+        <f t="shared" ref="S13:S23" si="25">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="15">
@@ -8747,7 +8747,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" ref="W13:W15" si="26">V13</f>
+        <f t="shared" ref="W13:W23" si="26">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="15">
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" ref="AA13:AA15" si="27">Z13</f>
+        <f t="shared" ref="AA13:AA23" si="27">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="15">
@@ -10640,7 +10640,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34" si="36">L34</f>
+        <f t="shared" ref="M34:M47" si="36">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -10655,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34" si="37">P34</f>
+        <f t="shared" ref="Q34:Q47" si="37">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -10670,7 +10670,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34" si="38">T34</f>
+        <f t="shared" ref="U34:U47" si="38">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -10685,7 +10685,7 @@
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34" si="39">X34</f>
+        <f t="shared" ref="Y34:Y47" si="39">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -10700,7 +10700,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34" si="40">AB34</f>
+        <f t="shared" ref="AC34:AC47" si="40">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -10949,66 +10949,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="43">J37</f>
+        <f t="shared" ref="K37:K44" si="43">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="44">K37</f>
+        <f t="shared" ref="L37:L44" si="44">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="45">L37</f>
+        <f t="shared" ref="M37:M50" si="45">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="46">N37</f>
+        <f t="shared" ref="O37:O44" si="46">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="47">O37</f>
+        <f t="shared" ref="P37:P44" si="47">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="48">P37</f>
+        <f t="shared" ref="Q37:Q50" si="48">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="49">R37</f>
+        <f t="shared" ref="S37:S44" si="49">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="50">S37</f>
+        <f t="shared" ref="T37:T44" si="50">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="51">T37</f>
+        <f t="shared" ref="U37:U50" si="51">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="52">V37</f>
+        <f t="shared" ref="W37:W44" si="52">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="53">W37</f>
+        <f t="shared" ref="X37:X44" si="53">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="54">X37</f>
+        <f t="shared" ref="Y37:Y50" si="54">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="55">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="55">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="56">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="56">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="57">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="57">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -11236,75 +11236,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="58">J40</f>
+        <f t="shared" ref="K40:K47" si="58">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="59">K40</f>
+        <f t="shared" ref="L40:L47" si="59">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40" si="60">L40</f>
+        <f t="shared" ref="M40:M53" si="60">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="61">N40</f>
+        <f t="shared" ref="O40:O47" si="61">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="62">O40</f>
+        <f t="shared" ref="P40:P47" si="62">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40" si="63">P40</f>
+        <f t="shared" ref="Q40:Q53" si="63">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="64">R40</f>
+        <f t="shared" ref="S40:S47" si="64">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="65">S40</f>
+        <f t="shared" ref="T40:T47" si="65">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40" si="66">T40</f>
+        <f t="shared" ref="U40:U53" si="66">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="67">V40</f>
+        <f t="shared" ref="W40:W47" si="67">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="68">W40</f>
+        <f t="shared" ref="X40:X47" si="68">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40" si="69">X40</f>
+        <f t="shared" ref="Y40:Y53" si="69">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="70">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="70">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="71">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="71">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40" si="72">AB40</f>
+        <f t="shared" ref="AC40:AC53" si="72">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="73">L43</f>
+        <f t="shared" ref="M43:M56" si="73">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -11573,7 +11573,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="74">P43</f>
+        <f t="shared" ref="Q43:Q56" si="74">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -11588,7 +11588,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="75">T43</f>
+        <f t="shared" ref="U43:U56" si="75">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -11603,7 +11603,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="76">X43</f>
+        <f t="shared" ref="Y43:Y56" si="76">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -11618,7 +11618,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="77">AB43</f>
+        <f t="shared" ref="AC43:AC56" si="77">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -11649,11 +11649,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="78">J44</f>
+        <f t="shared" ref="K44:K51" si="78">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="79">K44</f>
+        <f t="shared" ref="L44:L51" si="79">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -11664,11 +11664,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="80">N44</f>
+        <f t="shared" ref="O44:O51" si="80">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="81">O44</f>
+        <f t="shared" ref="P44:P51" si="81">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -11679,11 +11679,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="82">R44</f>
+        <f t="shared" ref="S44:S51" si="82">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="83">S44</f>
+        <f t="shared" ref="T44:T51" si="83">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -11691,11 +11691,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="84">V44</f>
+        <f t="shared" ref="W44:W51" si="84">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="85">W44</f>
+        <f t="shared" ref="X44:X51" si="85">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -11706,11 +11706,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="86">Z44</f>
+        <f t="shared" ref="AA44:AA51" si="86">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="87">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="87">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="88">L47</f>
+        <f t="shared" ref="M47:M60" si="88">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -11977,7 +11977,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="89">P47</f>
+        <f t="shared" ref="Q47:Q60" si="89">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -11992,7 +11992,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="90">T47</f>
+        <f t="shared" ref="U47:U60" si="90">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="91">X47</f>
+        <f t="shared" ref="Y47:Y60" si="91">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -12019,7 +12019,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="92">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="92">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K60" si="100">J53</f>
+        <f t="shared" ref="K53:K93" si="100">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O60" si="101">N53</f>
+        <f t="shared" ref="O53:O93" si="101">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S60" si="102">R53</f>
+        <f t="shared" ref="S53:S93" si="102">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -12622,7 +12622,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W60" si="103">V53</f>
+        <f t="shared" ref="W53:W93" si="103">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -12637,7 +12637,7 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA60" si="104">Z53</f>
+        <f t="shared" ref="AA53:AA93" si="104">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -13447,7 +13447,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="40">
-        <f t="shared" ref="K62:K79" si="110">J62</f>
+        <f t="shared" ref="K62:K93" si="110">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="41">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="40">
-        <f t="shared" ref="O62:O79" si="111">N62</f>
+        <f t="shared" ref="O62:O93" si="111">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="41">
@@ -13474,7 +13474,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="40">
-        <f t="shared" ref="S62:S79" si="112">R62</f>
+        <f t="shared" ref="S62:S93" si="112">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="41">
@@ -13489,7 +13489,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="40">
-        <f t="shared" ref="W62:W79" si="113">V62</f>
+        <f t="shared" ref="W62:W93" si="113">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="41">
@@ -13504,7 +13504,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="40">
-        <f t="shared" ref="AA62:AA79" si="114">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="114">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="41">
@@ -35844,15 +35844,15 @@
       </c>
       <c r="AQ8">
         <f>'2_MechAdd_LowSeverity'!W8</f>
-        <v>9.375</v>
+        <v>8.25</v>
       </c>
       <c r="AR8">
         <f>'2_MechAdd_LowSeverity'!X8</f>
-        <v>9.375</v>
+        <v>8.25</v>
       </c>
       <c r="AS8">
         <f>'2_MechAdd_LowSeverity'!Y8</f>
-        <v>9.375</v>
+        <v>8.25</v>
       </c>
       <c r="AT8">
         <f>'2_MechAdd_ModSeverity'!W8</f>

--- a/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
+++ b/specifications/2_MechAdd/ScriptRules_MechAdd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2757,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>93</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>88</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>90</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>89</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>91</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>92</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>83</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>85</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>86</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>87</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>94</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>96</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>95</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>97</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>98</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>69</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>70</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>71</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>74</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>72</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="G22" s="22"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>73</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="G23" s="22"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>75</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>76</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>77</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>78</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>79</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>80</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>81</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>82</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>67</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="23"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>134</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>135</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>136</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="H37" s="23"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>137</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>138</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="K39" s="23"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>111</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="J40" s="22"/>
       <c r="K40" s="23"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>112</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>113</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>114</v>
       </c>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="K43" s="23"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>115</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="23"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>116</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>117</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>118</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="K47" s="23"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>139</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>140</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>144</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>145</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>146</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>206</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>207</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>208</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>209</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>210</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>211</v>
       </c>
@@ -7539,8 +7539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView topLeftCell="A62" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7973,7 +7973,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K15" si="8">J5</f>
+        <f t="shared" ref="K5" si="8">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O15" si="10">N5</f>
+        <f t="shared" ref="O5" si="10">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -8000,7 +8000,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S15" si="12">R5</f>
+        <f t="shared" ref="S5" si="12">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -8015,7 +8015,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W15" si="14">V5</f>
+        <f t="shared" ref="W5" si="14">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -8030,7 +8030,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA15" si="16">Z5</f>
+        <f t="shared" ref="AA5" si="16">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K20" si="18">J10</f>
+        <f t="shared" ref="K10" si="18">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O20" si="19">N10</f>
+        <f t="shared" ref="O10" si="19">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S20" si="20">R10</f>
+        <f t="shared" ref="S10" si="20">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -8479,7 +8479,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W20" si="21">V10</f>
+        <f t="shared" ref="W10" si="21">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -8491,7 +8491,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA20" si="22">Z10</f>
+        <f t="shared" ref="AA10" si="22">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:K23" si="23">J13</f>
+        <f t="shared" ref="K13:K15" si="23">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:O23" si="24">N13</f>
+        <f t="shared" ref="O13:O15" si="24">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -8732,7 +8732,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" ref="S13:S23" si="25">R13</f>
+        <f t="shared" ref="S13:S15" si="25">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="15">
@@ -8747,7 +8747,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" ref="W13:W23" si="26">V13</f>
+        <f t="shared" ref="W13:W15" si="26">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="15">
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" ref="AA13:AA23" si="27">Z13</f>
+        <f t="shared" ref="AA13:AA15" si="27">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="15">
@@ -10640,7 +10640,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34:M47" si="36">L34</f>
+        <f t="shared" ref="M34" si="36">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -10655,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34:Q47" si="37">P34</f>
+        <f t="shared" ref="Q34" si="37">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -10670,7 +10670,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34:U47" si="38">T34</f>
+        <f t="shared" ref="U34" si="38">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -10685,7 +10685,7 @@
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34:Y47" si="39">X34</f>
+        <f t="shared" ref="Y34" si="39">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -10700,7 +10700,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34:AC47" si="40">AB34</f>
+        <f t="shared" ref="AC34" si="40">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -10949,66 +10949,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="43">J37</f>
+        <f t="shared" ref="K37" si="43">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="44">K37</f>
+        <f t="shared" ref="L37" si="44">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="45">L37</f>
+        <f t="shared" ref="M37" si="45">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="46">N37</f>
+        <f t="shared" ref="O37" si="46">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="47">O37</f>
+        <f t="shared" ref="P37" si="47">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="48">P37</f>
+        <f t="shared" ref="Q37" si="48">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="49">R37</f>
+        <f t="shared" ref="S37" si="49">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="50">S37</f>
+        <f t="shared" ref="T37" si="50">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="51">T37</f>
+        <f t="shared" ref="U37" si="51">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="52">V37</f>
+        <f t="shared" ref="W37" si="52">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="53">W37</f>
+        <f t="shared" ref="X37" si="53">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="54">X37</f>
+        <f t="shared" ref="Y37" si="54">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="55">Z37</f>
+        <f t="shared" ref="AA37" si="55">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="56">AA37</f>
+        <f t="shared" ref="AB37" si="56">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="57">AB37</f>
+        <f t="shared" ref="AC37" si="57">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -11236,75 +11236,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="58">J40</f>
+        <f t="shared" ref="K40" si="58">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="59">K40</f>
+        <f t="shared" ref="L40" si="59">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40:M53" si="60">L40</f>
+        <f t="shared" ref="M40" si="60">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="61">N40</f>
+        <f t="shared" ref="O40" si="61">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="62">O40</f>
+        <f t="shared" ref="P40" si="62">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40:Q53" si="63">P40</f>
+        <f t="shared" ref="Q40" si="63">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="64">R40</f>
+        <f t="shared" ref="S40" si="64">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="65">S40</f>
+        <f t="shared" ref="T40" si="65">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40:U53" si="66">T40</f>
+        <f t="shared" ref="U40" si="66">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="67">V40</f>
+        <f t="shared" ref="W40" si="67">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="68">W40</f>
+        <f t="shared" ref="X40" si="68">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40:Y53" si="69">X40</f>
+        <f t="shared" ref="Y40" si="69">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="70">Z40</f>
+        <f t="shared" ref="AA40" si="70">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="71">AA40</f>
+        <f t="shared" ref="AB40" si="71">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40:AC53" si="72">AB40</f>
+        <f t="shared" ref="AC40" si="72">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M56" si="73">L43</f>
+        <f t="shared" ref="M43:M44" si="73">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -11573,7 +11573,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q56" si="74">P43</f>
+        <f t="shared" ref="Q43:Q44" si="74">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -11588,7 +11588,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U56" si="75">T43</f>
+        <f t="shared" ref="U43:U44" si="75">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -11603,7 +11603,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y56" si="76">X43</f>
+        <f t="shared" ref="Y43:Y44" si="76">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -11618,7 +11618,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC56" si="77">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="77">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -11649,11 +11649,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44:K51" si="78">J44</f>
+        <f t="shared" ref="K44" si="78">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="79">K44</f>
+        <f t="shared" ref="L44" si="79">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -11664,11 +11664,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O51" si="80">N44</f>
+        <f t="shared" ref="O44" si="80">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="81">O44</f>
+        <f t="shared" ref="P44" si="81">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -11679,11 +11679,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44:S51" si="82">R44</f>
+        <f t="shared" ref="S44" si="82">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="83">S44</f>
+        <f t="shared" ref="T44" si="83">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -11691,11 +11691,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44:W51" si="84">V44</f>
+        <f t="shared" ref="W44" si="84">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="85">W44</f>
+        <f t="shared" ref="X44" si="85">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -11706,11 +11706,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44:AA51" si="86">Z44</f>
+        <f t="shared" ref="AA44" si="86">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="87">AA44</f>
+        <f t="shared" ref="AB44" si="87">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="88">L47</f>
+        <f t="shared" ref="M47" si="88">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -11977,7 +11977,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="89">P47</f>
+        <f t="shared" ref="Q47" si="89">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -11992,7 +11992,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="90">T47</f>
+        <f t="shared" ref="U47" si="90">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="91">X47</f>
+        <f t="shared" ref="Y47" si="91">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -12019,7 +12019,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="92">AB47</f>
+        <f t="shared" ref="AC47" si="92">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:K93" si="100">J53</f>
+        <f t="shared" ref="K53:K60" si="100">J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O93" si="101">N53</f>
+        <f t="shared" ref="O53:O60" si="101">N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53:S93" si="102">R53</f>
+        <f t="shared" ref="S53:S60" si="102">R53</f>
         <v>1</v>
       </c>
       <c r="T53" s="15">
@@ -12622,7 +12622,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" ref="W53:W93" si="103">V53</f>
+        <f t="shared" ref="W53:W60" si="103">V53</f>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
@@ -12637,7 +12637,7 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AA93" si="104">Z53</f>
+        <f t="shared" ref="AA53:AA60" si="104">Z53</f>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
@@ -13447,7 +13447,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="40">
-        <f t="shared" ref="K62:K93" si="110">J62</f>
+        <f t="shared" ref="K62:K79" si="110">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="41">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="40">
-        <f t="shared" ref="O62:O93" si="111">N62</f>
+        <f t="shared" ref="O62:O79" si="111">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="41">
@@ -13474,7 +13474,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="40">
-        <f t="shared" ref="S62:S93" si="112">R62</f>
+        <f t="shared" ref="S62:S79" si="112">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="41">
@@ -13489,7 +13489,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="40">
-        <f t="shared" ref="W62:W93" si="113">V62</f>
+        <f t="shared" ref="W62:W79" si="113">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="41">
@@ -13504,7 +13504,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="40">
-        <f t="shared" ref="AA62:AA93" si="114">Z62</f>
+        <f t="shared" ref="AA62:AA79" si="114">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="41">
